--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="85">
   <si>
     <t>Field_ID</t>
   </si>
@@ -71,9 +71,6 @@
     <t>birthdate</t>
   </si>
   <si>
-    <t>CSS_style</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
@@ -83,15 +80,9 @@
     <t>textarea</t>
   </si>
   <si>
-    <t>textline</t>
-  </si>
-  <si>
     <t>Insured Item Type</t>
   </si>
   <si>
-    <t>Input?</t>
-  </si>
-  <si>
     <t>item_type</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>taxi</t>
   </si>
   <si>
-    <t>value_list?</t>
-  </si>
-  <si>
     <t>intended_cover</t>
   </si>
   <si>
@@ -176,48 +164,21 @@
     <t>List_caption_MK</t>
   </si>
   <si>
-    <t>Total sum insured (including loading if any)</t>
-  </si>
-  <si>
-    <t>Purchase price</t>
-  </si>
-  <si>
-    <t>Registration number</t>
-  </si>
-  <si>
     <t>Field_size</t>
   </si>
   <si>
-    <t>Engine number</t>
-  </si>
-  <si>
     <t>CC range</t>
   </si>
   <si>
     <t>Number of seats</t>
   </si>
   <si>
-    <t>Tonnage</t>
-  </si>
-  <si>
     <t>Make</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Vehicle ID card number</t>
-  </si>
-  <si>
-    <t>Vehicle ID attachment</t>
-  </si>
-  <si>
     <t>cc_range</t>
   </si>
   <si>
-    <t>validation</t>
-  </si>
-  <si>
     <t>Службено возило</t>
   </si>
   <si>
@@ -269,22 +230,58 @@
     <t>Тип на осигурителна ставка</t>
   </si>
   <si>
-    <t>is_email</t>
-  </si>
-  <si>
-    <t>is_number</t>
-  </si>
-  <si>
     <t>is_alphanumeric</t>
   </si>
   <si>
     <t>Required</t>
   </si>
   <si>
-    <t>is_date</t>
-  </si>
-  <si>
-    <t>Loadings</t>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>alphanumeric</t>
+  </si>
+  <si>
+    <t>ne e napraveno</t>
+  </si>
+  <si>
+    <t>Insured_Item_Type</t>
+  </si>
+  <si>
+    <t>Nova Polisa</t>
+  </si>
+  <si>
+    <t>loadings</t>
+  </si>
+  <si>
+    <t>Attach a document for loadings</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>make_checkbox</t>
+  </si>
+  <si>
+    <t>Number_of_seats</t>
+  </si>
+  <si>
+    <t>Original_Purchase_Date</t>
+  </si>
+  <si>
+    <t>col-md-12</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Css</t>
+  </si>
+  <si>
+    <t>margin-left: -10%;</t>
   </si>
 </sst>
 </file>
@@ -351,13 +348,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -370,15 +365,113 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -699,24 +792,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
@@ -729,978 +822,569 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3">
-        <f t="shared" ref="M2:M15" si="0">IF(E2="dropdown",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6" t="str">
-        <f>IF(M2,"?",0)</f>
-        <v>?</v>
-      </c>
-      <c r="P2" s="3" t="str">
-        <f>IF(M2,"?",0)</f>
-        <v>?</v>
-      </c>
-      <c r="Q2" s="3" t="str">
-        <f>IF(M2,"?",0)</f>
-        <v>?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6" t="str">
-        <f t="shared" ref="O3:O17" si="1">IF(M3,"?",0)</f>
-        <v>?</v>
-      </c>
-      <c r="P3" s="3" t="str">
-        <f t="shared" ref="P3:P17" si="2">IF(M3,"?",0)</f>
-        <v>?</v>
-      </c>
-      <c r="Q3" s="3" t="str">
-        <f t="shared" ref="Q3:Q17" si="3">IF(M3,"?",0)</f>
-        <v>?</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3">
-        <f>IF(G4="n/a",0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f>IF(D4=0,"n/a","?")</f>
-        <v>n/a</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" ref="N4:N18" si="4">IF(M4,0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
-        <f>IF(G5="n/a",0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f>IF(D5=0,"n/a","?")</f>
-        <v>n/a</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3">
-        <f>IF(G6="n/a",0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f>IF(D6=0,"n/a","?")</f>
-        <v>n/a</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3">
-        <f>IF(G7="n/a",0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f>IF(D7=0,"n/a","?")</f>
-        <v>n/a</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3">
-        <f>IF(G8="n/a",0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f>IF(D8=0,"n/a","?")</f>
-        <v>n/a</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3">
-        <f>IF(G10="n/a",0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f>IF(D10=0,"n/a","?")</f>
-        <v>n/a</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="5">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3">
-        <f>IF(G12="n/a",0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" ref="G12:G18" si="5">IF(D12=0,"n/a","?")</f>
-        <v>n/a</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3">
-        <f>IF(G13="n/a",0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3">
-        <f>IF(G14="n/a",0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="K15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="3">
-        <f>IF(G15="n/a",0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3">
-        <f>IF(G16="n/a",0,"?")</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>?</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" ref="O18" si="6">IF(M18,"?",0)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <f t="shared" ref="P18" si="7">IF(M18,"?",0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" ref="Q18" si="8">IF(M18,"?",0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="3"/>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q19" s="3"/>
     </row>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="Q1:XFD19 A107:XFD1048576 P20:XFD106 M1:O1 A1:K1">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>EXACT(TEXT(A1,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>EXACT(TEXT(K4,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K6">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>EXACT(TEXT(K5,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>EXACT(TEXT(B6,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>EXACT(TEXT(K7,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>EXACT(TEXT(K9,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>EXACT(TEXT(K11,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>EXACT(TEXT(K12,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>EXACT(TEXT(K13,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>EXACT(TEXT(K14,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:O106">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>EXACT(TEXT(A1,"text"),"?")</formula>
+      <formula>EXACT(TEXT(A19,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1712,31 +1396,31 @@
           <x14:formula1>
             <xm:f>Lists!$C$3:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E18</xm:sqref>
+          <xm:sqref>E20:E36 B6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$C$14:$C$18</xm:f>
+            <xm:f>Lists!$C$15:$C$19</xm:f>
           </x14:formula1>
-          <xm:sqref>H2</xm:sqref>
+          <xm:sqref>H20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$C$19:$C$21</xm:f>
+            <xm:f>Lists!$C$20:$C$22</xm:f>
           </x14:formula1>
-          <xm:sqref>H3</xm:sqref>
+          <xm:sqref>H21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$C$22:$C$27</xm:f>
+            <xm:f>Lists!$C$23:$C$28</xm:f>
           </x14:formula1>
-          <xm:sqref>H9</xm:sqref>
+          <xm:sqref>H27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$C$28:$C$36</xm:f>
+            <xm:f>Lists!$C$29:$C$37</xm:f>
           </x14:formula1>
-          <xm:sqref>H11</xm:sqref>
+          <xm:sqref>H29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1746,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,27 +1446,27 @@
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1802,7 +1486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1822,7 +1506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1830,19 +1514,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1850,19 +1534,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1882,7 +1566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1902,7 +1586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1922,7 +1606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1930,19 +1614,19 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1962,7 +1646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1981,8 +1665,11 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1990,19 +1677,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2010,76 +1697,79 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,19 +1777,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2107,39 +1797,39 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,19 +1837,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2167,39 +1857,39 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2207,19 +1897,19 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,19 +1917,19 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2247,19 +1937,19 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,19 +1957,19 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2287,39 +1977,39 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,19 +2017,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2347,19 +2037,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2367,19 +2057,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2387,19 +2077,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2407,19 +2097,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,19 +2117,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,19 +2137,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2467,18 +2157,38 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
         <v>9</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>9</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>9</v>
       </c>
     </row>
@@ -2503,57 +2213,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="93">
   <si>
     <t>Field_ID</t>
   </si>
@@ -170,12 +170,6 @@
     <t>CC range</t>
   </si>
   <si>
-    <t>Number of seats</t>
-  </si>
-  <si>
-    <t>Make</t>
-  </si>
-  <si>
     <t>cc_range</t>
   </si>
   <si>
@@ -230,9 +224,6 @@
     <t>Тип на осигурителна ставка</t>
   </si>
   <si>
-    <t>is_alphanumeric</t>
-  </si>
-  <si>
     <t>Required</t>
   </si>
   <si>
@@ -242,12 +233,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>alphanumeric</t>
-  </si>
-  <si>
-    <t>ne e napraveno</t>
-  </si>
-  <si>
     <t>Insured_Item_Type</t>
   </si>
   <si>
@@ -282,6 +267,45 @@
   </si>
   <si>
     <t>margin-left: -10%;</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>One seat</t>
+  </si>
+  <si>
+    <t>Two seats</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>dropdown;</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>alphanumericspacetextbox</t>
+  </si>
+  <si>
+    <t>alphanumerictextbox</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -352,106 +376,29 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color auto="1"/>
@@ -795,7 +742,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K16"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,40 +769,35 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="4"/>
+      <c r="J1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -863,28 +805,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="F2" t="s">
+        <v>25</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
       </c>
       <c r="Q2" s="3"/>
     </row>
@@ -893,28 +835,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>25</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
       </c>
       <c r="Q3" s="3"/>
     </row>
@@ -923,28 +865,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>25</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>73</v>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
@@ -953,28 +895,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
       </c>
       <c r="Q5" s="3"/>
     </row>
@@ -982,32 +924,32 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>77</v>
+      <c r="J6" t="s">
+        <v>76</v>
       </c>
       <c r="Q6" s="3"/>
     </row>
@@ -1016,28 +958,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>25</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>46</v>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
@@ -1046,28 +988,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>25</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
@@ -1076,28 +1018,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>48</v>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -1106,31 +1048,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>82</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>81</v>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -1139,28 +1081,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>25</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>47</v>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
@@ -1169,30 +1111,30 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>83</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>81</v>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
         <v>79</v>
       </c>
       <c r="Q12" s="3"/>
@@ -1202,28 +1144,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="F13" t="s">
+        <v>25</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>32</v>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
@@ -1232,28 +1174,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>82</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>80</v>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
@@ -1262,27 +1207,27 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="F15" t="s">
+        <v>25</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>76</v>
       </c>
       <c r="Q15" s="3"/>
@@ -1292,98 +1237,193 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
       <c r="Q21">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q1:XFD19 A107:XFD1048576 P20:XFD106 M1:O1 A1:K1">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>EXACT(TEXT(A1,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>EXACT(TEXT(K4,"text"),"?")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>EXACT(TEXT(K5,"text"),"?")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>EXACT(TEXT(B6,"text"),"?")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>EXACT(TEXT(K7,"text"),"?")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>EXACT(TEXT(K9,"text"),"?")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>EXACT(TEXT(K11,"text"),"?")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>EXACT(TEXT(K12,"text"),"?")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>EXACT(TEXT(K13,"text"),"?")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>EXACT(TEXT(K14,"text"),"?")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:O106">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A23:O24 A41:O106 A25:G40 I25:O40 L19:O22">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>EXACT(TEXT(A19,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1391,36 +1431,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$C$3:$C$13</xm:f>
+            <xm:f>Lists!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E20:E36 B6</xm:sqref>
+          <xm:sqref>C6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$C$15:$C$19</xm:f>
+            <xm:f>Lists!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>H20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lists!$C$20:$C$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>H21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lists!$C$23:$C$28</xm:f>
-          </x14:formula1>
-          <xm:sqref>H27</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lists!$C$29:$C$37</xm:f>
-          </x14:formula1>
-          <xm:sqref>H29</xm:sqref>
+          <xm:sqref>E23:E36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1430,23 +1452,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1466,7 +1489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1486,27 +1509,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1514,19 +1537,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1534,19 +1557,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1554,19 +1577,19 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1574,19 +1597,19 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1594,19 +1617,19 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1614,19 +1637,19 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1634,19 +1657,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1654,22 +1677,19 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1677,19 +1697,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1709,7 +1729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1717,99 +1737,96 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,156 +1837,156 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,19 +1994,19 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,99 +2014,99 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2097,19 +2114,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2117,19 +2134,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,19 +2154,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2157,19 +2174,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2177,18 +2194,98 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
         <v>9</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>9</v>
       </c>
-      <c r="F37">
+      <c r="F41">
         <v>9</v>
       </c>
     </row>
@@ -2230,7 +2327,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Details" sheetId="1" r:id="rId1"/>
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
     <sheet name="Name_caption_translation" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Example" sheetId="5" r:id="rId4"/>
+    <sheet name="Dget" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="106">
   <si>
     <t>Field_ID</t>
   </si>
@@ -306,13 +307,52 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>Trainings</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>CourseFee</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Power Point</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Course Fee</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Advanced</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,8 +370,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -394,21 +447,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color auto="1"/>
@@ -741,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -1418,12 +1462,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q1:XFD19 A107:XFD1048576 P20:XFD106 M1:O1 A1:K1">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>EXACT(TEXT(A1,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:O24 A41:O106 A25:G40 I25:O40 L19:O22">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>EXACT(TEXT(A19,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1454,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -2370,14 +2414,240 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>4500</v>
+      </c>
+      <c r="D2">
+        <v>0.12</v>
+      </c>
+      <c r="E2">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>5500</v>
+      </c>
+      <c r="D3">
+        <v>0.12</v>
+      </c>
+      <c r="E3">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4">
+        <v>0.12</v>
+      </c>
+      <c r="E4">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5">
+        <v>4500</v>
+      </c>
+      <c r="D5">
+        <v>0.12</v>
+      </c>
+      <c r="E5">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <v>3000</v>
+      </c>
+      <c r="D6">
+        <v>0.12</v>
+      </c>
+      <c r="E6">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>4500</v>
+      </c>
+      <c r="D7">
+        <v>0.12</v>
+      </c>
+      <c r="E7">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>4500</v>
+      </c>
+      <c r="D8">
+        <v>0.12</v>
+      </c>
+      <c r="E8">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
+      </c>
+      <c r="D9">
+        <v>0.12</v>
+      </c>
+      <c r="E9">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10">
+        <v>4500</v>
+      </c>
+      <c r="D10">
+        <v>0.12</v>
+      </c>
+      <c r="E10">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>7000</v>
+      </c>
+      <c r="D11">
+        <v>0.12</v>
+      </c>
+      <c r="E11">
+        <v>7840</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <f>DGET(Example!A1:E11, Example!E1,A1:B2)</f>
+        <v>6160</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -2417,7 +2417,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2619,7 +2619,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2643,7 @@
         <v>105</v>
       </c>
       <c r="C2">
-        <f>DGET(Example!A1:E11, Example!E1,A1:B2)</f>
+        <f>DGET(Example!A1:E11, "CourseFee",A1:B2)</f>
         <v>6160</v>
       </c>
     </row>

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="250">
   <si>
     <t>Default</t>
   </si>
@@ -1229,7 +1229,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1549,6 +1549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1615,7 +1616,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2158,10 +2169,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="139" t="s">
         <v>219</v>
       </c>
@@ -2230,38 +2241,38 @@
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="150" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
       <c r="E8" s="128"/>
     </row>
     <row r="9" spans="1:6" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="159"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="160"/>
       <c r="E9" s="116"/>
       <c r="F9" s="116"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="156"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="151"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,12 +2324,12 @@
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="150" t="s">
         <v>207</v>
       </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="151"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="152"/>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -2370,12 +2381,12 @@
       <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="150" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -2427,12 +2438,12 @@
       <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="149" t="s">
+      <c r="A26" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="151"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -2478,12 +2489,12 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="150" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="151"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="152"/>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="133" t="s">
@@ -2525,12 +2536,12 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="149" t="s">
+      <c r="A36" s="150" t="s">
         <v>223</v>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="151"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="152"/>
     </row>
     <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="133" t="s">
@@ -2567,19 +2578,19 @@
       <c r="B39" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="154">
+      <c r="C39" s="155">
         <v>42813</v>
       </c>
-      <c r="D39" s="155"/>
+      <c r="D39" s="156"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="150" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="150"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="151"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="152"/>
     </row>
     <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="133" t="s">
@@ -3791,8 +3802,8 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,9 +3913,8 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3">
-        <v>0</v>
+      <c r="O2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="P2" s="3">
         <v>0</v>
@@ -3945,9 +3955,8 @@
       <c r="M3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
-        <v>0</v>
+      <c r="O3" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
@@ -3988,9 +3997,8 @@
       <c r="M4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
-        <v>0</v>
+      <c r="O4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="114"/>
@@ -4029,8 +4037,9 @@
       <c r="M5" s="4">
         <v>50000</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="114"/>
     </row>
@@ -4064,8 +4073,9 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="114"/>
     </row>
@@ -4103,8 +4113,9 @@
       <c r="M7" s="137">
         <v>42052</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="114"/>
     </row>
@@ -4138,8 +4149,9 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="114"/>
     </row>
@@ -4173,8 +4185,9 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="114"/>
     </row>
@@ -4208,8 +4221,9 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="114"/>
     </row>
@@ -4247,8 +4261,9 @@
       <c r="M11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="23"/>
+      <c r="O11" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P11" s="3">
         <f>DGET(DGET!A1:C36,"Rates",DGET!A39:C40)</f>
         <v>1250</v>
@@ -4786,8 +4801,12 @@
       <c r="K23" s="3"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P23" s="3">
         <f ca="1">P22-O29</f>
         <v>3345.4375</v>
@@ -4824,8 +4843,12 @@
       <c r="K24" s="3"/>
       <c r="L24" s="10"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="N24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P24" s="3">
         <f ca="1">P23-P23*M28</f>
         <v>2509.078125</v>
@@ -4915,8 +4938,12 @@
       <c r="M26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
+      <c r="N26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="114"/>
     </row>
@@ -4950,8 +4977,12 @@
       <c r="K27" s="3"/>
       <c r="L27" s="10"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="N27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="114"/>
     </row>
@@ -4992,7 +5023,9 @@
       <c r="N28" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O28" s="3"/>
+      <c r="O28" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="114"/>
     </row>
@@ -5112,40 +5145,48 @@
       </c>
       <c r="Q31" s="14"/>
     </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N32" s="149"/>
+    </row>
     <row r="34" spans="11:11" ht="45" x14ac:dyDescent="0.25">
       <c r="K34" s="148" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P13:XFD13 O12:XFD12 M31:XFD1048576 O14:XFD14 O8:XFD9 Q10:XFD10 O2:P7 V2:XFD7 M1:Q1 S15:XFD15 O15:Q15 S11:XFD11 P11:Q11 AC1:XFD1 N2:N25 N27:XFD29 P26:XFD26 Q30:XFD30 M30:O30 O16:XFD25 M12:M17 M19:M30 K1 L19:L1048576 L1:L17 A1:J1048576">
-    <cfRule type="expression" dxfId="14" priority="7">
+  <conditionalFormatting sqref="P13:XFD13 O12:XFD12 M31:XFD1048576 O14:XFD14 P8:XFD9 Q10:XFD10 P2:P7 V2:XFD7 M1:Q1 S15:XFD15 O15:Q15 S11:XFD11 P11:Q11 AC1:XFD1 P26:XFD26 Q30:XFD30 M30:O30 O16:XFD25 M12:M17 M19:M30 K1 L19:L1048576 L1:L17 A1:J1048576 N27:XFD29 N12:N25 O2:O11">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>EXACT(TEXT(A1,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M10">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>EXACT(TEXT(M3,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>EXACT(TEXT(M11,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>EXACT(TEXT(M2,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>EXACT(TEXT(M18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>EXACT(TEXT(L18,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
     <cfRule type="expression" dxfId="9" priority="1">
-      <formula>EXACT(TEXT(L18,"text"),"?")</formula>
+      <formula>EXACT(TEXT(N26,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5626,11 +5667,11 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="164"/>
-      <c r="C38" s="165"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="166"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="62" t="s">
@@ -6931,12 +6972,12 @@
     </row>
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="160" t="s">
+      <c r="A134" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="B134" s="161"/>
-      <c r="C134" s="161"/>
-      <c r="D134" s="162"/>
+      <c r="B134" s="162"/>
+      <c r="C134" s="162"/>
+      <c r="D134" s="163"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
@@ -8454,12 +8495,12 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="160" t="s">
+      <c r="A245" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="B245" s="161"/>
-      <c r="C245" s="161"/>
-      <c r="D245" s="162"/>
+      <c r="B245" s="162"/>
+      <c r="C245" s="162"/>
+      <c r="D245" s="163"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="62" t="s">
@@ -8541,10 +8582,10 @@
     </row>
     <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="160" t="s">
+      <c r="A256" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="B256" s="162"/>
+      <c r="B256" s="163"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="62" t="s">
@@ -10258,12 +10299,12 @@
     </row>
     <row r="381" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="160" t="s">
+      <c r="A382" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="B382" s="161"/>
-      <c r="C382" s="161"/>
-      <c r="D382" s="162"/>
+      <c r="B382" s="162"/>
+      <c r="C382" s="162"/>
+      <c r="D382" s="163"/>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="62" t="s">
@@ -10745,11 +10786,11 @@
     </row>
     <row r="427" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="160" t="s">
+      <c r="A428" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="B428" s="161"/>
-      <c r="C428" s="162"/>
+      <c r="B428" s="162"/>
+      <c r="C428" s="163"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="101" t="s">
@@ -10805,11 +10846,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -10828,7 +10869,7 @@
       </c>
       <c r="B3" s="41">
         <f ca="1">TODAY()</f>
-        <v>42818</v>
+        <v>42821</v>
       </c>
       <c r="C3" s="3">
         <f>IF(B$9&lt;B2,1,0)</f>
@@ -10841,7 +10882,7 @@
       </c>
       <c r="B4" s="41">
         <f ca="1">B3-1</f>
-        <v>42817</v>
+        <v>42820</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">IF(B$9&lt;B3,1,0)</f>
@@ -10854,7 +10895,7 @@
       </c>
       <c r="B5" s="41">
         <f ca="1">EDATE(B3,-12)</f>
-        <v>42453</v>
+        <v>42456</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(B$9&lt;B5,1,0)</f>
@@ -10867,7 +10908,7 @@
       </c>
       <c r="B6" s="41">
         <f ca="1">EDATE(B3,-24)</f>
-        <v>42087</v>
+        <v>42090</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(B$9&lt;B6,1,0)</f>
@@ -10880,7 +10921,7 @@
       </c>
       <c r="B7" s="41">
         <f ca="1">EDATE(B3,-36)</f>
-        <v>41722</v>
+        <v>41725</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">IF(B$9&lt;B7,1,0)</f>
@@ -10910,10 +10951,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="168"/>
+      <c r="B12" s="169"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -10930,15 +10971,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
@@ -11141,11 +11182,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -11266,10 +11307,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="169"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -11536,8 +11577,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -3799,11 +3799,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="P23" s="3">
-        <f ca="1">P22-O29</f>
+        <f ca="1">P22-O30</f>
         <v>3345.4375</v>
       </c>
       <c r="Q23" s="114"/>
@@ -4850,66 +4850,39 @@
         <v>2</v>
       </c>
       <c r="P24" s="3">
-        <f ca="1">P23-P23*M28</f>
+        <f ca="1">P23-P23*M29</f>
         <v>2509.078125</v>
       </c>
       <c r="Q24" s="114"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="103">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="A25" s="103"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="8">
-        <v>8</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="O25" s="3">
-        <f>DGET(DGET!A386:C426,"NCD",DGET!A429:C430)</f>
-        <v>0.3</v>
-      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
       <c r="P25" s="3">
-        <f ca="1">P24-P24*O25</f>
-        <v>1756.3546875000002</v>
-      </c>
-      <c r="Q25" s="114" t="s">
-        <v>161</v>
-      </c>
+        <f ca="1">P24*O26</f>
+        <v>752.72343749999993</v>
+      </c>
+      <c r="Q25" s="114"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="103">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
@@ -4917,13 +4890,13 @@
         <v>26</v>
       </c>
       <c r="F26" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -4933,54 +4906,64 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="114"/>
+        <v>179</v>
+      </c>
+      <c r="O26" s="3">
+        <f>DGET(DGET!A386:C426,"NCD",DGET!A429:C430)</f>
+        <v>0.3</v>
+      </c>
+      <c r="P26" s="3">
+        <f ca="1">P24-P25</f>
+        <v>1756.3546875000002</v>
+      </c>
+      <c r="Q26" s="114" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="103">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="8" t="s">
-        <v>7</v>
+      <c r="E27" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F27" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>74</v>
+        <v>151</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="3"/>
+      <c r="L27" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="N27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="23" t="s">
         <v>2</v>
       </c>
       <c r="P27" s="3"/>
@@ -4988,40 +4971,36 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="103">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="3" t="s">
-        <v>26</v>
+      <c r="E28" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F28" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0.25</v>
-      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>2</v>
@@ -5031,130 +5010,172 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="103">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
       <c r="E29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="8">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M29" s="4">
-        <v>25</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O29" s="3">
-        <v>3</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="114"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="104">
-        <v>29</v>
+      <c r="A30" s="103">
+        <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M30" s="4">
+        <v>25</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O30" s="3">
+        <v>3</v>
+      </c>
+      <c r="P30" s="3">
+        <f ca="1">P26*1.01</f>
+        <v>1773.9182343750001</v>
+      </c>
+      <c r="Q30" s="114"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="104">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <v>7</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="32" t="s">
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N31" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="O30" s="3">
-        <f ca="1">P25+P25*0.01</f>
+      <c r="P31" s="3">
+        <f ca="1">IF(M31="yes",P30,P26)</f>
         <v>1773.9182343750001</v>
       </c>
-      <c r="P30" s="3">
-        <f ca="1">IF(M30="yes",O30,P25)</f>
-        <v>1773.9182343750001</v>
-      </c>
-      <c r="Q30" s="114"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="115"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="58" t="s">
+      <c r="Q31" s="114"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="115"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="O31" s="43">
-        <v>0</v>
-      </c>
-      <c r="P31" s="43">
-        <f ca="1">ROUND(P30,O31)</f>
+      <c r="O32" s="43">
+        <v>0</v>
+      </c>
+      <c r="P32" s="43">
+        <f ca="1">ROUND(P31,O32)</f>
         <v>1774</v>
       </c>
-      <c r="Q31" s="14"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N32" s="149"/>
-    </row>
-    <row r="34" spans="11:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="K34" s="148" t="s">
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="149"/>
+    </row>
+    <row r="35" spans="11:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="K35" s="148" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P13:XFD13 O12:XFD12 M31:XFD1048576 O14:XFD14 P8:XFD9 Q10:XFD10 P2:P7 V2:XFD7 M1:Q1 S15:XFD15 O15:Q15 S11:XFD11 P11:Q11 AC1:XFD1 P26:XFD26 Q30:XFD30 M30:O30 O16:XFD25 M12:M17 M19:M30 K1 L19:L1048576 L1:L17 A1:J1048576 N27:XFD29 N12:N25 O2:O11">
+  <conditionalFormatting sqref="P13:XFD13 O12:XFD12 M32:XFD1048576 O14:XFD14 P8:XFD9 Q10:XFD10 P2:P7 V2:XFD7 M1:Q1 S15:XFD15 O15:Q15 S11:XFD11 P11:Q11 AC1:XFD1 P27:XFD27 O16:XFD26 M12:M17 M19:M31 K1 L19:L1048576 L1:L17 A1:J1048576 N28:XFD29 N12:N26 O2:O11 Q30:XFD31 M31:N31 N30:P30">
     <cfRule type="expression" dxfId="15" priority="8">
       <formula>EXACT(TEXT(A1,"text"),"?")</formula>
     </cfRule>
@@ -5184,13 +5205,13 @@
       <formula>EXACT(TEXT(L18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
+  <conditionalFormatting sqref="N27">
     <cfRule type="expression" dxfId="9" priority="1">
-      <formula>EXACT(TEXT(N26,"text"),"?")</formula>
+      <formula>EXACT(TEXT(N27,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27 H30 H22 M26 M28">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28 H31 H22 M27 M29">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5198,7 +5219,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$C$14:$C$18</xm:f>
@@ -5221,31 +5242,31 @@
           <x14:formula1>
             <xm:f>Lists!$C$29:$C$30</xm:f>
           </x14:formula1>
-          <xm:sqref>H19:H20 M19:M20 M22:M23 M30</xm:sqref>
+          <xm:sqref>H19:H20 M19:M20 M22:M23 M31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$C$3:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E22 E24:E30</xm:sqref>
+          <xm:sqref>E2:E22 E24:E31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$C$49:$C$56</xm:f>
           </x14:formula1>
-          <xm:sqref>H26</xm:sqref>
+          <xm:sqref>H27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$C$32:$C$38</xm:f>
           </x14:formula1>
-          <xm:sqref>H25 M25</xm:sqref>
+          <xm:sqref>H26 M26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$C$31:$C$44</xm:f>
           </x14:formula1>
-          <xm:sqref>H28</xm:sqref>
+          <xm:sqref>H29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10809,7 +10830,7 @@
         <v>Motorcycle</v>
       </c>
       <c r="B430" s="50" t="str">
-        <f>ConfigurationSetup!M25</f>
+        <f>ConfigurationSetup!M26</f>
         <v>1 Year - 30</v>
       </c>
       <c r="C430" s="39"/>

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="252">
   <si>
     <t>Default</t>
   </si>
@@ -783,6 +783,12 @@
   </si>
   <si>
     <t>RatingIndicator</t>
+  </si>
+  <si>
+    <t>туј пада зш е нулл</t>
+  </si>
+  <si>
+    <t>Calc_rates</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1622,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3802,8 +3838,8 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,8 +3952,8 @@
       <c r="O2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="3">
-        <v>0</v>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="Q2" s="114"/>
     </row>
@@ -3959,7 +3995,8 @@
         <v>2</v>
       </c>
       <c r="P3" s="3">
-        <v>0</v>
+        <f>O13*100</f>
+        <v>400</v>
       </c>
       <c r="Q3" s="114"/>
     </row>
@@ -4000,7 +4037,10 @@
       <c r="O4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3">
+        <f>O11+P3</f>
+        <v>1650</v>
+      </c>
       <c r="Q4" s="114"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4040,7 +4080,10 @@
       <c r="O5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3">
+        <f ca="1">P4*O14</f>
+        <v>0</v>
+      </c>
       <c r="Q5" s="114"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4076,7 +4119,10 @@
       <c r="O6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3">
+        <f ca="1">P4+P5</f>
+        <v>1650</v>
+      </c>
       <c r="Q6" s="114"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4116,7 +4162,10 @@
       <c r="O7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3">
+        <f ca="1">IF(P6&gt;O15,P6,O15)</f>
+        <v>1650</v>
+      </c>
       <c r="Q7" s="114"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4152,7 +4201,10 @@
       <c r="O8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="3">
+        <f ca="1">O16*P7</f>
+        <v>165</v>
+      </c>
       <c r="Q8" s="114"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4188,7 +4240,10 @@
       <c r="O9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3">
+        <f ca="1">P8+P7</f>
+        <v>1815</v>
+      </c>
       <c r="Q9" s="114"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4224,7 +4279,10 @@
       <c r="O10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="3">
+        <f ca="1">P9+O17</f>
+        <v>2015</v>
+      </c>
       <c r="Q10" s="114"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4261,12 +4319,16 @@
       <c r="M11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="N11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O11" s="3">
         <f>DGET(DGET!A1:C36,"Rates",DGET!A39:C40)</f>
         <v>1250</v>
+      </c>
+      <c r="P11">
+        <f ca="1">P10*O18</f>
+        <v>0</v>
       </c>
       <c r="Q11" s="114" t="s">
         <v>110</v>
@@ -4313,7 +4375,10 @@
         <f>M12-5</f>
         <v>2</v>
       </c>
-      <c r="P12" s="3"/>
+      <c r="P12" s="3">
+        <f ca="1">P10-P11</f>
+        <v>2015</v>
+      </c>
       <c r="Q12" s="114"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4357,9 +4422,9 @@
         <f>M13-1</f>
         <v>4</v>
       </c>
-      <c r="P13" s="3">
-        <f>P11+O13*100</f>
-        <v>1650</v>
+      <c r="P13">
+        <f ca="1">P12*O19</f>
+        <v>503.75</v>
       </c>
       <c r="Q13" s="114"/>
     </row>
@@ -4401,8 +4466,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <f ca="1">P13+P13*O14</f>
-        <v>1650</v>
+        <f ca="1">P12+P13</f>
+        <v>2518.75</v>
       </c>
       <c r="Q14" s="114" t="s">
         <v>135</v>
@@ -4445,9 +4510,9 @@
         <f>DGET(DGET!A138:D243,"min_premium",DGET!A246:D247)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="3">
-        <f ca="1">IF(P14&gt;O15,P14,O15)</f>
-        <v>1650</v>
+      <c r="P15">
+        <f ca="1">P14*O20</f>
+        <v>629.6875</v>
       </c>
       <c r="Q15" s="114" t="s">
         <v>137</v>
@@ -4491,8 +4556,8 @@
         <v>0.1</v>
       </c>
       <c r="P16" s="3">
-        <f ca="1">O16*P15+P15</f>
-        <v>1815</v>
+        <f ca="1">P14+P15</f>
+        <v>3148.4375</v>
       </c>
       <c r="Q16" s="114" t="s">
         <v>138</v>
@@ -4536,8 +4601,8 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <f ca="1">P16+O17</f>
-        <v>2015</v>
+        <f ca="1">P16+O21</f>
+        <v>3348.4375</v>
       </c>
       <c r="Q17" s="114"/>
     </row>
@@ -4578,9 +4643,8 @@
         <f>DGET(DGET!A260:D380,"CMP",DGET!A383:D384)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="3">
-        <f ca="1">P17-P17*O18</f>
-        <v>2015</v>
+      <c r="P18" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="Q18" s="114" t="s">
         <v>152</v>
@@ -4627,9 +4691,9 @@
         <f>IF(M19="yes",0.25,0)</f>
         <v>0.25</v>
       </c>
-      <c r="P19" s="3">
-        <f ca="1">P18+P18*O19</f>
-        <v>2518.75</v>
+      <c r="P19">
+        <f>O22+1</f>
+        <v>1</v>
       </c>
       <c r="Q19" s="114"/>
     </row>
@@ -4675,8 +4739,8 @@
         <v>0.25</v>
       </c>
       <c r="P20" s="3">
-        <f ca="1">P19+P19*O20</f>
-        <v>3148.4375</v>
+        <f ca="1">P17*P19</f>
+        <v>3348.4375</v>
       </c>
       <c r="Q20" s="114"/>
     </row>
@@ -4719,8 +4783,8 @@
         <v>200</v>
       </c>
       <c r="P21" s="3">
-        <f ca="1">P20+O21</f>
-        <v>3348.4375</v>
+        <f ca="1">P20-O30</f>
+        <v>3345.4375</v>
       </c>
       <c r="Q21" s="114"/>
     </row>
@@ -4765,9 +4829,9 @@
         <f>IF(M22="yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="3">
-        <f ca="1">P21*O22+P21</f>
-        <v>3348.4375</v>
+      <c r="P22">
+        <f ca="1">P21*O25</f>
+        <v>836.359375</v>
       </c>
       <c r="Q22" s="114"/>
     </row>
@@ -4808,8 +4872,8 @@
         <v>2</v>
       </c>
       <c r="P23" s="3">
-        <f ca="1">P22-O30</f>
-        <v>3345.4375</v>
+        <f ca="1">P21-P22</f>
+        <v>2509.078125</v>
       </c>
       <c r="Q23" s="114"/>
     </row>
@@ -4850,8 +4914,8 @@
         <v>2</v>
       </c>
       <c r="P24" s="3">
-        <f ca="1">P23-P23*M29</f>
-        <v>2509.078125</v>
+        <f ca="1">P23*O26</f>
+        <v>752.72343749999993</v>
       </c>
       <c r="Q24" s="114"/>
     </row>
@@ -4869,11 +4933,15 @@
       <c r="K25" s="3"/>
       <c r="L25" s="10"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3">
-        <f ca="1">P24*O26</f>
-        <v>752.72343749999993</v>
+      <c r="N25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="O25" s="3">
+        <f>M29*1</f>
+        <v>0.25</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="Q25" s="114"/>
     </row>
@@ -4919,7 +4987,7 @@
         <v>0.3</v>
       </c>
       <c r="P26" s="3">
-        <f ca="1">P24-P25</f>
+        <f ca="1">P23-P24</f>
         <v>1756.3546875000002</v>
       </c>
       <c r="Q26" s="114" t="s">
@@ -4966,7 +5034,9 @@
       <c r="O27" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="3"/>
+      <c r="P27" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="Q27" s="114"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -5005,7 +5075,9 @@
       <c r="O28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="3"/>
+      <c r="P28" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="Q28" s="114"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -5048,7 +5120,10 @@
       <c r="O29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P29" s="3"/>
+      <c r="P29" s="3" t="b">
+        <f>EXACT(O29,O28)</f>
+        <v>1</v>
+      </c>
       <c r="Q29" s="114"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -5175,39 +5250,54 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P13:XFD13 O12:XFD12 M32:XFD1048576 O14:XFD14 P8:XFD9 Q10:XFD10 P2:P7 V2:XFD7 M1:Q1 S15:XFD15 O15:Q15 S11:XFD11 P11:Q11 AC1:XFD1 P27:XFD27 O16:XFD26 M12:M17 M19:M31 K1 L19:L1048576 L1:L17 A1:J1048576 N28:XFD29 N12:N26 O2:O11 Q30:XFD31 M31:N31 N30:P30">
-    <cfRule type="expression" dxfId="15" priority="8">
+  <conditionalFormatting sqref="M32:XFD1048576 V2:XFD7 M1:Q1 S15:XFD15 S11:XFD11 AC1:XFD1 M12:M17 M19:M31 K1 L19:L1048576 L1:L17 A1:J1048576 N12:N24 Q30:XFD31 M31:N31 N30:P30 Q11 Q15 P8:XFD10 Q12:XFD14 P12 P14 Q16:XFD25 O14:O24 P23:P24 P16:P17 P20:P21 O2:O12 P2:P7 P27:XFD27 N28:XFD29 N26:XFD26">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>EXACT(TEXT(A1,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M10">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>EXACT(TEXT(M3,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>EXACT(TEXT(M11,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>EXACT(TEXT(M2,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>EXACT(TEXT(M18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>EXACT(TEXT(L18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>EXACT(TEXT(N27,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="expression" dxfId="11" priority="3">
+      <formula>EXACT(TEXT(P18,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25">
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>EXACT(TEXT(P25,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:O25">
     <cfRule type="expression" dxfId="9" priority="1">
-      <formula>EXACT(TEXT(N27,"text"),"?")</formula>
+      <formula>EXACT(TEXT(N25,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -5276,10 +5366,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D430"/>
+  <dimension ref="A1:E430"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6935,7 +7025,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="36" t="s">
         <v>106</v>
       </c>
@@ -6949,7 +7039,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
         <v>106</v>
       </c>
@@ -6963,7 +7053,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
         <v>106</v>
       </c>
@@ -6977,7 +7067,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="87" t="s">
         <v>106</v>
       </c>
@@ -6991,8 +7081,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="161" t="s">
         <v>86</v>
       </c>
@@ -7000,7 +7090,7 @@
       <c r="C134" s="162"/>
       <c r="D134" s="163"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
         <v>15</v>
       </c>
@@ -7014,7 +7104,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="75" t="str">
         <f>ConfigurationSetup!M3</f>
         <v>Motorcycle</v>
@@ -7028,9 +7118,12 @@
         <v>Vehicle &lt;= 3 years</v>
       </c>
       <c r="D136" s="77"/>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="26" t="s">
         <v>15</v>
       </c>
@@ -7044,7 +7137,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>83</v>
       </c>
@@ -7058,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="56" t="s">
         <v>83</v>
       </c>
@@ -7072,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
         <v>83</v>
       </c>
@@ -7086,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
         <v>83</v>
       </c>
@@ -7100,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
         <v>83</v>
       </c>
@@ -7114,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
         <v>83</v>
       </c>
@@ -10890,7 +10983,7 @@
       </c>
       <c r="B3" s="41">
         <f ca="1">TODAY()</f>
-        <v>42821</v>
+        <v>42828</v>
       </c>
       <c r="C3" s="3">
         <f>IF(B$9&lt;B2,1,0)</f>
@@ -10903,7 +10996,7 @@
       </c>
       <c r="B4" s="41">
         <f ca="1">B3-1</f>
-        <v>42820</v>
+        <v>42827</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">IF(B$9&lt;B3,1,0)</f>
@@ -10916,7 +11009,7 @@
       </c>
       <c r="B5" s="41">
         <f ca="1">EDATE(B3,-12)</f>
-        <v>42456</v>
+        <v>42463</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(B$9&lt;B5,1,0)</f>
@@ -10929,7 +11022,7 @@
       </c>
       <c r="B6" s="41">
         <f ca="1">EDATE(B3,-24)</f>
-        <v>42090</v>
+        <v>42097</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(B$9&lt;B6,1,0)</f>
@@ -10942,7 +11035,7 @@
       </c>
       <c r="B7" s="41">
         <f ca="1">EDATE(B3,-36)</f>
-        <v>41725</v>
+        <v>41732</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">IF(B$9&lt;B7,1,0)</f>

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,6 +20,7 @@
     <sheet name="FES2_CC" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3838,8 +3839,8 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10983,7 +10984,7 @@
       </c>
       <c r="B3" s="41">
         <f ca="1">TODAY()</f>
-        <v>42828</v>
+        <v>42831</v>
       </c>
       <c r="C3" s="3">
         <f>IF(B$9&lt;B2,1,0)</f>
@@ -10996,7 +10997,7 @@
       </c>
       <c r="B4" s="41">
         <f ca="1">B3-1</f>
-        <v>42827</v>
+        <v>42830</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">IF(B$9&lt;B3,1,0)</f>
@@ -11009,7 +11010,7 @@
       </c>
       <c r="B5" s="41">
         <f ca="1">EDATE(B3,-12)</f>
-        <v>42463</v>
+        <v>42466</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(B$9&lt;B5,1,0)</f>
@@ -11022,7 +11023,7 @@
       </c>
       <c r="B6" s="41">
         <f ca="1">EDATE(B3,-24)</f>
-        <v>42097</v>
+        <v>42100</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(B$9&lt;B6,1,0)</f>
@@ -11035,7 +11036,7 @@
       </c>
       <c r="B7" s="41">
         <f ca="1">EDATE(B3,-36)</f>
-        <v>41732</v>
+        <v>41735</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">IF(B$9&lt;B7,1,0)</f>

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -20,7 +20,6 @@
     <sheet name="FES2_CC" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3838,9 +3837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10984,7 +10983,7 @@
       </c>
       <c r="B3" s="41">
         <f ca="1">TODAY()</f>
-        <v>42831</v>
+        <v>42847</v>
       </c>
       <c r="C3" s="3">
         <f>IF(B$9&lt;B2,1,0)</f>
@@ -10997,7 +10996,7 @@
       </c>
       <c r="B4" s="41">
         <f ca="1">B3-1</f>
-        <v>42830</v>
+        <v>42846</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">IF(B$9&lt;B3,1,0)</f>
@@ -11010,7 +11009,7 @@
       </c>
       <c r="B5" s="41">
         <f ca="1">EDATE(B3,-12)</f>
-        <v>42466</v>
+        <v>42482</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(B$9&lt;B5,1,0)</f>
@@ -11023,7 +11022,7 @@
       </c>
       <c r="B6" s="41">
         <f ca="1">EDATE(B3,-24)</f>
-        <v>42100</v>
+        <v>42116</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(B$9&lt;B6,1,0)</f>
@@ -11036,7 +11035,7 @@
       </c>
       <c r="B7" s="41">
         <f ca="1">EDATE(B3,-36)</f>
-        <v>41735</v>
+        <v>41751</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">IF(B$9&lt;B7,1,0)</f>

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="254">
   <si>
     <t>Default</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Loadings</t>
   </si>
   <si>
-    <t>Left-hand drive</t>
-  </si>
-  <si>
     <t>Own goods</t>
   </si>
   <si>
@@ -235,13 +232,7 @@
     <t>Discounts</t>
   </si>
   <si>
-    <t>NCD (25% - 55%)</t>
-  </si>
-  <si>
     <t>SGU Faculty</t>
-  </si>
-  <si>
-    <t>Special %</t>
   </si>
   <si>
     <t>Special flat</t>
@@ -789,6 +780,21 @@
   </si>
   <si>
     <t>Calc_rates</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>Special percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCD </t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>Left_hand drive</t>
   </si>
 </sst>
 </file>
@@ -2206,11 +2212,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="153" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="139" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1" s="140">
         <v>2</v>
@@ -2218,10 +2224,10 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2" s="129"/>
       <c r="D2" s="120"/>
@@ -2229,7 +2235,7 @@
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="127" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B3" s="121">
         <v>42813</v>
@@ -2240,7 +2246,7 @@
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="127" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="122"/>
       <c r="C4" s="130"/>
@@ -2249,7 +2255,7 @@
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="127" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B5" s="121">
         <v>42813</v>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="127" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B6" s="123"/>
       <c r="C6" s="125"/>
@@ -2269,7 +2275,7 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="127" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B7" s="123"/>
       <c r="C7" s="131"/>
@@ -2278,7 +2284,7 @@
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="150" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B8" s="151"/>
       <c r="C8" s="151"/>
@@ -2287,7 +2293,7 @@
     </row>
     <row r="9" spans="1:6" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="158" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B9" s="159"/>
       <c r="C9" s="159"/>
@@ -2304,7 +2310,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="150" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B11" s="151"/>
       <c r="C11" s="151"/>
@@ -2313,13 +2319,13 @@
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="133" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B12" s="118" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C12" s="132" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D12" s="135">
         <v>10</v>
@@ -2328,13 +2334,13 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="133" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B13" s="134">
         <v>42813</v>
       </c>
       <c r="C13" s="132" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D13" s="135">
         <v>12</v>
@@ -2343,10 +2349,10 @@
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="39"/>
@@ -2361,7 +2367,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="150" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B16" s="151"/>
       <c r="C16" s="151"/>
@@ -2370,13 +2376,13 @@
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="133" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B17" s="119" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" s="132" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D17" s="102">
         <v>28</v>
@@ -2385,13 +2391,13 @@
     </row>
     <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="133" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B18" s="134">
         <v>42813</v>
       </c>
       <c r="C18" s="132" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D18" s="102">
         <v>29</v>
@@ -2400,10 +2406,10 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="39"/>
@@ -2418,7 +2424,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="150" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B21" s="151"/>
       <c r="C21" s="151"/>
@@ -2427,13 +2433,13 @@
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="133" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B22" s="119" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C22" s="132" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D22" s="102">
         <v>6</v>
@@ -2442,25 +2448,25 @@
     </row>
     <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="133" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B23" s="134">
         <v>42813</v>
       </c>
       <c r="C23" s="132" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="39"/>
@@ -2475,7 +2481,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="150" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B26" s="151"/>
       <c r="C26" s="151"/>
@@ -2484,13 +2490,13 @@
     </row>
     <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="133" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B27" s="119" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C27" s="132" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D27" s="102">
         <v>16</v>
@@ -2499,25 +2505,25 @@
     </row>
     <row r="28" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A28" s="133" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B28" s="134">
         <v>42813</v>
       </c>
       <c r="C28" s="132" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="39"/>
@@ -2526,7 +2532,7 @@
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="150" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B31" s="151"/>
       <c r="C31" s="151"/>
@@ -2534,13 +2540,13 @@
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="133" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B32" s="119" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C32" s="132" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D32" s="102">
         <v>16</v>
@@ -2548,24 +2554,24 @@
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="133" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B33" s="134">
         <v>42813</v>
       </c>
       <c r="C33" s="132" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D33" s="138" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C34" s="50"/>
       <c r="D34" s="39"/>
@@ -2573,7 +2579,7 @@
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="150" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B36" s="151"/>
       <c r="C36" s="151"/>
@@ -2581,38 +2587,38 @@
     </row>
     <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="133" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B37" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="132" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="132" t="s">
-        <v>228</v>
-      </c>
       <c r="D37" s="102" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="133" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B38" s="144" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="132" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="135" t="s">
         <v>227</v>
-      </c>
-      <c r="C38" s="132" t="s">
-        <v>228</v>
-      </c>
-      <c r="D38" s="135" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C39" s="155">
         <v>42813</v>
@@ -2622,7 +2628,7 @@
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="150" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B41" s="151"/>
       <c r="C41" s="151"/>
@@ -2630,35 +2636,35 @@
     </row>
     <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="133" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B42" s="119"/>
       <c r="C42" s="132" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D42" s="102"/>
     </row>
     <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="133" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B43" s="134" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C43" s="132" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D43" s="138"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B44" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="145" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D44" s="39"/>
     </row>
@@ -2696,7 +2702,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2709,7 +2715,7 @@
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2757,19 +2763,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="146" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F3" s="146" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="G3" s="146" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2788,8 +2797,11 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2797,19 +2809,22 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2828,8 +2843,11 @@
       <c r="F6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2848,8 +2866,11 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2868,8 +2889,11 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2888,8 +2912,11 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2909,7 +2936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2917,19 +2944,22 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2948,8 +2978,11 @@
       <c r="F12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2969,7 +3002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2989,7 +3022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2997,19 +3030,22 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="G15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3017,16 +3053,19 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="G16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3037,16 +3076,19 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3068,6 +3110,9 @@
       <c r="F18" t="s">
         <v>10</v>
       </c>
+      <c r="G18" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -3077,7 +3122,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3097,7 +3142,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3117,7 +3162,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3137,7 +3182,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3158,7 +3203,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3179,7 +3224,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3200,7 +3245,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3242,16 +3287,16 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G27" s="9"/>
     </row>
@@ -3263,16 +3308,16 @@
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G28" s="9"/>
     </row>
@@ -3381,19 +3426,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" t="s">
         <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3401,19 +3446,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3421,16 +3466,16 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3438,16 +3483,16 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3455,16 +3500,16 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3472,16 +3517,16 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3489,16 +3534,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3506,16 +3551,16 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3523,16 +3568,16 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3540,16 +3585,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3557,7 +3602,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -3571,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="7">
         <v>0.05</v>
@@ -3585,7 +3630,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C46" s="7">
         <v>0.1</v>
@@ -3599,7 +3644,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C47" s="7">
         <v>0.15</v>
@@ -3613,7 +3658,7 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C48" s="7">
         <v>0.2</v>
@@ -3627,7 +3672,7 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C49" s="7">
         <v>0.25</v>
@@ -3644,7 +3689,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3658,7 +3703,7 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3686,7 +3731,7 @@
         <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3697,16 +3742,16 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3714,16 +3759,16 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3731,16 +3776,16 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3748,16 +3793,16 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3765,16 +3810,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3782,16 +3827,16 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3799,16 +3844,16 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3816,16 +3861,16 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3838,8 +3883,8 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3869,25 +3914,25 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="D1" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="112" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="F1" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="112" t="s">
         <v>245</v>
-      </c>
-      <c r="D1" s="112" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="112" t="s">
-        <v>246</v>
-      </c>
-      <c r="F1" s="112" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" s="112" t="s">
-        <v>248</v>
       </c>
       <c r="H1" s="112" t="s">
         <v>0</v>
@@ -3896,28 +3941,28 @@
         <v>61</v>
       </c>
       <c r="J1" s="112" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K1" s="147" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="112" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="113" t="s">
         <v>238</v>
-      </c>
-      <c r="L1" s="112" t="s">
-        <v>240</v>
-      </c>
-      <c r="M1" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="112" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q1" s="113" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3925,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3936,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>22</v>
@@ -3986,10 +4031,10 @@
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>2</v>
@@ -4032,7 +4077,7 @@
         <v>21</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>2</v>
@@ -4048,12 +4093,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>2</v>
@@ -4072,7 +4117,7 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M5" s="4">
         <v>50000</v>
@@ -4096,7 +4141,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -4130,7 +4175,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4154,7 +4199,7 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M7" s="137">
         <v>42052</v>
@@ -4178,7 +4223,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>2</v>
@@ -4217,7 +4262,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>2</v>
@@ -4256,7 +4301,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>2</v>
@@ -4314,13 +4359,13 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O11" s="3">
         <f>DGET(DGET!A1:C36,"Rates",DGET!A39:C40)</f>
@@ -4331,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="114" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -4344,7 +4389,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>2</v>
@@ -4363,13 +4408,13 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M12" s="3">
         <v>7</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O12" s="3">
         <f>M12-5</f>
@@ -4416,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O13" s="3">
         <f>M13-1</f>
@@ -4438,7 +4483,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>2</v>
@@ -4459,7 +4504,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O14" s="3">
         <f ca="1">DGET(DGET!A42:D132,"Rate plus",DGET!A135:D136)</f>
@@ -4470,7 +4515,7 @@
         <v>2518.75</v>
       </c>
       <c r="Q14" s="114" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -4483,7 +4528,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>2</v>
@@ -4504,7 +4549,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O15" s="3">
         <f>DGET(DGET!A138:D243,"min_premium",DGET!A246:D247)</f>
@@ -4515,7 +4560,7 @@
         <v>629.6875</v>
       </c>
       <c r="Q15" s="114" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4528,7 +4573,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>2</v>
@@ -4549,7 +4594,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O16" s="3">
         <f>DGET(DGET!A249:B254,"Class 3",DGET!A257:B258)</f>
@@ -4560,7 +4605,7 @@
         <v>3148.4375</v>
       </c>
       <c r="Q16" s="114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4594,7 +4639,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O17" s="3">
         <f>O12*100</f>
@@ -4637,7 +4682,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O18" s="23">
         <f>DGET(DGET!A260:D380,"CMP",DGET!A383:D384)</f>
@@ -4647,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="Q18" s="114" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -4655,7 +4700,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
@@ -4666,10 +4711,10 @@
         <v>7</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I19" s="8">
         <v>0</v>
@@ -4679,13 +4724,13 @@
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O19" s="3">
         <f>IF(M19="yes",0.25,0)</f>
@@ -4702,7 +4747,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4713,10 +4758,10 @@
         <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I20" s="8">
         <v>0</v>
@@ -4726,13 +4771,13 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O20" s="3">
         <f>IF(M20="yes",0.25,0)</f>
@@ -4749,12 +4794,12 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
       <c r="E21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>2</v>
@@ -4773,11 +4818,11 @@
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O21" s="3">
         <v>200</v>
@@ -4793,7 +4838,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
@@ -4804,10 +4849,10 @@
         <v>7</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -4817,13 +4862,13 @@
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O22" s="3">
         <f>IF(M22="yes",1,0)</f>
@@ -4882,7 +4927,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4920,21 +4965,37 @@
       <c r="Q24" s="114"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="10"/>
       <c r="M25" s="4"/>
       <c r="N25" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O25" s="3">
         <f>M29*1</f>
@@ -4950,7 +5011,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
@@ -4961,10 +5022,10 @@
         <v>8</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -4974,13 +5035,13 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O26" s="3">
         <f>DGET(DGET!A386:C426,"NCD",DGET!A429:C430)</f>
@@ -4991,7 +5052,7 @@
         <v>1756.3546875000002</v>
       </c>
       <c r="Q26" s="114" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -4999,7 +5060,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
@@ -5010,10 +5071,10 @@
         <v>9</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -5023,10 +5084,10 @@
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>2</v>
@@ -5044,7 +5105,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
@@ -5055,10 +5116,10 @@
         <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
@@ -5085,7 +5146,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
@@ -5096,7 +5157,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -5109,13 +5170,13 @@
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M29" s="4">
         <v>0.25</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>2</v>
@@ -5131,12 +5192,12 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>
       <c r="E30" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>2</v>
@@ -5155,13 +5216,13 @@
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M30" s="4">
         <v>25</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O30" s="3">
         <v>3</v>
@@ -5177,7 +5238,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
@@ -5188,10 +5249,10 @@
         <v>7</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I31" s="5">
         <v>0</v>
@@ -5201,13 +5262,13 @@
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P31" s="3">
         <f ca="1">IF(M31="yes",P30,P26)</f>
@@ -5230,7 +5291,7 @@
       <c r="L32" s="43"/>
       <c r="M32" s="43"/>
       <c r="N32" s="58" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O32" s="43">
         <v>0</v>
@@ -5246,11 +5307,11 @@
     </row>
     <row r="35" spans="11:14" ht="45" x14ac:dyDescent="0.25">
       <c r="K35" s="148" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M32:XFD1048576 V2:XFD7 M1:Q1 S15:XFD15 S11:XFD11 AC1:XFD1 M12:M17 M19:M31 K1 L19:L1048576 L1:L17 A1:J1048576 N12:N24 Q30:XFD31 M31:N31 N30:P30 Q11 Q15 P8:XFD10 Q12:XFD14 P12 P14 Q16:XFD25 O14:O24 P23:P24 P16:P17 P20:P21 O2:O12 P2:P7 P27:XFD27 N28:XFD29 N26:XFD26">
+  <conditionalFormatting sqref="M32:XFD1048576 V2:XFD7 M1:Q1 S15:XFD15 S11:XFD11 AC1:XFD1 M12:M17 M19:M31 K1 L19:L1048576 L1:L17 N12:N24 Q30:XFD31 M31:N31 N30:P30 Q11 Q15 P8:XFD10 Q12:XFD14 P12 P14 Q16:XFD25 O14:O24 P23:P24 P16:P17 P20:P21 O2:O12 P2:P7 P27:XFD27 N28:XFD29 N26:XFD26 A1:J1048576">
     <cfRule type="expression" dxfId="18" priority="11">
       <formula>EXACT(TEXT(A1,"text"),"?")</formula>
     </cfRule>
@@ -5300,7 +5361,7 @@
       <formula>EXACT(TEXT(N25,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28 H31 H22 M27 M29">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -5309,7 +5370,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$C$14:$C$18</xm:f>
@@ -5338,7 +5399,7 @@
           <x14:formula1>
             <xm:f>Lists!$C$3:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E22 E24:E31</xm:sqref>
+          <xm:sqref>E2:E22 E24 E26:E31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5385,18 +5446,18 @@
         <v>15</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" s="19">
         <v>750</v>
@@ -5404,10 +5465,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C3" s="19">
         <v>750</v>
@@ -5415,7 +5476,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>48</v>
@@ -5426,7 +5487,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>49</v>
@@ -5437,7 +5498,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>50</v>
@@ -5448,7 +5509,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>51</v>
@@ -5459,7 +5520,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>52</v>
@@ -5470,10 +5531,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C9" s="19">
         <v>750</v>
@@ -5481,10 +5542,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="19">
         <v>750</v>
@@ -5492,7 +5553,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>48</v>
@@ -5503,7 +5564,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>49</v>
@@ -5514,7 +5575,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>50</v>
@@ -5525,7 +5586,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>51</v>
@@ -5536,7 +5597,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>52</v>
@@ -5547,10 +5608,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C16" s="19">
         <v>750</v>
@@ -5558,10 +5619,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" s="19">
         <v>750</v>
@@ -5569,7 +5630,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>48</v>
@@ -5580,7 +5641,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>49</v>
@@ -5591,7 +5652,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>50</v>
@@ -5602,7 +5663,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>51</v>
@@ -5613,7 +5674,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>52</v>
@@ -5624,10 +5685,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C23" s="19">
         <v>500</v>
@@ -5635,10 +5696,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C24" s="19">
         <v>750</v>
@@ -5646,7 +5707,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>48</v>
@@ -5657,7 +5718,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>49</v>
@@ -5668,7 +5729,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>50</v>
@@ -5679,7 +5740,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>51</v>
@@ -5690,7 +5751,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>52</v>
@@ -5701,10 +5762,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C30" s="19">
         <v>750</v>
@@ -5712,10 +5773,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C31" s="19">
         <v>775</v>
@@ -5723,7 +5784,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>48</v>
@@ -5734,7 +5795,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>49</v>
@@ -5745,7 +5806,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>50</v>
@@ -5756,7 +5817,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>51</v>
@@ -5767,7 +5828,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>52</v>
@@ -5779,7 +5840,7 @@
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="164" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B38" s="165"/>
       <c r="C38" s="166"/>
@@ -5789,10 +5850,10 @@
         <v>15</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5815,21 +5876,21 @@
         <v>21</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D43" s="80">
         <v>0</v>
@@ -5837,13 +5898,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D44" s="80">
         <v>0</v>
@@ -5851,13 +5912,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D45" s="80">
         <v>0</v>
@@ -5865,13 +5926,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B46" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>114</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>117</v>
       </c>
       <c r="D46" s="80">
         <v>0</v>
@@ -5879,13 +5940,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D47" s="80">
         <v>0</v>
@@ -5893,13 +5954,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D48" s="83">
         <v>0</v>
@@ -5907,13 +5968,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D49" s="80">
         <v>2.5000000000000001E-2</v>
@@ -5921,13 +5982,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D50" s="80">
         <v>2.5000000000000001E-2</v>
@@ -5935,13 +5996,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D51" s="80">
         <v>2.5000000000000001E-2</v>
@@ -5949,13 +6010,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D52" s="80">
         <v>2.5000000000000001E-2</v>
@@ -5963,13 +6024,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D53" s="80">
         <v>2.5000000000000001E-2</v>
@@ -5977,13 +6038,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D54" s="80">
         <v>2.5000000000000001E-2</v>
@@ -5991,13 +6052,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D55" s="80">
         <v>0.05</v>
@@ -6005,13 +6066,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D56" s="80">
         <v>0.05</v>
@@ -6019,13 +6080,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D57" s="80">
         <v>0.05</v>
@@ -6033,13 +6094,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D58" s="80">
         <v>0.05</v>
@@ -6047,13 +6108,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B59" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D59" s="80">
         <v>0.05</v>
@@ -6061,13 +6122,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="84" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D60" s="80">
         <v>0.05</v>
@@ -6075,13 +6136,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D61" s="80">
         <v>0</v>
@@ -6089,13 +6150,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D62" s="80">
         <v>0</v>
@@ -6103,13 +6164,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D63" s="80">
         <v>0</v>
@@ -6117,13 +6178,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B64" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>114</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>117</v>
       </c>
       <c r="D64" s="80">
         <v>0</v>
@@ -6131,13 +6192,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D65" s="80">
         <v>0</v>
@@ -6145,13 +6206,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D66" s="83">
         <v>0</v>
@@ -6159,13 +6220,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D67" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6173,13 +6234,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D68" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6187,13 +6248,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D69" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6201,13 +6262,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D70" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6215,13 +6276,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D71" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6229,13 +6290,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D72" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6243,13 +6304,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D73" s="80">
         <v>0.06</v>
@@ -6257,13 +6318,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B74" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D74" s="80">
         <v>0.06</v>
@@ -6271,13 +6332,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D75" s="80">
         <v>0.06</v>
@@ -6285,13 +6346,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B76" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D76" s="80">
         <v>0.06</v>
@@ -6299,13 +6360,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B77" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D77" s="80">
         <v>0.06</v>
@@ -6313,13 +6374,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B78" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D78" s="80">
         <v>0.06</v>
@@ -6327,13 +6388,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D79" s="80">
         <v>0</v>
@@ -6341,13 +6402,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D80" s="80">
         <v>0</v>
@@ -6355,13 +6416,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D81" s="80">
         <v>0</v>
@@ -6369,13 +6430,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B82" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="29" t="s">
         <v>114</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>117</v>
       </c>
       <c r="D82" s="80">
         <v>0</v>
@@ -6383,13 +6444,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D83" s="80">
         <v>0</v>
@@ -6397,13 +6458,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="85" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D84" s="80">
         <v>0</v>
@@ -6411,13 +6472,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D85" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6425,13 +6486,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D86" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6439,13 +6500,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D87" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6453,13 +6514,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D88" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6467,13 +6528,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D89" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6481,13 +6542,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="85" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D90" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6495,13 +6556,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B91" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D91" s="80">
         <v>0.06</v>
@@ -6509,13 +6570,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B92" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D92" s="80">
         <v>0.06</v>
@@ -6523,13 +6584,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B93" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D93" s="80">
         <v>0.06</v>
@@ -6537,13 +6598,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B94" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D94" s="80">
         <v>0.06</v>
@@ -6551,13 +6612,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D95" s="80">
         <v>0.06</v>
@@ -6565,13 +6626,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="85" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B96" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D96" s="86">
         <v>0.06</v>
@@ -6579,13 +6640,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D97" s="80">
         <v>0</v>
@@ -6593,13 +6654,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D98" s="80">
         <v>0</v>
@@ -6607,13 +6668,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D99" s="80">
         <v>0</v>
@@ -6621,13 +6682,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B100" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="30" t="s">
         <v>114</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="D100" s="80">
         <v>0</v>
@@ -6635,13 +6696,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D101" s="80">
         <v>0</v>
@@ -6649,13 +6710,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D102" s="80">
         <v>0</v>
@@ -6663,13 +6724,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D103" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6677,13 +6738,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D104" s="86">
         <v>2.5000000000000001E-2</v>
@@ -6691,13 +6752,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D105" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6705,13 +6766,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D106" s="86">
         <v>2.5000000000000001E-2</v>
@@ -6719,13 +6780,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D107" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6733,13 +6794,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D108" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6747,13 +6808,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D109" s="80">
         <v>0.05</v>
@@ -6761,13 +6822,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B110" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D110" s="80">
         <v>0.05</v>
@@ -6775,13 +6836,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B111" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D111" s="80">
         <v>0.05</v>
@@ -6789,13 +6850,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B112" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D112" s="80">
         <v>0.05</v>
@@ -6803,13 +6864,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B113" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D113" s="80">
         <v>0.05</v>
@@ -6817,13 +6878,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B114" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D114" s="80">
         <v>0.05</v>
@@ -6831,13 +6892,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D115" s="80">
         <v>0</v>
@@ -6845,13 +6906,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D116" s="80">
         <v>0</v>
@@ -6859,13 +6920,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D117" s="80">
         <v>0</v>
@@ -6873,13 +6934,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B118" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C118" s="30" t="s">
         <v>114</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="D118" s="80">
         <v>0</v>
@@ -6887,13 +6948,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D119" s="80">
         <v>0</v>
@@ -6901,13 +6962,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D120" s="80">
         <v>0</v>
@@ -6915,13 +6976,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D121" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6929,13 +6990,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D122" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6943,13 +7004,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D123" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6957,13 +7018,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D124" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6971,13 +7032,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D125" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6985,13 +7046,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="85" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D126" s="80">
         <v>2.5000000000000001E-2</v>
@@ -6999,13 +7060,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B127" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D127" s="80">
         <v>0.05</v>
@@ -7013,13 +7074,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B128" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D128" s="80">
         <v>0.05</v>
@@ -7027,13 +7088,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B129" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D129" s="80">
         <v>0.05</v>
@@ -7041,13 +7102,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D130" s="80">
         <v>0.05</v>
@@ -7055,13 +7116,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B131" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D131" s="80">
         <v>0.05</v>
@@ -7069,13 +7130,13 @@
     </row>
     <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="87" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B132" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C132" s="88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D132" s="89">
         <v>0.05</v>
@@ -7084,7 +7145,7 @@
     <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="161" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B134" s="162"/>
       <c r="C134" s="162"/>
@@ -7098,10 +7159,10 @@
         <v>21</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D135" s="74" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7119,7 +7180,7 @@
       </c>
       <c r="D136" s="77"/>
       <c r="E136" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7128,24 +7189,24 @@
         <v>15</v>
       </c>
       <c r="B138" s="52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C138" s="53" t="s">
         <v>21</v>
       </c>
       <c r="D138" s="54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D139" s="55">
         <v>0</v>
@@ -7153,13 +7214,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D140" s="55">
         <v>0</v>
@@ -7167,13 +7228,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D141" s="55">
         <v>0</v>
@@ -7181,13 +7242,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D142" s="55">
         <v>0</v>
@@ -7195,13 +7256,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D143" s="55">
         <v>0</v>
@@ -7209,13 +7270,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D144" s="55">
         <v>0</v>
@@ -7223,13 +7284,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D145" s="55">
         <v>0</v>
@@ -7237,13 +7298,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D146" s="55">
         <v>0</v>
@@ -7251,13 +7312,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D147" s="55">
         <v>0</v>
@@ -7265,13 +7326,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D148" s="55">
         <v>0</v>
@@ -7279,13 +7340,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D149" s="55">
         <v>0</v>
@@ -7293,13 +7354,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D150" s="55">
         <v>0</v>
@@ -7307,13 +7368,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D151" s="55">
         <v>0</v>
@@ -7321,13 +7382,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D152" s="55">
         <v>0</v>
@@ -7335,13 +7396,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="C153" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D153" s="55">
         <v>0</v>
@@ -7349,13 +7410,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D154" s="55">
         <v>0</v>
@@ -7363,13 +7424,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D155" s="55">
         <v>0</v>
@@ -7377,13 +7438,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D156" s="55">
         <v>0</v>
@@ -7391,13 +7452,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D157" s="55">
         <v>0</v>
@@ -7405,13 +7466,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D158" s="55">
         <v>0</v>
@@ -7419,13 +7480,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D159" s="55">
         <v>0</v>
@@ -7433,13 +7494,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D160" s="55">
         <v>0</v>
@@ -7447,13 +7508,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D161" s="55">
         <v>0</v>
@@ -7461,13 +7522,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D162" s="55">
         <v>0</v>
@@ -7475,13 +7536,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D163" s="55">
         <v>0</v>
@@ -7489,13 +7550,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D164" s="55">
         <v>0</v>
@@ -7503,13 +7564,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D165" s="55">
         <v>0</v>
@@ -7517,13 +7578,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D166" s="55">
         <v>0</v>
@@ -7531,13 +7592,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D167" s="55">
         <v>0</v>
@@ -7545,13 +7606,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D168" s="55">
         <v>0</v>
@@ -7559,13 +7620,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D169" s="55">
         <v>0</v>
@@ -7573,13 +7634,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D170" s="55">
         <v>0</v>
@@ -7587,13 +7648,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D171" s="55">
         <v>0</v>
@@ -7601,13 +7662,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D172" s="55">
         <v>0</v>
@@ -7615,13 +7676,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D173" s="55">
         <v>0</v>
@@ -7629,13 +7690,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C174" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D174" s="55">
         <v>0</v>
@@ -7643,13 +7704,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D175" s="55">
         <v>0</v>
@@ -7657,13 +7718,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C176" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D176" s="55">
         <v>0</v>
@@ -7671,13 +7732,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C177" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D177" s="55">
         <v>0</v>
@@ -7685,13 +7746,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C178" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D178" s="55">
         <v>0</v>
@@ -7699,13 +7760,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C179" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D179" s="55">
         <v>0</v>
@@ -7713,13 +7774,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C180" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D180" s="55">
         <v>0</v>
@@ -7727,13 +7788,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C181" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D181" s="55">
         <v>0</v>
@@ -7741,13 +7802,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C182" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D182" s="55">
         <v>0</v>
@@ -7755,13 +7816,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C183" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D183" s="55">
         <v>0</v>
@@ -7769,13 +7830,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C184" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D184" s="55">
         <v>0</v>
@@ -7783,13 +7844,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C185" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D185" s="55">
         <v>0</v>
@@ -7797,13 +7858,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C186" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D186" s="55">
         <v>0</v>
@@ -7811,13 +7872,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C187" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D187" s="55">
         <v>0</v>
@@ -7825,13 +7886,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="C188" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D188" s="55">
         <v>0</v>
@@ -7839,13 +7900,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C189" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D189" s="55">
         <v>0</v>
@@ -7853,13 +7914,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C190" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D190" s="55">
         <v>0</v>
@@ -7867,13 +7928,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C191" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D191" s="55">
         <v>0</v>
@@ -7881,13 +7942,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C192" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D192" s="55">
         <v>0</v>
@@ -7895,13 +7956,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C193" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D193" s="55">
         <v>0</v>
@@ -7909,13 +7970,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C194" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D194" s="55">
         <v>0</v>
@@ -7923,13 +7984,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C195" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D195" s="55">
         <v>0</v>
@@ -7937,13 +7998,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C196" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D196" s="55">
         <v>0</v>
@@ -7951,13 +8012,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C197" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D197" s="55">
         <v>0</v>
@@ -7965,13 +8026,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C198" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D198" s="55">
         <v>0</v>
@@ -7979,13 +8040,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C199" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D199" s="55">
         <v>0</v>
@@ -7993,13 +8054,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C200" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D200" s="55">
         <v>0</v>
@@ -8007,13 +8068,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C201" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D201" s="55">
         <v>0</v>
@@ -8021,13 +8082,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C202" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D202" s="55">
         <v>0</v>
@@ -8035,13 +8096,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C203" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D203" s="55">
         <v>0</v>
@@ -8049,13 +8110,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C204" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D204" s="55">
         <v>0</v>
@@ -8063,13 +8124,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C205" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D205" s="55">
         <v>0</v>
@@ -8077,13 +8138,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C206" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D206" s="55">
         <v>0</v>
@@ -8091,13 +8152,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C207" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D207" s="55">
         <v>0</v>
@@ -8105,13 +8166,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C208" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D208" s="55">
         <v>0</v>
@@ -8119,10 +8180,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>25</v>
@@ -8133,10 +8194,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C210" s="46" t="s">
         <v>25</v>
@@ -8147,7 +8208,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>48</v>
@@ -8161,7 +8222,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>49</v>
@@ -8175,7 +8236,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>50</v>
@@ -8189,7 +8250,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>51</v>
@@ -8203,7 +8264,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>52</v>
@@ -8217,10 +8278,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>25</v>
@@ -8231,10 +8292,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>25</v>
@@ -8245,7 +8306,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>48</v>
@@ -8259,7 +8320,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>49</v>
@@ -8273,7 +8334,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>50</v>
@@ -8287,7 +8348,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>51</v>
@@ -8301,7 +8362,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>52</v>
@@ -8315,10 +8376,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>25</v>
@@ -8329,10 +8390,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>25</v>
@@ -8343,7 +8404,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>48</v>
@@ -8357,7 +8418,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>49</v>
@@ -8371,7 +8432,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>50</v>
@@ -8385,7 +8446,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>51</v>
@@ -8399,7 +8460,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>52</v>
@@ -8413,10 +8474,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>25</v>
@@ -8427,10 +8488,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>25</v>
@@ -8441,7 +8502,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>48</v>
@@ -8455,7 +8516,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>49</v>
@@ -8469,7 +8530,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>50</v>
@@ -8483,7 +8544,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>51</v>
@@ -8497,7 +8558,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>52</v>
@@ -8511,10 +8572,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>25</v>
@@ -8525,10 +8586,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>25</v>
@@ -8539,7 +8600,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>48</v>
@@ -8553,7 +8614,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>49</v>
@@ -8567,7 +8628,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>50</v>
@@ -8581,7 +8642,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>51</v>
@@ -8595,7 +8656,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B243" s="43" t="s">
         <v>52</v>
@@ -8610,7 +8671,7 @@
     <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="161" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B245" s="162"/>
       <c r="C245" s="162"/>
@@ -8621,13 +8682,13 @@
         <v>15</v>
       </c>
       <c r="B246" s="61" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C246" s="60" t="s">
         <v>21</v>
       </c>
       <c r="D246" s="63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8651,12 +8712,12 @@
         <v>15</v>
       </c>
       <c r="B249" s="64" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B250" s="66">
         <v>0.1</v>
@@ -8664,7 +8725,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="65" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B251" s="66">
         <v>0.2</v>
@@ -8672,7 +8733,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B252" s="66">
         <v>0.2</v>
@@ -8680,7 +8741,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="65" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B253" s="66">
         <v>0.1</v>
@@ -8688,7 +8749,7 @@
     </row>
     <row r="254" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="67" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B254" s="68">
         <v>0.1</v>
@@ -8697,7 +8758,7 @@
     <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="161" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B256" s="163"/>
     </row>
@@ -8706,7 +8767,7 @@
         <v>15</v>
       </c>
       <c r="B257" s="90" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8722,24 +8783,24 @@
         <v>15</v>
       </c>
       <c r="B260" s="53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C260" s="92" t="s">
         <v>21</v>
       </c>
       <c r="D260" s="69" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B261" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C261" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D261" s="93">
         <v>0</v>
@@ -8747,13 +8808,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B262" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C262" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D262" s="93">
         <v>0</v>
@@ -8761,10 +8822,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B263" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C263" s="45" t="s">
         <v>25</v>
@@ -8775,13 +8836,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B264" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C264" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D264" s="93">
         <v>0</v>
@@ -8789,13 +8850,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B265" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C265" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D265" s="93">
         <v>0</v>
@@ -8803,10 +8864,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B266" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C266" s="45" t="s">
         <v>25</v>
@@ -8817,13 +8878,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B267" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C267" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D267" s="93">
         <v>0</v>
@@ -8831,13 +8892,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B268" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C268" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D268" s="93">
         <v>0</v>
@@ -8845,10 +8906,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B269" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C269" s="45" t="s">
         <v>25</v>
@@ -8859,13 +8920,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B270" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C270" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D270" s="93">
         <v>0</v>
@@ -8873,13 +8934,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B271" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C271" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D271" s="93">
         <v>0</v>
@@ -8887,10 +8948,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B272" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C272" s="45" t="s">
         <v>25</v>
@@ -8901,13 +8962,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B273" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C273" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D273" s="93">
         <v>0</v>
@@ -8915,13 +8976,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B274" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C274" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D274" s="93">
         <v>0</v>
@@ -8929,10 +8990,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B275" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C275" s="45" t="s">
         <v>25</v>
@@ -8943,13 +9004,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B276" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C276" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D276" s="93">
         <v>0</v>
@@ -8957,13 +9018,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B277" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C277" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D277" s="93">
         <v>0</v>
@@ -8971,10 +9032,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B278" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C278" s="45" t="s">
         <v>25</v>
@@ -8985,13 +9046,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B279" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C279" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D279" s="93">
         <v>0</v>
@@ -8999,13 +9060,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B280" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C280" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D280" s="93">
         <v>0</v>
@@ -9013,10 +9074,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B281" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C281" s="45" t="s">
         <v>25</v>
@@ -9027,13 +9088,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B282" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C282" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D282" s="93">
         <v>0</v>
@@ -9041,13 +9102,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B283" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C283" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D283" s="93">
         <v>0</v>
@@ -9055,10 +9116,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B284" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C284" s="45" t="s">
         <v>25</v>
@@ -9069,13 +9130,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B285" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C285" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D285" s="93">
         <v>0</v>
@@ -9083,13 +9144,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B286" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C286" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D286" s="93">
         <v>0</v>
@@ -9097,10 +9158,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B287" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C287" s="45" t="s">
         <v>25</v>
@@ -9111,13 +9172,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B288" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C288" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D288" s="93">
         <v>0</v>
@@ -9125,13 +9186,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B289" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C289" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D289" s="93">
         <v>0</v>
@@ -9139,10 +9200,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B290" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C290" s="45" t="s">
         <v>25</v>
@@ -9153,13 +9214,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B291" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C291" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D291" s="93">
         <v>0</v>
@@ -9167,13 +9228,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B292" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C292" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D292" s="93">
         <v>0</v>
@@ -9181,10 +9242,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B293" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C293" s="45" t="s">
         <v>25</v>
@@ -9195,13 +9256,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B294" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C294" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D294" s="93">
         <v>0</v>
@@ -9209,13 +9270,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B295" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C295" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D295" s="93">
         <v>0</v>
@@ -9223,10 +9284,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B296" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C296" s="45" t="s">
         <v>25</v>
@@ -9237,13 +9298,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B297" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C297" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D297" s="93">
         <v>0</v>
@@ -9251,13 +9312,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B298" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C298" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D298" s="93">
         <v>0</v>
@@ -9265,10 +9326,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B299" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C299" s="45" t="s">
         <v>25</v>
@@ -9279,13 +9340,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B300" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C300" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D300" s="93">
         <v>0</v>
@@ -9293,13 +9354,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B301" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C301" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D301" s="93">
         <v>0</v>
@@ -9307,10 +9368,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B302" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C302" s="45" t="s">
         <v>25</v>
@@ -9321,13 +9382,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B303" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C303" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D303" s="93">
         <v>0</v>
@@ -9335,13 +9396,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B304" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C304" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D304" s="93">
         <v>0</v>
@@ -9349,10 +9410,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B305" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C305" s="45" t="s">
         <v>25</v>
@@ -9363,13 +9424,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B306" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C306" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D306" s="93">
         <v>0</v>
@@ -9377,13 +9438,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B307" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C307" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D307" s="93">
         <v>0</v>
@@ -9391,10 +9452,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B308" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C308" s="45" t="s">
         <v>25</v>
@@ -9405,13 +9466,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B309" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C309" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D309" s="93">
         <v>0</v>
@@ -9419,13 +9480,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B310" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C310" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D310" s="93">
         <v>0</v>
@@ -9433,10 +9494,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B311" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C311" s="45" t="s">
         <v>25</v>
@@ -9447,13 +9508,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B312" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C312" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D312" s="93">
         <v>0</v>
@@ -9461,13 +9522,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B313" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C313" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D313" s="93">
         <v>0</v>
@@ -9475,10 +9536,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B314" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C314" s="45" t="s">
         <v>25</v>
@@ -9489,13 +9550,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B315" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C315" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D315" s="93">
         <v>0</v>
@@ -9503,13 +9564,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B316" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C316" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D316" s="93">
         <v>0</v>
@@ -9517,10 +9578,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B317" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C317" s="45" t="s">
         <v>25</v>
@@ -9531,13 +9592,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B318" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C318" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D318" s="93">
         <v>0</v>
@@ -9545,13 +9606,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B319" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C319" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D319" s="93">
         <v>0</v>
@@ -9559,10 +9620,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B320" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C320" s="45" t="s">
         <v>25</v>
@@ -9573,13 +9634,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B321" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C321" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D321" s="93">
         <v>0</v>
@@ -9587,13 +9648,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B322" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C322" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D322" s="93">
         <v>0</v>
@@ -9601,10 +9662,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B323" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C323" s="45" t="s">
         <v>25</v>
@@ -9615,13 +9676,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B324" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C324" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D324" s="93">
         <v>0</v>
@@ -9629,13 +9690,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B325" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C325" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D325" s="93">
         <v>0</v>
@@ -9643,10 +9704,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B326" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C326" s="45" t="s">
         <v>25</v>
@@ -9657,13 +9718,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B327" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C327" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D327" s="93">
         <v>0</v>
@@ -9671,13 +9732,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B328" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C328" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D328" s="93">
         <v>0</v>
@@ -9685,10 +9746,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B329" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C329" s="45" t="s">
         <v>25</v>
@@ -9699,13 +9760,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B330" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C330" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D330" s="93">
         <v>0</v>
@@ -9713,13 +9774,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B331" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C331" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D331" s="93">
         <v>0</v>
@@ -9727,10 +9788,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B332" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C332" s="45" t="s">
         <v>25</v>
@@ -9741,13 +9802,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B333" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C333" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D333" s="93">
         <v>0</v>
@@ -9755,13 +9816,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B334" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C334" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D334" s="93">
         <v>0</v>
@@ -9769,10 +9830,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B335" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C335" s="45" t="s">
         <v>25</v>
@@ -9783,13 +9844,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B336" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C336" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D336" s="93">
         <v>0</v>
@@ -9797,13 +9858,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B337" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C337" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D337" s="93">
         <v>0</v>
@@ -9811,10 +9872,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B338" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C338" s="45" t="s">
         <v>25</v>
@@ -9825,13 +9886,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B339" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C339" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D339" s="93">
         <v>0</v>
@@ -9839,13 +9900,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B340" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C340" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D340" s="93">
         <v>0</v>
@@ -9853,10 +9914,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B341" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C341" s="45" t="s">
         <v>25</v>
@@ -9867,13 +9928,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B342" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C342" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D342" s="93">
         <v>0</v>
@@ -9881,13 +9942,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B343" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C343" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D343" s="93">
         <v>0</v>
@@ -9895,10 +9956,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B344" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C344" s="45" t="s">
         <v>25</v>
@@ -9909,13 +9970,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B345" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C345" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D345" s="93">
         <v>0</v>
@@ -9923,13 +9984,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B346" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C346" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D346" s="93">
         <v>0</v>
@@ -9937,10 +9998,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B347" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C347" s="45" t="s">
         <v>25</v>
@@ -9951,13 +10012,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B348" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C348" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D348" s="93">
         <v>0</v>
@@ -9965,13 +10026,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B349" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C349" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D349" s="93">
         <v>0</v>
@@ -9979,10 +10040,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B350" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C350" s="45" t="s">
         <v>25</v>
@@ -9993,13 +10054,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B351" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C351" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D351" s="93">
         <v>0</v>
@@ -10007,13 +10068,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B352" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C352" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D352" s="93">
         <v>0</v>
@@ -10021,10 +10082,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B353" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C353" s="45" t="s">
         <v>25</v>
@@ -10035,13 +10096,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B354" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C354" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D354" s="93">
         <v>0</v>
@@ -10049,13 +10110,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B355" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C355" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D355" s="93">
         <v>0</v>
@@ -10063,10 +10124,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B356" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C356" s="45" t="s">
         <v>25</v>
@@ -10077,13 +10138,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B357" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C357" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D357" s="93">
         <v>0</v>
@@ -10091,13 +10152,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B358" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C358" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D358" s="93">
         <v>0</v>
@@ -10105,10 +10166,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B359" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C359" s="45" t="s">
         <v>25</v>
@@ -10119,13 +10180,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B360" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C360" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D360" s="93">
         <v>0</v>
@@ -10133,13 +10194,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B361" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C361" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D361" s="93">
         <v>0</v>
@@ -10147,10 +10208,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B362" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C362" s="45" t="s">
         <v>25</v>
@@ -10161,13 +10222,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B363" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C363" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D363" s="93">
         <v>0</v>
@@ -10175,13 +10236,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B364" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C364" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D364" s="93">
         <v>0</v>
@@ -10189,10 +10250,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B365" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C365" s="45" t="s">
         <v>25</v>
@@ -10203,13 +10264,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B366" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C366" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D366" s="93">
         <v>0</v>
@@ -10217,13 +10278,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B367" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C367" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D367" s="93">
         <v>0</v>
@@ -10231,10 +10292,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B368" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C368" s="45" t="s">
         <v>25</v>
@@ -10245,13 +10306,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B369" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C369" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D369" s="93">
         <v>0</v>
@@ -10259,13 +10320,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B370" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C370" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D370" s="93">
         <v>0</v>
@@ -10273,10 +10334,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B371" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C371" s="45" t="s">
         <v>25</v>
@@ -10287,13 +10348,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B372" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C372" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D372" s="93">
         <v>0</v>
@@ -10301,13 +10362,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B373" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C373" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D373" s="93">
         <v>0</v>
@@ -10315,10 +10376,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B374" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C374" s="45" t="s">
         <v>25</v>
@@ -10329,13 +10390,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B375" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C375" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D375" s="93">
         <v>0</v>
@@ -10343,13 +10404,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B376" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C376" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D376" s="93">
         <v>0</v>
@@ -10357,10 +10418,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B377" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C377" s="45" t="s">
         <v>25</v>
@@ -10371,13 +10432,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B378" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C378" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D378" s="93">
         <v>0</v>
@@ -10385,13 +10446,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B379" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C379" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D379" s="93">
         <v>0</v>
@@ -10399,10 +10460,10 @@
     </row>
     <row r="380" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B380" s="94" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C380" s="94" t="s">
         <v>25</v>
@@ -10414,7 +10475,7 @@
     <row r="381" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="161" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B382" s="162"/>
       <c r="C382" s="162"/>
@@ -10425,21 +10486,21 @@
         <v>15</v>
       </c>
       <c r="B383" s="60" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C383" s="60" t="s">
         <v>21</v>
       </c>
       <c r="D383" s="70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="96" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B384" s="97" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C384" s="98" t="s">
         <v>25</v>
@@ -10452,18 +10513,18 @@
         <v>15</v>
       </c>
       <c r="B386" s="110" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C386" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C387" s="105">
         <v>0.25</v>
@@ -10471,10 +10532,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C388" s="105">
         <v>0.3</v>
@@ -10482,10 +10543,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C389" s="105">
         <v>0.35</v>
@@ -10493,10 +10554,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C390" s="105">
         <v>0.4</v>
@@ -10504,10 +10565,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C391" s="105">
         <v>0.45</v>
@@ -10515,10 +10576,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C392" s="105">
         <v>0.5</v>
@@ -10526,10 +10587,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C393" s="105">
         <v>0.55000000000000004</v>
@@ -10537,10 +10598,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C394" s="106">
         <v>0</v>
@@ -10548,10 +10609,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C395" s="105">
         <v>0.25</v>
@@ -10559,10 +10620,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C396" s="105">
         <v>0.3</v>
@@ -10570,10 +10631,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C397" s="105">
         <v>0.45</v>
@@ -10581,10 +10642,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C398" s="105">
         <v>0.4</v>
@@ -10592,10 +10653,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C399" s="105">
         <v>0.45</v>
@@ -10603,10 +10664,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C400" s="105">
         <v>0.5</v>
@@ -10614,10 +10675,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C401" s="105">
         <v>0.55000000000000004</v>
@@ -10625,10 +10686,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C402" s="106">
         <v>0</v>
@@ -10636,10 +10697,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C403" s="105">
         <v>0.25</v>
@@ -10647,10 +10708,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C404" s="105">
         <v>0.3</v>
@@ -10658,10 +10719,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C405" s="105">
         <v>0.35</v>
@@ -10669,10 +10730,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C406" s="105">
         <v>0.4</v>
@@ -10680,10 +10741,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C407" s="105">
         <v>0.45</v>
@@ -10691,10 +10752,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C408" s="105">
         <v>0.5</v>
@@ -10702,10 +10763,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C409" s="105">
         <v>0.55000000000000004</v>
@@ -10713,10 +10774,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C410" s="106">
         <v>0</v>
@@ -10724,10 +10785,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C411" s="105">
         <v>0.25</v>
@@ -10735,10 +10796,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C412" s="105">
         <v>0.3</v>
@@ -10746,10 +10807,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C413" s="105">
         <v>0.35</v>
@@ -10757,10 +10818,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C414" s="105">
         <v>0.4</v>
@@ -10768,10 +10829,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C415" s="105">
         <v>0.45</v>
@@ -10779,10 +10840,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C416" s="105">
         <v>0.5</v>
@@ -10790,10 +10851,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C417" s="105">
         <v>0.55000000000000004</v>
@@ -10801,10 +10862,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C418" s="106">
         <v>0</v>
@@ -10812,10 +10873,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C419" s="105">
         <v>0.25</v>
@@ -10823,10 +10884,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C420" s="105">
         <v>0.3</v>
@@ -10834,10 +10895,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C421" s="105">
         <v>0.35</v>
@@ -10845,10 +10906,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C422" s="105">
         <v>0.4</v>
@@ -10856,10 +10917,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C423" s="105">
         <v>0.45</v>
@@ -10867,10 +10928,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C424" s="105">
         <v>0.5</v>
@@ -10878,10 +10939,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C425" s="105">
         <v>0.55000000000000004</v>
@@ -10889,10 +10950,10 @@
     </row>
     <row r="426" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="107" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B426" s="58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C426" s="108">
         <v>0</v>
@@ -10901,7 +10962,7 @@
     <row r="427" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="161" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B428" s="162"/>
       <c r="C428" s="163"/>
@@ -10911,10 +10972,10 @@
         <v>15</v>
       </c>
       <c r="B429" s="100" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C429" s="102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10961,29 +11022,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="167" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B3" s="41">
         <f ca="1">TODAY()</f>
-        <v>42847</v>
+        <v>42851</v>
       </c>
       <c r="C3" s="3">
         <f>IF(B$9&lt;B2,1,0)</f>
@@ -10992,11 +11053,11 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" s="41">
         <f ca="1">B3-1</f>
-        <v>42846</v>
+        <v>42850</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">IF(B$9&lt;B3,1,0)</f>
@@ -11005,11 +11066,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="41">
         <f ca="1">EDATE(B3,-12)</f>
-        <v>42482</v>
+        <v>42486</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(B$9&lt;B5,1,0)</f>
@@ -11018,11 +11079,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B6" s="41">
         <f ca="1">EDATE(B3,-24)</f>
-        <v>42116</v>
+        <v>42120</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(B$9&lt;B6,1,0)</f>
@@ -11031,11 +11092,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B7" s="41">
         <f ca="1">EDATE(B3,-36)</f>
-        <v>41751</v>
+        <v>41755</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">IF(B$9&lt;B7,1,0)</f>
@@ -11048,7 +11109,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="40">
         <f>ConfigurationSetup!M7</f>
@@ -11057,7 +11118,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" s="39" t="str">
         <f ca="1">DGET(F17:G22,"VehicleAge",A13:B14)</f>
@@ -11066,16 +11127,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="169"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
         <v>129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -11086,7 +11147,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="168" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B16" s="168"/>
       <c r="C16" s="168"/>
@@ -11097,25 +11158,25 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="E17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11139,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11163,7 +11224,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -11187,7 +11248,7 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11211,7 +11272,7 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11235,7 +11296,7 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -11297,25 +11358,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="167" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="143">
         <v>800</v>
@@ -11327,7 +11388,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B4" s="143">
         <v>1000</v>
@@ -11404,7 +11465,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B11" s="142">
         <v>200</v>
@@ -11413,7 +11474,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B12" s="39" t="str">
         <f>DGET(H19:I26,"CC",A15:B16)</f>
@@ -11422,16 +11483,16 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="169"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -11442,7 +11503,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -11453,10 +11514,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -11474,10 +11535,10 @@
         <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -11507,7 +11568,7 @@
         <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -11537,7 +11598,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="253">
   <si>
     <t>Default</t>
   </si>
@@ -563,9 +563,6 @@
   </si>
   <si>
     <t>Item_type</t>
-  </si>
-  <si>
-    <t>Calc_specialPerc</t>
   </si>
   <si>
     <t>Calc_special flat</t>
@@ -2212,11 +2209,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="153" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="139" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D1" s="140">
         <v>2</v>
@@ -2224,10 +2221,10 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="129"/>
       <c r="D2" s="120"/>
@@ -2235,7 +2232,7 @@
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="121">
         <v>42813</v>
@@ -2246,7 +2243,7 @@
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="127" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="122"/>
       <c r="C4" s="130"/>
@@ -2255,7 +2252,7 @@
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="121">
         <v>42813</v>
@@ -2266,7 +2263,7 @@
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="123"/>
       <c r="C6" s="125"/>
@@ -2275,7 +2272,7 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="123"/>
       <c r="C7" s="131"/>
@@ -2284,7 +2281,7 @@
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="150" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="151"/>
       <c r="C8" s="151"/>
@@ -2293,7 +2290,7 @@
     </row>
     <row r="9" spans="1:6" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="158" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="159"/>
       <c r="C9" s="159"/>
@@ -2310,7 +2307,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="151"/>
       <c r="C11" s="151"/>
@@ -2319,13 +2316,13 @@
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="133" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="118" t="s">
-        <v>192</v>
-      </c>
       <c r="C12" s="132" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" s="135">
         <v>10</v>
@@ -2334,13 +2331,13 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="134">
         <v>42813</v>
       </c>
       <c r="C13" s="132" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" s="135">
         <v>12</v>
@@ -2349,10 +2346,10 @@
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="39"/>
@@ -2367,7 +2364,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="150" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="151"/>
       <c r="C16" s="151"/>
@@ -2376,13 +2373,13 @@
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="133" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="119" t="s">
-        <v>194</v>
-      </c>
       <c r="C17" s="132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" s="102">
         <v>28</v>
@@ -2391,13 +2388,13 @@
     </row>
     <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="134">
         <v>42813</v>
       </c>
       <c r="C18" s="132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18" s="102">
         <v>29</v>
@@ -2406,10 +2403,10 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="39"/>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="150" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="151"/>
       <c r="C21" s="151"/>
@@ -2433,13 +2430,13 @@
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="133" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="119" t="s">
-        <v>194</v>
-      </c>
       <c r="C22" s="132" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D22" s="102">
         <v>6</v>
@@ -2448,13 +2445,13 @@
     </row>
     <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="134">
         <v>42813</v>
       </c>
       <c r="C23" s="132" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D23" s="102" t="s">
         <v>158</v>
@@ -2463,10 +2460,10 @@
     </row>
     <row r="24" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="39"/>
@@ -2481,7 +2478,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="150" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="151"/>
       <c r="C26" s="151"/>
@@ -2490,13 +2487,13 @@
     </row>
     <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="133" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="B27" s="119" t="s">
-        <v>194</v>
-      </c>
       <c r="C27" s="132" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D27" s="102">
         <v>16</v>
@@ -2505,25 +2502,25 @@
     </row>
     <row r="28" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A28" s="133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="134">
         <v>42813</v>
       </c>
       <c r="C28" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="102" t="s">
         <v>210</v>
-      </c>
-      <c r="D28" s="102" t="s">
-        <v>211</v>
       </c>
       <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="39"/>
@@ -2532,7 +2529,7 @@
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="150" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" s="151"/>
       <c r="C31" s="151"/>
@@ -2540,13 +2537,13 @@
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="133" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="119" t="s">
-        <v>194</v>
-      </c>
       <c r="C32" s="132" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D32" s="102">
         <v>16</v>
@@ -2554,24 +2551,24 @@
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B33" s="134">
         <v>42813</v>
       </c>
       <c r="C33" s="132" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" s="138" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="50"/>
       <c r="D34" s="39"/>
@@ -2579,7 +2576,7 @@
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="150" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B36" s="151"/>
       <c r="C36" s="151"/>
@@ -2587,38 +2584,38 @@
     </row>
     <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="119" t="s">
-        <v>222</v>
-      </c>
       <c r="C37" s="132" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="102" t="s">
         <v>225</v>
-      </c>
-      <c r="D37" s="102" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="133" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="144" t="s">
         <v>223</v>
       </c>
-      <c r="B38" s="144" t="s">
+      <c r="C38" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="C38" s="132" t="s">
-        <v>225</v>
-      </c>
       <c r="D38" s="135" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="155">
         <v>42813</v>
@@ -2628,7 +2625,7 @@
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="150" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B41" s="151"/>
       <c r="C41" s="151"/>
@@ -2636,35 +2633,35 @@
     </row>
     <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B42" s="119"/>
       <c r="C42" s="132" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D42" s="102"/>
     </row>
     <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="134" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="132" t="s">
         <v>228</v>
-      </c>
-      <c r="C43" s="132" t="s">
-        <v>229</v>
       </c>
       <c r="D43" s="138"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="145" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D44" s="39"/>
     </row>
@@ -2763,19 +2760,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="146" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F3" s="146" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" s="146" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2798,7 +2795,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2821,7 +2818,7 @@
         <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2844,7 +2841,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2867,7 +2864,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2890,7 +2887,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2913,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2956,7 +2953,7 @@
         <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2979,7 +2976,7 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,19 +3027,19 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,19 +3050,19 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3088,7 +3085,7 @@
         <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3111,7 +3108,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3308,16 +3305,16 @@
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G28" s="9"/>
     </row>
@@ -3882,9 +3879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3914,25 +3911,25 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="C1" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="112" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="E1" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="112" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" s="112" t="s">
+      <c r="F1" s="112" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="G1" s="112" t="s">
         <v>244</v>
-      </c>
-      <c r="G1" s="112" t="s">
-        <v>245</v>
       </c>
       <c r="H1" s="112" t="s">
         <v>0</v>
@@ -3941,13 +3938,13 @@
         <v>61</v>
       </c>
       <c r="J1" s="112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K1" s="147" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L1" s="112" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M1" s="112" t="s">
         <v>100</v>
@@ -3962,7 +3959,7 @@
         <v>99</v>
       </c>
       <c r="Q1" s="113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4365,7 +4362,7 @@
         <v>52</v>
       </c>
       <c r="N11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O11" s="3">
         <f>DGET(DGET!A1:C36,"Rates",DGET!A39:C40)</f>
@@ -4700,7 +4697,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
@@ -5011,7 +5008,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
@@ -5146,7 +5143,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
@@ -5176,14 +5173,13 @@
         <v>0.25</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P29" s="3" t="b">
-        <f>EXACT(O29,O28)</f>
-        <v>1</v>
+      <c r="P29" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="Q29" s="114"/>
     </row>
@@ -5222,7 +5218,7 @@
         <v>25</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O30" s="3">
         <v>3</v>
@@ -5268,7 +5264,7 @@
         <v>70</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P31" s="3">
         <f ca="1">IF(M31="yes",P30,P26)</f>
@@ -5291,7 +5287,7 @@
       <c r="L32" s="43"/>
       <c r="M32" s="43"/>
       <c r="N32" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O32" s="43">
         <v>0</v>
@@ -5307,11 +5303,11 @@
     </row>
     <row r="35" spans="11:14" ht="45" x14ac:dyDescent="0.25">
       <c r="K35" s="148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M32:XFD1048576 V2:XFD7 M1:Q1 S15:XFD15 S11:XFD11 AC1:XFD1 M12:M17 M19:M31 K1 L19:L1048576 L1:L17 N12:N24 Q30:XFD31 M31:N31 N30:P30 Q11 Q15 P8:XFD10 Q12:XFD14 P12 P14 Q16:XFD25 O14:O24 P23:P24 P16:P17 P20:P21 O2:O12 P2:P7 P27:XFD27 N28:XFD29 N26:XFD26 A1:J1048576">
+  <conditionalFormatting sqref="M32:XFD1048576 V2:XFD7 M1:Q1 S15:XFD15 S11:XFD11 AC1:XFD1 M12:M17 M19:M31 K1 L19:L1048576 L1:L17 N12:N24 Q30:XFD31 M31:N31 N30:P30 Q11 Q15 P8:XFD10 Q12:XFD14 P12 P14 Q16:XFD25 O14:O24 P23:P24 P16:P17 P20:P21 O2:O12 P2:P7 P27:XFD27 N26:XFD26 A1:J1048576 N28:XFD29">
     <cfRule type="expression" dxfId="18" priority="11">
       <formula>EXACT(TEXT(A1,"text"),"?")</formula>
     </cfRule>
@@ -5468,7 +5464,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="19">
         <v>750</v>
@@ -5534,7 +5530,7 @@
         <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="19">
         <v>750</v>
@@ -5611,7 +5607,7 @@
         <v>102</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C16" s="19">
         <v>750</v>
@@ -5688,7 +5684,7 @@
         <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" s="19">
         <v>500</v>
@@ -5765,7 +5761,7 @@
         <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="19">
         <v>750</v>
@@ -7180,7 +7176,7 @@
       </c>
       <c r="D136" s="77"/>
       <c r="E136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7217,7 +7213,7 @@
         <v>80</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C140" s="27" t="s">
         <v>111</v>
@@ -7315,7 +7311,7 @@
         <v>101</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>111</v>
@@ -7413,7 +7409,7 @@
         <v>102</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>111</v>
@@ -7511,7 +7507,7 @@
         <v>104</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>111</v>
@@ -7609,7 +7605,7 @@
         <v>103</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>111</v>
@@ -7707,7 +7703,7 @@
         <v>80</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>117</v>
@@ -7805,7 +7801,7 @@
         <v>101</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C182" s="46" t="s">
         <v>117</v>
@@ -7903,7 +7899,7 @@
         <v>102</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C189" s="46" t="s">
         <v>117</v>
@@ -8001,7 +7997,7 @@
         <v>104</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C196" s="46" t="s">
         <v>117</v>
@@ -8099,7 +8095,7 @@
         <v>103</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C203" s="46" t="s">
         <v>117</v>
@@ -8197,7 +8193,7 @@
         <v>80</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C210" s="46" t="s">
         <v>25</v>
@@ -8295,7 +8291,7 @@
         <v>101</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>25</v>
@@ -8393,7 +8389,7 @@
         <v>102</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>25</v>
@@ -8491,7 +8487,7 @@
         <v>104</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>25</v>
@@ -8589,7 +8585,7 @@
         <v>103</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>25</v>
@@ -11022,7 +11018,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="167" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
@@ -11044,7 +11040,7 @@
       </c>
       <c r="B3" s="41">
         <f ca="1">TODAY()</f>
-        <v>42851</v>
+        <v>42861</v>
       </c>
       <c r="C3" s="3">
         <f>IF(B$9&lt;B2,1,0)</f>
@@ -11057,7 +11053,7 @@
       </c>
       <c r="B4" s="41">
         <f ca="1">B3-1</f>
-        <v>42850</v>
+        <v>42860</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">IF(B$9&lt;B3,1,0)</f>
@@ -11070,7 +11066,7 @@
       </c>
       <c r="B5" s="41">
         <f ca="1">EDATE(B3,-12)</f>
-        <v>42486</v>
+        <v>42496</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(B$9&lt;B5,1,0)</f>
@@ -11083,7 +11079,7 @@
       </c>
       <c r="B6" s="41">
         <f ca="1">EDATE(B3,-24)</f>
-        <v>42120</v>
+        <v>42130</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(B$9&lt;B6,1,0)</f>
@@ -11096,7 +11092,7 @@
       </c>
       <c r="B7" s="41">
         <f ca="1">EDATE(B3,-36)</f>
-        <v>41755</v>
+        <v>41765</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">IF(B$9&lt;B7,1,0)</f>
@@ -11358,7 +11354,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="167" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
@@ -11371,7 +11367,7 @@
         <v>122</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11388,7 +11384,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="143">
         <v>1000</v>
@@ -11503,7 +11499,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -11517,7 +11513,7 @@
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -11598,7 +11594,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S4e6\Documents\GitHub\InsuredTravelingWeb\Authentication.WEB\ExcelConfig\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="FES1_Time" sheetId="9" r:id="rId5"/>
     <sheet name="FES2_CC" sheetId="15" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -535,9 +530,6 @@
     <t>Calc_NCDiscount</t>
   </si>
   <si>
-    <t>Calc_special flat</t>
-  </si>
-  <si>
     <t>Calc_levy</t>
   </si>
   <si>
@@ -769,11 +761,14 @@
   <si>
     <t>Calculate</t>
   </si>
+  <si>
+    <t>Calc_special_flat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1595,7 +1590,29 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1787,7 +1804,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1819,7 +1841,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1960,7 +1982,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2154,7 +2176,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2168,41 +2190,41 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="69.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="151" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="152"/>
       <c r="C1" s="137" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D1" s="138">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="127"/>
       <c r="D2" s="118"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="119">
         <v>42813</v>
@@ -2211,18 +2233,18 @@
       <c r="D3" s="120"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="125" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="120"/>
       <c r="C4" s="128"/>
       <c r="D4" s="120"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="125" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="119">
         <v>42813</v>
@@ -2231,36 +2253,36 @@
       <c r="D5" s="120"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="121"/>
       <c r="C6" s="123"/>
       <c r="D6" s="121"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="121"/>
       <c r="C7" s="129"/>
       <c r="D7" s="122"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="149"/>
       <c r="C8" s="149"/>
       <c r="D8" s="150"/>
       <c r="E8" s="126"/>
     </row>
-    <row r="9" spans="1:6" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="156" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="157"/>
       <c r="C9" s="157"/>
@@ -2268,370 +2290,370 @@
       <c r="E9" s="114"/>
       <c r="F9" s="114"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="155"/>
       <c r="B10" s="155"/>
       <c r="C10" s="155"/>
       <c r="D10" s="155"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="148" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
       <c r="D11" s="150"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="116" t="s">
-        <v>181</v>
-      </c>
       <c r="C12" s="130" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" s="133">
         <v>10</v>
       </c>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="132">
         <v>42813</v>
       </c>
       <c r="C13" s="130" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="133">
         <v>12</v>
       </c>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="37"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="115"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="148" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="149"/>
       <c r="C16" s="149"/>
       <c r="D16" s="150"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="117" t="s">
-        <v>183</v>
-      </c>
       <c r="C17" s="130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="100">
         <v>28</v>
       </c>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A18" s="131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="132">
         <v>42813</v>
       </c>
       <c r="C18" s="130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="100">
         <v>29</v>
       </c>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="37"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="149"/>
       <c r="C21" s="149"/>
       <c r="D21" s="150"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="117" t="s">
-        <v>183</v>
-      </c>
       <c r="C22" s="130" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" s="100">
         <v>6</v>
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A23" s="131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="132">
         <v>42813</v>
       </c>
       <c r="C23" s="130" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="100" t="s">
         <v>154</v>
       </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="37"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="148" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="149"/>
       <c r="C26" s="149"/>
       <c r="D26" s="150"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A27" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="117" t="s">
-        <v>183</v>
-      </c>
       <c r="C27" s="130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="100">
         <v>16</v>
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A28" s="131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" s="132">
         <v>42813</v>
       </c>
       <c r="C28" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="100" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="100" t="s">
-        <v>200</v>
-      </c>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="37"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="148" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="149"/>
       <c r="C31" s="149"/>
       <c r="D31" s="150"/>
     </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="117" t="s">
-        <v>183</v>
-      </c>
       <c r="C32" s="130" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D32" s="100">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="132">
         <v>42813</v>
       </c>
       <c r="C33" s="130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D33" s="136" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="37"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="148" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B36" s="149"/>
       <c r="C36" s="149"/>
       <c r="D36" s="150"/>
     </row>
-    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="117" t="s">
+      <c r="C37" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="131" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="100" t="s">
+      <c r="B38" s="142" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="133" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="131" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="142" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" s="133" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C39" s="153">
         <v>42813</v>
       </c>
       <c r="D39" s="154"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="148" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" s="149"/>
       <c r="C41" s="149"/>
       <c r="D41" s="150"/>
     </row>
-    <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A42" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="117"/>
       <c r="C42" s="130" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D42" s="100"/>
     </row>
-    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="131" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="132" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="130" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="136"/>
+    </row>
+    <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="134" t="s">
         <v>186</v>
-      </c>
-      <c r="B43" s="132" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="130" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="136"/>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="134" t="s">
-        <v>187</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="143" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D44" s="37"/>
     </row>
@@ -2672,17 +2694,17 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,7 +2724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2722,7 +2744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2730,22 +2752,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="144" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="144" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G3" s="144" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2765,10 +2787,10 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2788,10 +2810,10 @@
         <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2811,10 +2833,10 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2834,10 +2856,10 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2857,10 +2879,10 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2880,10 +2902,10 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2903,7 +2925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2923,10 +2945,10 @@
         <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2946,10 +2968,10 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2969,7 +2991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2989,7 +3011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2997,22 +3019,22 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3020,22 +3042,22 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3055,10 +3077,10 @@
         <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3078,10 +3100,10 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3089,19 +3111,19 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3121,7 +3143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3141,7 +3163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3162,7 +3184,7 @@
       </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3183,7 +3205,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3204,7 +3226,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3225,7 +3247,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3246,7 +3268,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3267,7 +3289,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -3288,7 +3310,7 @@
       </c>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -3296,19 +3318,19 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -3328,7 +3350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3348,7 +3370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -3368,7 +3390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -3388,7 +3410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5</v>
       </c>
@@ -3408,7 +3430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7</v>
       </c>
@@ -3428,7 +3450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7</v>
       </c>
@@ -3448,7 +3470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -3465,7 +3487,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8</v>
       </c>
@@ -3482,7 +3504,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8</v>
       </c>
@@ -3499,7 +3521,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -3516,7 +3538,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8</v>
       </c>
@@ -3533,7 +3555,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8</v>
       </c>
@@ -3550,7 +3572,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8</v>
       </c>
@@ -3567,7 +3589,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -3584,7 +3606,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10</v>
       </c>
@@ -3598,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10</v>
       </c>
@@ -3612,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10</v>
       </c>
@@ -3626,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>10</v>
       </c>
@@ -3640,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>10</v>
       </c>
@@ -3654,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>10</v>
       </c>
@@ -3668,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>11</v>
       </c>
@@ -3682,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>11</v>
       </c>
@@ -3696,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>11</v>
       </c>
@@ -3710,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>11</v>
       </c>
@@ -3724,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12</v>
       </c>
@@ -3741,7 +3763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>12</v>
       </c>
@@ -3758,7 +3780,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>12</v>
       </c>
@@ -3775,7 +3797,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12</v>
       </c>
@@ -3792,7 +3814,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>12</v>
       </c>
@@ -3809,7 +3831,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
@@ -3826,7 +3848,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12</v>
       </c>
@@ -3843,7 +3865,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>12</v>
       </c>
@@ -3869,57 +3891,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14:I32"/>
+      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" customWidth="1"/>
-    <col min="21" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" customWidth="1"/>
+    <col min="21" max="25" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="109" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="C1" s="110" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="110" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="E1" s="110" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="110" t="s">
-        <v>230</v>
-      </c>
-      <c r="E1" s="110" t="s">
+      <c r="F1" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="G1" s="110" t="s">
         <v>233</v>
-      </c>
-      <c r="G1" s="110" t="s">
-        <v>234</v>
       </c>
       <c r="H1" s="110" t="s">
         <v>0</v>
@@ -3928,13 +3950,13 @@
         <v>61</v>
       </c>
       <c r="J1" s="110" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K1" s="145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L1" s="110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M1" s="110" t="s">
         <v>98</v>
@@ -3949,10 +3971,10 @@
         <v>97</v>
       </c>
       <c r="Q1" s="111" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101">
         <v>1</v>
       </c>
@@ -3991,7 +4013,7 @@
       </c>
       <c r="Q2" s="112"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="101">
         <v>2</v>
       </c>
@@ -4034,7 +4056,7 @@
       </c>
       <c r="Q3" s="112"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="101">
         <v>3</v>
       </c>
@@ -4077,7 +4099,7 @@
       </c>
       <c r="Q4" s="112"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="101">
         <v>4</v>
       </c>
@@ -4120,7 +4142,7 @@
       </c>
       <c r="Q5" s="112"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="101">
         <v>5</v>
       </c>
@@ -4161,7 +4183,7 @@
       </c>
       <c r="Q6" s="112"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="101">
         <v>6</v>
       </c>
@@ -4204,7 +4226,7 @@
       </c>
       <c r="Q7" s="112"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="101">
         <v>7</v>
       </c>
@@ -4245,7 +4267,7 @@
       </c>
       <c r="Q8" s="112"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="101">
         <v>8</v>
       </c>
@@ -4286,7 +4308,7 @@
       </c>
       <c r="Q9" s="112"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="101">
         <v>9</v>
       </c>
@@ -4327,7 +4349,7 @@
       </c>
       <c r="Q10" s="112"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="101">
         <v>10</v>
       </c>
@@ -4362,7 +4384,7 @@
         <v>52</v>
       </c>
       <c r="N11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O11" s="3">
         <f>DGET(DGET!A1:C36,"Rates",DGET!A39:C40)</f>
@@ -4376,7 +4398,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="101">
         <v>11</v>
       </c>
@@ -4423,7 +4445,7 @@
       </c>
       <c r="Q12" s="112"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="101">
         <v>12</v>
       </c>
@@ -4470,7 +4492,7 @@
       </c>
       <c r="Q13" s="112"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="101">
         <v>13</v>
       </c>
@@ -4517,7 +4539,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="101">
         <v>14</v>
       </c>
@@ -4564,7 +4586,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="101">
         <v>16</v>
       </c>
@@ -4611,7 +4633,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="101">
         <v>17</v>
       </c>
@@ -4656,7 +4678,7 @@
       </c>
       <c r="Q17" s="112"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="101">
         <v>18</v>
       </c>
@@ -4702,12 +4724,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="101">
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
@@ -4731,7 +4753,7 @@
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>70</v>
@@ -4749,7 +4771,7 @@
       </c>
       <c r="Q19" s="112"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="101">
         <v>20</v>
       </c>
@@ -4796,7 +4818,7 @@
       </c>
       <c r="Q20" s="112"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="101">
         <v>21</v>
       </c>
@@ -4840,7 +4862,7 @@
       </c>
       <c r="Q21" s="112"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="101">
         <v>22</v>
       </c>
@@ -4887,7 +4909,7 @@
       </c>
       <c r="Q22" s="112"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -4931,7 +4953,7 @@
       </c>
       <c r="Q23" s="112"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="101">
         <v>23</v>
       </c>
@@ -4975,7 +4997,7 @@
       </c>
       <c r="Q24" s="112"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="101" t="s">
         <v>2</v>
       </c>
@@ -5019,12 +5041,12 @@
       </c>
       <c r="Q25" s="112"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="101">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
@@ -5048,7 +5070,7 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>147</v>
@@ -5068,7 +5090,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="101">
         <v>25</v>
       </c>
@@ -5113,7 +5135,7 @@
       </c>
       <c r="Q27" s="112"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="101">
         <v>26</v>
       </c>
@@ -5156,12 +5178,12 @@
       </c>
       <c r="Q28" s="112"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="101">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
@@ -5185,7 +5207,7 @@
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M29" s="4">
         <v>0.25</v>
@@ -5201,7 +5223,7 @@
       </c>
       <c r="Q29" s="112"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="101">
         <v>28</v>
       </c>
@@ -5236,7 +5258,7 @@
         <v>25</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="O30" s="3">
         <v>3</v>
@@ -5247,7 +5269,7 @@
       </c>
       <c r="Q30" s="112"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="102">
         <v>29</v>
       </c>
@@ -5282,7 +5304,7 @@
         <v>70</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P31" s="3">
         <f ca="1">IF(M31="yes",P30,P26)</f>
@@ -5290,17 +5312,17 @@
       </c>
       <c r="Q31" s="112"/>
     </row>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="113">
         <v>30</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F32" s="41" t="s">
         <v>2</v>
@@ -5319,11 +5341,11 @@
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M32" s="41"/>
       <c r="N32" s="56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O32" s="41">
         <v>0</v>
@@ -5334,62 +5356,62 @@
       </c>
       <c r="Q32" s="13"/>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
       <c r="N33" s="147"/>
     </row>
-    <row r="35" spans="11:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="K35" s="146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V2:XFD7 S15:XFD15 S11:XFD11 AC1:XFD1 M12:M17 M19:M31 K1:Q1 N12:N24 Q30:XFD31 M31:N31 N30:P30 Q11 Q15 P8:XFD10 Q12:XFD14 P12 P14 Q16:XFD25 O14:O24 P23:P24 P16:P17 P20:P21 O2:O12 P2:P7 P27:XFD27 N26:XFD26 N28:XFD29 L32:XFD1048576 A1:J1048576">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>EXACT(TEXT(A1,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M10">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>EXACT(TEXT(M3,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>EXACT(TEXT(M11,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>EXACT(TEXT(M2,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>EXACT(TEXT(M18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>EXACT(TEXT(N27,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>EXACT(TEXT(P18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>EXACT(TEXT(P25,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:O25">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>EXACT(TEXT(N25,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L31">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>EXACT(TEXT(L2,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5465,15 +5487,15 @@
       <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -5484,7 +5506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
@@ -5495,18 +5517,18 @@
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="18">
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>80</v>
       </c>
@@ -5517,7 +5539,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>80</v>
       </c>
@@ -5528,7 +5550,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>80</v>
       </c>
@@ -5539,7 +5561,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>80</v>
       </c>
@@ -5550,7 +5572,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>80</v>
       </c>
@@ -5561,18 +5583,18 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="18">
         <v>750</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>99</v>
       </c>
@@ -5583,7 +5605,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>99</v>
       </c>
@@ -5594,7 +5616,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>99</v>
       </c>
@@ -5605,7 +5627,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>99</v>
       </c>
@@ -5616,7 +5638,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>99</v>
       </c>
@@ -5627,7 +5649,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>99</v>
       </c>
@@ -5638,18 +5660,18 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="18">
         <v>750</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>100</v>
       </c>
@@ -5660,7 +5682,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>100</v>
       </c>
@@ -5671,7 +5693,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>100</v>
       </c>
@@ -5682,7 +5704,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>100</v>
       </c>
@@ -5693,7 +5715,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>100</v>
       </c>
@@ -5704,7 +5726,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>100</v>
       </c>
@@ -5715,18 +5737,18 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>102</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="18">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>102</v>
       </c>
@@ -5737,7 +5759,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>102</v>
       </c>
@@ -5748,7 +5770,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>102</v>
       </c>
@@ -5759,7 +5781,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>102</v>
       </c>
@@ -5770,7 +5792,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>102</v>
       </c>
@@ -5781,7 +5803,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>102</v>
       </c>
@@ -5792,18 +5814,18 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C30" s="18">
         <v>750</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>101</v>
       </c>
@@ -5814,7 +5836,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>101</v>
       </c>
@@ -5825,7 +5847,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>101</v>
       </c>
@@ -5836,7 +5858,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>101</v>
       </c>
@@ -5847,7 +5869,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>101</v>
       </c>
@@ -5858,7 +5880,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>101</v>
       </c>
@@ -5869,15 +5891,15 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="162" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="163"/>
       <c r="C38" s="164"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
         <v>15</v>
       </c>
@@ -5888,7 +5910,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="69" t="str">
         <f>ConfigurationSetup!M3</f>
         <v>Motorcycle</v>
@@ -5899,8 +5921,8 @@
       </c>
       <c r="C40" s="71"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
         <v>15</v>
       </c>
@@ -5914,7 +5936,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="77" t="s">
         <v>80</v>
       </c>
@@ -5928,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="79" t="s">
         <v>80</v>
       </c>
@@ -5942,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="79" t="s">
         <v>80</v>
       </c>
@@ -5956,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="79" t="s">
         <v>80</v>
       </c>
@@ -5970,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="79" t="s">
         <v>80</v>
       </c>
@@ -5984,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="80" t="s">
         <v>80</v>
       </c>
@@ -5998,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="77" t="s">
         <v>80</v>
       </c>
@@ -6012,7 +6034,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="79" t="s">
         <v>80</v>
       </c>
@@ -6026,7 +6048,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="79" t="s">
         <v>80</v>
       </c>
@@ -6040,7 +6062,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="79" t="s">
         <v>80</v>
       </c>
@@ -6054,7 +6076,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="79" t="s">
         <v>80</v>
       </c>
@@ -6068,7 +6090,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="80" t="s">
         <v>80</v>
       </c>
@@ -6082,7 +6104,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="77" t="s">
         <v>80</v>
       </c>
@@ -6096,7 +6118,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="77" t="s">
         <v>80</v>
       </c>
@@ -6110,7 +6132,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="77" t="s">
         <v>80</v>
       </c>
@@ -6124,7 +6146,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="77" t="s">
         <v>80</v>
       </c>
@@ -6138,7 +6160,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="77" t="s">
         <v>80</v>
       </c>
@@ -6152,7 +6174,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="82" t="s">
         <v>80</v>
       </c>
@@ -6166,7 +6188,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="79" t="s">
         <v>99</v>
       </c>
@@ -6180,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="79" t="s">
         <v>99</v>
       </c>
@@ -6194,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="79" t="s">
         <v>99</v>
       </c>
@@ -6208,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="79" t="s">
         <v>99</v>
       </c>
@@ -6222,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="79" t="s">
         <v>99</v>
       </c>
@@ -6236,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="80" t="s">
         <v>99</v>
       </c>
@@ -6250,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="79" t="s">
         <v>99</v>
       </c>
@@ -6264,7 +6286,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="79" t="s">
         <v>99</v>
       </c>
@@ -6278,7 +6300,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="79" t="s">
         <v>99</v>
       </c>
@@ -6292,7 +6314,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="79" t="s">
         <v>99</v>
       </c>
@@ -6306,7 +6328,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="79" t="s">
         <v>99</v>
       </c>
@@ -6320,7 +6342,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="80" t="s">
         <v>99</v>
       </c>
@@ -6334,7 +6356,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="79" t="s">
         <v>99</v>
       </c>
@@ -6348,7 +6370,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="79" t="s">
         <v>99</v>
       </c>
@@ -6362,7 +6384,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="79" t="s">
         <v>99</v>
       </c>
@@ -6376,7 +6398,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="79" t="s">
         <v>99</v>
       </c>
@@ -6390,7 +6412,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="79" t="s">
         <v>99</v>
       </c>
@@ -6404,7 +6426,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="80" t="s">
         <v>99</v>
       </c>
@@ -6418,7 +6440,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
         <v>100</v>
       </c>
@@ -6432,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>100</v>
       </c>
@@ -6446,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="34" t="s">
         <v>100</v>
       </c>
@@ -6460,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="34" t="s">
         <v>100</v>
       </c>
@@ -6474,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="34" t="s">
         <v>100</v>
       </c>
@@ -6488,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="83" t="s">
         <v>100</v>
       </c>
@@ -6502,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="34" t="s">
         <v>100</v>
       </c>
@@ -6516,7 +6538,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="34" t="s">
         <v>100</v>
       </c>
@@ -6530,7 +6552,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="34" t="s">
         <v>100</v>
       </c>
@@ -6544,7 +6566,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="34" t="s">
         <v>100</v>
       </c>
@@ -6558,7 +6580,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="34" t="s">
         <v>100</v>
       </c>
@@ -6572,7 +6594,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="83" t="s">
         <v>100</v>
       </c>
@@ -6586,7 +6608,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="34" t="s">
         <v>100</v>
       </c>
@@ -6600,7 +6622,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="34" t="s">
         <v>100</v>
       </c>
@@ -6614,7 +6636,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="34" t="s">
         <v>100</v>
       </c>
@@ -6628,7 +6650,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="34" t="s">
         <v>100</v>
       </c>
@@ -6642,7 +6664,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="34" t="s">
         <v>100</v>
       </c>
@@ -6656,7 +6678,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="83" t="s">
         <v>100</v>
       </c>
@@ -6670,7 +6692,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="34" t="s">
         <v>102</v>
       </c>
@@ -6684,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="34" t="s">
         <v>102</v>
       </c>
@@ -6698,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="34" t="s">
         <v>102</v>
       </c>
@@ -6712,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="34" t="s">
         <v>102</v>
       </c>
@@ -6726,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="34" t="s">
         <v>102</v>
       </c>
@@ -6740,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="34" t="s">
         <v>102</v>
       </c>
@@ -6754,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="34" t="s">
         <v>102</v>
       </c>
@@ -6768,7 +6790,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="34" t="s">
         <v>102</v>
       </c>
@@ -6782,7 +6804,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="34" t="s">
         <v>102</v>
       </c>
@@ -6796,7 +6818,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="34" t="s">
         <v>102</v>
       </c>
@@ -6810,7 +6832,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="34" t="s">
         <v>102</v>
       </c>
@@ -6824,7 +6846,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="34" t="s">
         <v>102</v>
       </c>
@@ -6838,7 +6860,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="34" t="s">
         <v>102</v>
       </c>
@@ -6852,7 +6874,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="34" t="s">
         <v>102</v>
       </c>
@@ -6866,7 +6888,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="34" t="s">
         <v>102</v>
       </c>
@@ -6880,7 +6902,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="34" t="s">
         <v>102</v>
       </c>
@@ -6894,7 +6916,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="34" t="s">
         <v>102</v>
       </c>
@@ -6908,7 +6930,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="34" t="s">
         <v>102</v>
       </c>
@@ -6922,7 +6944,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="34" t="s">
         <v>101</v>
       </c>
@@ -6936,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="34" t="s">
         <v>101</v>
       </c>
@@ -6950,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="34" t="s">
         <v>101</v>
       </c>
@@ -6964,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="34" t="s">
         <v>101</v>
       </c>
@@ -6978,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="34" t="s">
         <v>101</v>
       </c>
@@ -6992,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="34" t="s">
         <v>101</v>
       </c>
@@ -7006,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="34" t="s">
         <v>101</v>
       </c>
@@ -7020,7 +7042,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="34" t="s">
         <v>101</v>
       </c>
@@ -7034,7 +7056,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="34" t="s">
         <v>101</v>
       </c>
@@ -7048,7 +7070,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="34" t="s">
         <v>101</v>
       </c>
@@ -7062,7 +7084,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="34" t="s">
         <v>101</v>
       </c>
@@ -7076,7 +7098,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="83" t="s">
         <v>101</v>
       </c>
@@ -7090,7 +7112,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="34" t="s">
         <v>101</v>
       </c>
@@ -7104,7 +7126,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="34" t="s">
         <v>101</v>
       </c>
@@ -7118,7 +7140,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="34" t="s">
         <v>101</v>
       </c>
@@ -7132,7 +7154,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="34" t="s">
         <v>101</v>
       </c>
@@ -7146,7 +7168,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="34" t="s">
         <v>101</v>
       </c>
@@ -7160,7 +7182,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="85" t="s">
         <v>101</v>
       </c>
@@ -7174,8 +7196,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="159" t="s">
         <v>83</v>
       </c>
@@ -7183,7 +7205,7 @@
       <c r="C134" s="160"/>
       <c r="D134" s="161"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="45" t="s">
         <v>15</v>
       </c>
@@ -7197,7 +7219,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="73" t="str">
         <f>ConfigurationSetup!M3</f>
         <v>Motorcycle</v>
@@ -7212,11 +7234,11 @@
       </c>
       <c r="D136" s="75"/>
       <c r="E136" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="25" t="s">
         <v>15</v>
       </c>
@@ -7230,7 +7252,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="27" t="s">
         <v>80</v>
       </c>
@@ -7244,12 +7266,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="54" t="s">
         <v>80</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C140" s="26" t="s">
         <v>109</v>
@@ -7258,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="27" t="s">
         <v>80</v>
       </c>
@@ -7272,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="27" t="s">
         <v>80</v>
       </c>
@@ -7286,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="27" t="s">
         <v>80</v>
       </c>
@@ -7300,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="27" t="s">
         <v>80</v>
       </c>
@@ -7314,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="27" t="s">
         <v>80</v>
       </c>
@@ -7328,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="27" t="s">
         <v>99</v>
       </c>
@@ -7342,12 +7364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>109</v>
@@ -7356,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="27" t="s">
         <v>99</v>
       </c>
@@ -7370,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="27" t="s">
         <v>99</v>
       </c>
@@ -7384,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="27" t="s">
         <v>99</v>
       </c>
@@ -7398,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="27" t="s">
         <v>99</v>
       </c>
@@ -7412,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="27" t="s">
         <v>99</v>
       </c>
@@ -7426,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="27" t="s">
         <v>100</v>
       </c>
@@ -7440,12 +7462,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>109</v>
@@ -7454,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="27" t="s">
         <v>100</v>
       </c>
@@ -7468,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="27" t="s">
         <v>100</v>
       </c>
@@ -7482,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="27" t="s">
         <v>100</v>
       </c>
@@ -7496,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="27" t="s">
         <v>100</v>
       </c>
@@ -7510,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="27" t="s">
         <v>100</v>
       </c>
@@ -7524,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="27" t="s">
         <v>102</v>
       </c>
@@ -7538,12 +7560,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="27" t="s">
         <v>102</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>109</v>
@@ -7552,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="27" t="s">
         <v>102</v>
       </c>
@@ -7566,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="27" t="s">
         <v>102</v>
       </c>
@@ -7580,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="27" t="s">
         <v>102</v>
       </c>
@@ -7594,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="27" t="s">
         <v>102</v>
       </c>
@@ -7608,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="27" t="s">
         <v>102</v>
       </c>
@@ -7622,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="27" t="s">
         <v>101</v>
       </c>
@@ -7636,12 +7658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>109</v>
@@ -7650,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="27" t="s">
         <v>101</v>
       </c>
@@ -7664,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="27" t="s">
         <v>101</v>
       </c>
@@ -7678,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="27" t="s">
         <v>101</v>
       </c>
@@ -7692,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="27" t="s">
         <v>101</v>
       </c>
@@ -7706,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="27" t="s">
         <v>101</v>
       </c>
@@ -7720,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="27" t="s">
         <v>80</v>
       </c>
@@ -7734,12 +7756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>115</v>
@@ -7748,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="27" t="s">
         <v>80</v>
       </c>
@@ -7762,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="27" t="s">
         <v>80</v>
       </c>
@@ -7776,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="27" t="s">
         <v>80</v>
       </c>
@@ -7790,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="27" t="s">
         <v>80</v>
       </c>
@@ -7804,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="27" t="s">
         <v>80</v>
       </c>
@@ -7818,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="27" t="s">
         <v>99</v>
       </c>
@@ -7832,12 +7854,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C182" s="44" t="s">
         <v>115</v>
@@ -7846,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="27" t="s">
         <v>99</v>
       </c>
@@ -7860,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="27" t="s">
         <v>99</v>
       </c>
@@ -7874,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="27" t="s">
         <v>99</v>
       </c>
@@ -7888,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="27" t="s">
         <v>99</v>
       </c>
@@ -7902,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="27" t="s">
         <v>99</v>
       </c>
@@ -7916,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="27" t="s">
         <v>100</v>
       </c>
@@ -7930,12 +7952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C189" s="44" t="s">
         <v>115</v>
@@ -7944,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="27" t="s">
         <v>100</v>
       </c>
@@ -7958,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="27" t="s">
         <v>100</v>
       </c>
@@ -7972,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="27" t="s">
         <v>100</v>
       </c>
@@ -7986,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="27" t="s">
         <v>100</v>
       </c>
@@ -8000,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="27" t="s">
         <v>100</v>
       </c>
@@ -8014,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="27" t="s">
         <v>102</v>
       </c>
@@ -8028,12 +8050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="27" t="s">
         <v>102</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C196" s="44" t="s">
         <v>115</v>
@@ -8042,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="27" t="s">
         <v>102</v>
       </c>
@@ -8056,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="27" t="s">
         <v>102</v>
       </c>
@@ -8070,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="27" t="s">
         <v>102</v>
       </c>
@@ -8084,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="27" t="s">
         <v>102</v>
       </c>
@@ -8098,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="27" t="s">
         <v>102</v>
       </c>
@@ -8112,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="27" t="s">
         <v>101</v>
       </c>
@@ -8126,12 +8148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C203" s="44" t="s">
         <v>115</v>
@@ -8140,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="27" t="s">
         <v>101</v>
       </c>
@@ -8154,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="27" t="s">
         <v>101</v>
       </c>
@@ -8168,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="27" t="s">
         <v>101</v>
       </c>
@@ -8182,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="27" t="s">
         <v>101</v>
       </c>
@@ -8196,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="27" t="s">
         <v>101</v>
       </c>
@@ -8210,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="27" t="s">
         <v>80</v>
       </c>
@@ -8224,12 +8246,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C210" s="44" t="s">
         <v>25</v>
@@ -8238,7 +8260,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="27" t="s">
         <v>80</v>
       </c>
@@ -8252,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="27" t="s">
         <v>80</v>
       </c>
@@ -8266,7 +8288,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="27" t="s">
         <v>80</v>
       </c>
@@ -8280,7 +8302,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="27" t="s">
         <v>80</v>
       </c>
@@ -8294,7 +8316,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="27" t="s">
         <v>80</v>
       </c>
@@ -8308,7 +8330,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="27" t="s">
         <v>99</v>
       </c>
@@ -8322,12 +8344,12 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>25</v>
@@ -8336,7 +8358,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="27" t="s">
         <v>99</v>
       </c>
@@ -8350,7 +8372,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="27" t="s">
         <v>99</v>
       </c>
@@ -8364,7 +8386,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="27" t="s">
         <v>99</v>
       </c>
@@ -8378,7 +8400,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="27" t="s">
         <v>99</v>
       </c>
@@ -8392,7 +8414,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="27" t="s">
         <v>99</v>
       </c>
@@ -8406,7 +8428,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="27" t="s">
         <v>100</v>
       </c>
@@ -8420,12 +8442,12 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>25</v>
@@ -8434,7 +8456,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="27" t="s">
         <v>100</v>
       </c>
@@ -8448,7 +8470,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="27" t="s">
         <v>100</v>
       </c>
@@ -8462,7 +8484,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="27" t="s">
         <v>100</v>
       </c>
@@ -8476,7 +8498,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="27" t="s">
         <v>100</v>
       </c>
@@ -8490,7 +8512,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="27" t="s">
         <v>100</v>
       </c>
@@ -8504,7 +8526,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="27" t="s">
         <v>102</v>
       </c>
@@ -8518,12 +8540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="27" t="s">
         <v>102</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>25</v>
@@ -8532,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="27" t="s">
         <v>102</v>
       </c>
@@ -8546,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="27" t="s">
         <v>102</v>
       </c>
@@ -8560,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="27" t="s">
         <v>102</v>
       </c>
@@ -8574,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="27" t="s">
         <v>102</v>
       </c>
@@ -8588,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="27" t="s">
         <v>102</v>
       </c>
@@ -8602,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="27" t="s">
         <v>101</v>
       </c>
@@ -8616,12 +8638,12 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>25</v>
@@ -8630,7 +8652,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="27" t="s">
         <v>101</v>
       </c>
@@ -8644,7 +8666,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="27" t="s">
         <v>101</v>
       </c>
@@ -8658,7 +8680,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="27" t="s">
         <v>101</v>
       </c>
@@ -8672,7 +8694,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="27" t="s">
         <v>101</v>
       </c>
@@ -8686,7 +8708,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="55" t="s">
         <v>101</v>
       </c>
@@ -8700,8 +8722,8 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="159" t="s">
         <v>83</v>
       </c>
@@ -8709,7 +8731,7 @@
       <c r="C245" s="160"/>
       <c r="D245" s="161"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="60" t="s">
         <v>15</v>
       </c>
@@ -8723,7 +8745,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="46" t="str">
         <f>ConfigurationSetup!M3</f>
         <v>Motorcycle</v>
@@ -8738,8 +8760,8 @@
       </c>
       <c r="D247" s="49"/>
     </row>
-    <row r="248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="25" t="s">
         <v>15</v>
       </c>
@@ -8747,7 +8769,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="63" t="s">
         <v>80</v>
       </c>
@@ -8755,7 +8777,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="63" t="s">
         <v>99</v>
       </c>
@@ -8763,7 +8785,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="63" t="s">
         <v>100</v>
       </c>
@@ -8771,7 +8793,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="63" t="s">
         <v>102</v>
       </c>
@@ -8779,7 +8801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="65" t="s">
         <v>101</v>
       </c>
@@ -8787,14 +8809,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="159" t="s">
         <v>83</v>
       </c>
       <c r="B256" s="161"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="60" t="s">
         <v>15</v>
       </c>
@@ -8802,15 +8824,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="89" t="str">
         <f>ConfigurationSetup!M3</f>
         <v>Motorcycle</v>
       </c>
       <c r="B258" s="71"/>
     </row>
-    <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="25" t="s">
         <v>15</v>
       </c>
@@ -8824,7 +8846,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="27" t="s">
         <v>80</v>
       </c>
@@ -8838,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="27" t="s">
         <v>80</v>
       </c>
@@ -8852,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="27" t="s">
         <v>80</v>
       </c>
@@ -8866,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="27" t="s">
         <v>101</v>
       </c>
@@ -8880,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="27" t="s">
         <v>101</v>
       </c>
@@ -8894,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="27" t="s">
         <v>101</v>
       </c>
@@ -8908,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="27" t="s">
         <v>102</v>
       </c>
@@ -8922,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="27" t="s">
         <v>102</v>
       </c>
@@ -8936,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="27" t="s">
         <v>102</v>
       </c>
@@ -8950,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="27" t="s">
         <v>100</v>
       </c>
@@ -8964,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="27" t="s">
         <v>100</v>
       </c>
@@ -8978,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="27" t="s">
         <v>100</v>
       </c>
@@ -8992,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="27" t="s">
         <v>99</v>
       </c>
@@ -9006,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="27" t="s">
         <v>99</v>
       </c>
@@ -9020,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="27" t="s">
         <v>99</v>
       </c>
@@ -9034,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="27" t="s">
         <v>80</v>
       </c>
@@ -9048,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="27" t="s">
         <v>80</v>
       </c>
@@ -9062,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="27" t="s">
         <v>80</v>
       </c>
@@ -9076,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="27" t="s">
         <v>101</v>
       </c>
@@ -9090,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="27" t="s">
         <v>101</v>
       </c>
@@ -9104,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="27" t="s">
         <v>101</v>
       </c>
@@ -9118,7 +9140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="27" t="s">
         <v>102</v>
       </c>
@@ -9132,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="27" t="s">
         <v>102</v>
       </c>
@@ -9146,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="27" t="s">
         <v>102</v>
       </c>
@@ -9160,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="27" t="s">
         <v>100</v>
       </c>
@@ -9174,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="27" t="s">
         <v>100</v>
       </c>
@@ -9188,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="27" t="s">
         <v>100</v>
       </c>
@@ -9202,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="27" t="s">
         <v>99</v>
       </c>
@@ -9216,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="27" t="s">
         <v>99</v>
       </c>
@@ -9230,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="27" t="s">
         <v>99</v>
       </c>
@@ -9244,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="27" t="s">
         <v>80</v>
       </c>
@@ -9258,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="27" t="s">
         <v>80</v>
       </c>
@@ -9272,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="27" t="s">
         <v>80</v>
       </c>
@@ -9286,7 +9308,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="27" t="s">
         <v>101</v>
       </c>
@@ -9300,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="27" t="s">
         <v>101</v>
       </c>
@@ -9314,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="27" t="s">
         <v>101</v>
       </c>
@@ -9328,7 +9350,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="27" t="s">
         <v>102</v>
       </c>
@@ -9342,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="27" t="s">
         <v>102</v>
       </c>
@@ -9356,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="27" t="s">
         <v>102</v>
       </c>
@@ -9370,7 +9392,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="27" t="s">
         <v>100</v>
       </c>
@@ -9384,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="27" t="s">
         <v>100</v>
       </c>
@@ -9398,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="27" t="s">
         <v>100</v>
       </c>
@@ -9412,7 +9434,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="27" t="s">
         <v>99</v>
       </c>
@@ -9426,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="27" t="s">
         <v>99</v>
       </c>
@@ -9440,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="27" t="s">
         <v>99</v>
       </c>
@@ -9454,7 +9476,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="27" t="s">
         <v>80</v>
       </c>
@@ -9468,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="27" t="s">
         <v>80</v>
       </c>
@@ -9482,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="27" t="s">
         <v>80</v>
       </c>
@@ -9496,7 +9518,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="27" t="s">
         <v>101</v>
       </c>
@@ -9510,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="27" t="s">
         <v>101</v>
       </c>
@@ -9524,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="27" t="s">
         <v>101</v>
       </c>
@@ -9538,7 +9560,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="27" t="s">
         <v>102</v>
       </c>
@@ -9552,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="27" t="s">
         <v>102</v>
       </c>
@@ -9566,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="27" t="s">
         <v>102</v>
       </c>
@@ -9580,7 +9602,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="27" t="s">
         <v>100</v>
       </c>
@@ -9594,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="27" t="s">
         <v>100</v>
       </c>
@@ -9608,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="27" t="s">
         <v>100</v>
       </c>
@@ -9622,7 +9644,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="27" t="s">
         <v>99</v>
       </c>
@@ -9636,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="27" t="s">
         <v>99</v>
       </c>
@@ -9650,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="27" t="s">
         <v>99</v>
       </c>
@@ -9664,7 +9686,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="27" t="s">
         <v>80</v>
       </c>
@@ -9678,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="27" t="s">
         <v>80</v>
       </c>
@@ -9692,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="27" t="s">
         <v>80</v>
       </c>
@@ -9706,7 +9728,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="27" t="s">
         <v>101</v>
       </c>
@@ -9720,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="27" t="s">
         <v>101</v>
       </c>
@@ -9734,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="27" t="s">
         <v>101</v>
       </c>
@@ -9748,7 +9770,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="27" t="s">
         <v>102</v>
       </c>
@@ -9762,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="27" t="s">
         <v>102</v>
       </c>
@@ -9776,7 +9798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="27" t="s">
         <v>102</v>
       </c>
@@ -9790,7 +9812,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="27" t="s">
         <v>100</v>
       </c>
@@ -9804,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="27" t="s">
         <v>100</v>
       </c>
@@ -9818,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="27" t="s">
         <v>100</v>
       </c>
@@ -9832,7 +9854,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="27" t="s">
         <v>99</v>
       </c>
@@ -9846,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="27" t="s">
         <v>99</v>
       </c>
@@ -9860,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="27" t="s">
         <v>99</v>
       </c>
@@ -9874,7 +9896,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="27" t="s">
         <v>80</v>
       </c>
@@ -9888,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="27" t="s">
         <v>80</v>
       </c>
@@ -9902,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="27" t="s">
         <v>80</v>
       </c>
@@ -9916,7 +9938,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="27" t="s">
         <v>101</v>
       </c>
@@ -9930,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="27" t="s">
         <v>101</v>
       </c>
@@ -9944,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="27" t="s">
         <v>101</v>
       </c>
@@ -9958,7 +9980,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="27" t="s">
         <v>102</v>
       </c>
@@ -9972,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="27" t="s">
         <v>102</v>
       </c>
@@ -9986,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="27" t="s">
         <v>102</v>
       </c>
@@ -10000,7 +10022,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="27" t="s">
         <v>100</v>
       </c>
@@ -10014,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="27" t="s">
         <v>100</v>
       </c>
@@ -10028,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="27" t="s">
         <v>100</v>
       </c>
@@ -10042,7 +10064,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="27" t="s">
         <v>99</v>
       </c>
@@ -10056,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="27" t="s">
         <v>99</v>
       </c>
@@ -10070,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="27" t="s">
         <v>99</v>
       </c>
@@ -10084,7 +10106,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="27" t="s">
         <v>80</v>
       </c>
@@ -10098,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="27" t="s">
         <v>80</v>
       </c>
@@ -10112,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="27" t="s">
         <v>80</v>
       </c>
@@ -10126,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="27" t="s">
         <v>101</v>
       </c>
@@ -10140,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="27" t="s">
         <v>101</v>
       </c>
@@ -10154,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="27" t="s">
         <v>101</v>
       </c>
@@ -10168,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="27" t="s">
         <v>102</v>
       </c>
@@ -10182,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="27" t="s">
         <v>102</v>
       </c>
@@ -10196,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="27" t="s">
         <v>102</v>
       </c>
@@ -10210,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="27" t="s">
         <v>100</v>
       </c>
@@ -10224,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="27" t="s">
         <v>100</v>
       </c>
@@ -10238,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="27" t="s">
         <v>100</v>
       </c>
@@ -10252,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="27" t="s">
         <v>99</v>
       </c>
@@ -10266,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="27" t="s">
         <v>99</v>
       </c>
@@ -10280,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="27" t="s">
         <v>99</v>
       </c>
@@ -10294,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="27" t="s">
         <v>80</v>
       </c>
@@ -10308,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="27" t="s">
         <v>80</v>
       </c>
@@ -10322,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="27" t="s">
         <v>80</v>
       </c>
@@ -10336,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="27" t="s">
         <v>101</v>
       </c>
@@ -10350,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="27" t="s">
         <v>101</v>
       </c>
@@ -10364,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="27" t="s">
         <v>101</v>
       </c>
@@ -10378,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="27" t="s">
         <v>102</v>
       </c>
@@ -10392,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="27" t="s">
         <v>102</v>
       </c>
@@ -10406,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="27" t="s">
         <v>102</v>
       </c>
@@ -10420,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="27" t="s">
         <v>100</v>
       </c>
@@ -10434,7 +10456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="27" t="s">
         <v>100</v>
       </c>
@@ -10448,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="27" t="s">
         <v>100</v>
       </c>
@@ -10462,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="27" t="s">
         <v>99</v>
       </c>
@@ -10476,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="27" t="s">
         <v>99</v>
       </c>
@@ -10490,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" s="55" t="s">
         <v>99</v>
       </c>
@@ -10504,8 +10526,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="159" t="s">
         <v>83</v>
       </c>
@@ -10513,7 +10535,7 @@
       <c r="C382" s="160"/>
       <c r="D382" s="161"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="60" t="s">
         <v>15</v>
       </c>
@@ -10527,7 +10549,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="94" t="s">
         <v>99</v>
       </c>
@@ -10539,8 +10561,8 @@
       </c>
       <c r="D384" s="97"/>
     </row>
-    <row r="385" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="107" t="s">
         <v>15</v>
       </c>
@@ -10551,7 +10573,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="102" t="s">
         <v>80</v>
       </c>
@@ -10562,7 +10584,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="102" t="s">
         <v>80</v>
       </c>
@@ -10573,7 +10595,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="102" t="s">
         <v>80</v>
       </c>
@@ -10584,7 +10606,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="102" t="s">
         <v>80</v>
       </c>
@@ -10595,7 +10617,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="102" t="s">
         <v>80</v>
       </c>
@@ -10606,7 +10628,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="102" t="s">
         <v>80</v>
       </c>
@@ -10617,7 +10639,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="102" t="s">
         <v>80</v>
       </c>
@@ -10628,7 +10650,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="102" t="s">
         <v>80</v>
       </c>
@@ -10639,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="102" t="s">
         <v>102</v>
       </c>
@@ -10650,7 +10672,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="102" t="s">
         <v>102</v>
       </c>
@@ -10661,7 +10683,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="102" t="s">
         <v>102</v>
       </c>
@@ -10672,7 +10694,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="102" t="s">
         <v>102</v>
       </c>
@@ -10683,7 +10705,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="102" t="s">
         <v>102</v>
       </c>
@@ -10694,7 +10716,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="102" t="s">
         <v>102</v>
       </c>
@@ -10705,7 +10727,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="102" t="s">
         <v>102</v>
       </c>
@@ -10716,7 +10738,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="102" t="s">
         <v>102</v>
       </c>
@@ -10727,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="102" t="s">
         <v>99</v>
       </c>
@@ -10738,7 +10760,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="102" t="s">
         <v>99</v>
       </c>
@@ -10749,7 +10771,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="102" t="s">
         <v>99</v>
       </c>
@@ -10760,7 +10782,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="102" t="s">
         <v>99</v>
       </c>
@@ -10771,7 +10793,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="102" t="s">
         <v>99</v>
       </c>
@@ -10782,7 +10804,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="102" t="s">
         <v>99</v>
       </c>
@@ -10793,7 +10815,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="102" t="s">
         <v>99</v>
       </c>
@@ -10804,7 +10826,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="102" t="s">
         <v>99</v>
       </c>
@@ -10815,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="102" t="s">
         <v>100</v>
       </c>
@@ -10826,7 +10848,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="102" t="s">
         <v>100</v>
       </c>
@@ -10837,7 +10859,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="102" t="s">
         <v>100</v>
       </c>
@@ -10848,7 +10870,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="102" t="s">
         <v>100</v>
       </c>
@@ -10859,7 +10881,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="102" t="s">
         <v>100</v>
       </c>
@@ -10870,7 +10892,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="102" t="s">
         <v>100</v>
       </c>
@@ -10881,7 +10903,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="102" t="s">
         <v>100</v>
       </c>
@@ -10892,7 +10914,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="102" t="s">
         <v>100</v>
       </c>
@@ -10903,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="102" t="s">
         <v>101</v>
       </c>
@@ -10914,7 +10936,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="102" t="s">
         <v>101</v>
       </c>
@@ -10925,7 +10947,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="102" t="s">
         <v>101</v>
       </c>
@@ -10936,7 +10958,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="102" t="s">
         <v>101</v>
       </c>
@@ -10947,7 +10969,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="102" t="s">
         <v>101</v>
       </c>
@@ -10958,7 +10980,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="102" t="s">
         <v>101</v>
       </c>
@@ -10969,7 +10991,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="102" t="s">
         <v>101</v>
       </c>
@@ -10980,7 +11002,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A426" s="105" t="s">
         <v>101</v>
       </c>
@@ -10991,15 +11013,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="159" t="s">
         <v>83</v>
       </c>
       <c r="B428" s="160"/>
       <c r="C428" s="161"/>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="99" t="s">
         <v>15</v>
       </c>
@@ -11010,7 +11032,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A430" s="36" t="str">
         <f>ConfigurationSetup!M3</f>
         <v>Motorcycle</v>
@@ -11042,24 +11064,24 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="165" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="165"/>
       <c r="C1" s="165"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>89</v>
       </c>
@@ -11070,76 +11092,76 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="39">
         <f ca="1">TODAY()</f>
-        <v>42862</v>
+        <v>42864</v>
       </c>
       <c r="C3" s="3">
         <f>IF(B$9&lt;B2,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B4" s="39">
         <f ca="1">B3-1</f>
-        <v>42861</v>
+        <v>42863</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">IF(B$9&lt;B3,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="39">
         <f ca="1">EDATE(B3,-12)</f>
-        <v>42497</v>
+        <v>42499</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(B$9&lt;B5,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="39">
         <f ca="1">EDATE(B3,-24)</f>
-        <v>42131</v>
+        <v>42133</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(B$9&lt;B6,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="39">
         <f ca="1">EDATE(B3,-36)</f>
-        <v>41766</v>
+        <v>41768</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">IF(B$9&lt;B7,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>122</v>
       </c>
@@ -11148,7 +11170,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
         <v>125</v>
       </c>
@@ -11157,13 +11179,13 @@
         <v>Vehicle &lt;= 3 years</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="167" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="167"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -11171,13 +11193,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <f ca="1">C3+C4+C5+C6+C7</f>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="166" t="s">
         <v>127</v>
       </c>
@@ -11188,7 +11210,7 @@
       <c r="F16" s="166"/>
       <c r="G16" s="166"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>121</v>
       </c>
@@ -11211,7 +11233,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -11235,7 +11257,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -11259,7 +11281,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -11283,7 +11305,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -11307,7 +11329,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11338,32 +11360,32 @@
     <mergeCell ref="A12:B12"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2 B5:B8 A4 B3 E17 C17 D5:D8 D10:D11 B10">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>EXACT(TEXT(A2,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>EXACT(TEXT(A6,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8 A16">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>EXACT(TEXT(A7,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>EXACT(TEXT(B17,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>EXACT(TEXT(A17,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11 A10">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>EXACT(TEXT(A10,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11379,23 +11401,23 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="165" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="165"/>
       <c r="C1" s="165"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>89</v>
       </c>
@@ -11403,10 +11425,10 @@
         <v>119</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>103</v>
       </c>
@@ -11418,9 +11440,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="141">
         <v>1000</v>
@@ -11430,7 +11452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -11442,7 +11464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
@@ -11454,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -11466,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
@@ -11478,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -11490,12 +11512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="139"/>
       <c r="B10" s="139"/>
       <c r="C10" s="22"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>122</v>
       </c>
@@ -11504,7 +11526,7 @@
       </c>
       <c r="C11" s="22"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
         <v>125</v>
       </c>
@@ -11513,13 +11535,13 @@
         <v>0-800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="167" t="s">
         <v>83</v>
       </c>
       <c r="B14" s="167"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -11527,15 +11549,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>SUM(C3:C9)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -11544,12 +11566,12 @@
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -11573,7 +11595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -11603,7 +11625,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -11630,10 +11652,10 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -11663,7 +11685,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -11693,7 +11715,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -11723,7 +11745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -11753,7 +11775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -11783,7 +11805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F29" s="167"/>
       <c r="G29" s="167"/>
     </row>
@@ -11794,17 +11816,17 @@
     <mergeCell ref="A14:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2 B5:B10 B3 D5:D12 D14:D15 B12">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>EXACT(TEXT(A2,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A18">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>EXACT(TEXT(A10,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>EXACT(TEXT(A12,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="261">
   <si>
     <t>Default</t>
   </si>
@@ -166,9 +166,6 @@
     <t>cc_range</t>
   </si>
   <si>
-    <t>validation</t>
-  </si>
-  <si>
     <t>Службено возило</t>
   </si>
   <si>
@@ -311,12 +308,6 @@
   </si>
   <si>
     <t>number</t>
-  </si>
-  <si>
-    <t>alphanumeric</t>
-  </si>
-  <si>
-    <t>no validation</t>
   </si>
   <si>
     <t>Sum insured</t>
@@ -1684,7 +1675,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3048,11 +3069,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="146" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B1" s="147"/>
       <c r="C1" s="131" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D1" s="132">
         <v>2</v>
@@ -3060,10 +3081,10 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C2" s="121"/>
       <c r="D2" s="112"/>
@@ -3071,7 +3092,7 @@
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="119" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" s="113">
         <v>42813</v>
@@ -3082,7 +3103,7 @@
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="119" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" s="114"/>
       <c r="C4" s="122"/>
@@ -3091,7 +3112,7 @@
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="119" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B5" s="113">
         <v>42813</v>
@@ -3102,7 +3123,7 @@
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="119" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B6" s="115"/>
       <c r="C6" s="117"/>
@@ -3111,7 +3132,7 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="119" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" s="115"/>
       <c r="C7" s="123"/>
@@ -3120,7 +3141,7 @@
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="143" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B8" s="144"/>
       <c r="C8" s="144"/>
@@ -3129,7 +3150,7 @@
     </row>
     <row r="9" spans="1:6" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="151" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="152"/>
       <c r="C9" s="152"/>
@@ -3146,7 +3167,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="143" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B11" s="144"/>
       <c r="C11" s="144"/>
@@ -3155,13 +3176,13 @@
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B12" s="110" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="124" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D12" s="127">
         <v>10</v>
@@ -3170,13 +3191,13 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B13" s="126">
         <v>42813</v>
       </c>
       <c r="C13" s="124" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D13" s="127">
         <v>12</v>
@@ -3185,10 +3206,10 @@
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="128" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="36"/>
@@ -3203,7 +3224,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="143" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B16" s="144"/>
       <c r="C16" s="144"/>
@@ -3212,13 +3233,13 @@
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B17" s="111" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" s="99">
         <v>28</v>
@@ -3227,13 +3248,13 @@
     </row>
     <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B18" s="126">
         <v>42813</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D18" s="99">
         <v>29</v>
@@ -3242,10 +3263,10 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="128" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="36"/>
@@ -3260,7 +3281,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="143" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B21" s="144"/>
       <c r="C21" s="144"/>
@@ -3269,13 +3290,13 @@
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C22" s="124" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D22" s="99">
         <v>6</v>
@@ -3284,25 +3305,25 @@
     </row>
     <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B23" s="126">
         <v>42813</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="128" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="36"/>
@@ -3317,7 +3338,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B26" s="144"/>
       <c r="C26" s="144"/>
@@ -3326,13 +3347,13 @@
     </row>
     <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B27" s="111" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C27" s="124" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D27" s="99">
         <v>16</v>
@@ -3341,25 +3362,25 @@
     </row>
     <row r="28" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A28" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B28" s="126">
         <v>42813</v>
       </c>
       <c r="C28" s="124" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D28" s="99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="128" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="36"/>
@@ -3368,7 +3389,7 @@
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="143" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B31" s="144"/>
       <c r="C31" s="144"/>
@@ -3376,13 +3397,13 @@
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B32" s="111" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C32" s="124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D32" s="99">
         <v>16</v>
@@ -3390,24 +3411,24 @@
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B33" s="126">
         <v>42813</v>
       </c>
       <c r="C33" s="124" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D33" s="130" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="128" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="36"/>
@@ -3415,7 +3436,7 @@
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="143" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B36" s="144"/>
       <c r="C36" s="144"/>
@@ -3423,38 +3444,38 @@
     </row>
     <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="125" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B37" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="124" t="s">
         <v>205</v>
       </c>
-      <c r="C37" s="124" t="s">
-        <v>208</v>
-      </c>
       <c r="D37" s="99" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="125" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B38" s="136" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="124" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="127" t="s">
         <v>207</v>
-      </c>
-      <c r="C38" s="124" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" s="127" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="128" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C39" s="148">
         <v>42813</v>
@@ -3464,7 +3485,7 @@
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="143" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B41" s="144"/>
       <c r="C41" s="144"/>
@@ -3472,35 +3493,35 @@
     </row>
     <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="125" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B42" s="111"/>
       <c r="C42" s="124" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D42" s="99"/>
     </row>
     <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B43" s="126" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C43" s="124" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D43" s="130"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="128" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B44" s="47" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="137" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D44" s="36"/>
     </row>
@@ -3535,10 +3556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3599,19 +3620,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="138" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F3" s="138" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G3" s="138" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3634,7 +3655,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3645,19 +3666,19 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3680,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3703,7 +3724,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3726,7 +3747,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3749,7 +3770,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3780,19 +3801,19 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3815,7 +3836,7 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3866,19 +3887,19 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3889,19 +3910,19 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3912,19 +3933,19 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3947,7 +3968,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3958,16 +3979,16 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3978,7 +3999,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3987,7 +4008,7 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3998,7 +4019,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4007,7 +4028,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4018,7 +4039,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4027,7 +4048,7 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="9"/>
     </row>
@@ -4039,7 +4060,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4048,7 +4069,7 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" s="9"/>
     </row>
@@ -4060,7 +4081,7 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4069,7 +4090,7 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -4081,7 +4102,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4090,7 +4111,7 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -4102,7 +4123,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4111,7 +4132,7 @@
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="9"/>
     </row>
@@ -4132,7 +4153,7 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="9"/>
     </row>
@@ -4144,16 +4165,16 @@
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G28" s="9"/>
     </row>
@@ -4165,16 +4186,16 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4185,16 +4206,16 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4205,16 +4226,16 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4225,16 +4246,16 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,16 +4266,16 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,16 +4286,16 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
         <v>52</v>
-      </c>
-      <c r="F34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4282,19 +4303,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4302,19 +4323,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4322,16 +4343,16 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4339,16 +4360,16 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4356,16 +4377,16 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4373,16 +4394,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4390,16 +4411,16 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4407,16 +4428,16 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4424,16 +4445,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4441,292 +4462,236 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="7">
-        <v>0.05</v>
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="7">
-        <v>0.1</v>
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
+      <c r="E47" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="7">
-        <v>0.15</v>
+        <v>137</v>
+      </c>
+      <c r="C48" t="s">
+        <v>129</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="7">
-        <v>0.2</v>
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="7">
-        <v>0.25</v>
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" t="s">
-        <v>95</v>
+        <v>74</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.05</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.1</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" t="s">
-        <v>130</v>
+        <v>74</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.15</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" t="s">
-        <v>131</v>
+        <v>74</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.2</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="E57" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" t="s">
-        <v>132</v>
+        <v>74</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.25</v>
       </c>
       <c r="D58">
         <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>12</v>
-      </c>
-      <c r="B59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>12</v>
-      </c>
-      <c r="B60" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>12</v>
-      </c>
-      <c r="B61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>12</v>
-      </c>
-      <c r="B62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4738,9 +4703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4770,52 +4735,52 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="141" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="D1" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="141" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="F1" s="141" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="141" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" s="141" t="s">
+      <c r="H1" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="141" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="141" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="141" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1" s="141" t="s">
-        <v>226</v>
-      </c>
-      <c r="H1" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="141" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="141" t="s">
-        <v>227</v>
-      </c>
       <c r="K1" s="139" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L1" s="141" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M1" s="141" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N1" s="141" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O1" s="141" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P1" s="141" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="107"/>
     </row>
@@ -4824,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4835,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>22</v>
@@ -4848,7 +4813,7 @@
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -4892,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
@@ -4909,7 +4874,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4933,7 +4898,7 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -4978,7 +4943,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
@@ -4995,10 +4960,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="5" t="s">
@@ -5021,7 +4986,7 @@
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -5039,7 +5004,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5063,7 +5028,7 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M7" s="4">
         <v>50000</v>
@@ -5083,7 +5048,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5107,7 +5072,7 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -5130,7 +5095,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>2</v>
@@ -5167,7 +5132,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5191,7 +5156,7 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -5209,7 +5174,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5233,13 +5198,13 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M11" s="129">
         <v>42052</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O11" s="3">
         <f>DGET(DGET!A1:C36,"Rates",DGET!A39:C40)</f>
@@ -5256,7 +5221,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5280,11 +5245,11 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O12" s="3">
         <f>M21-5</f>
@@ -5329,7 +5294,7 @@
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O13" s="3">
         <f>M23-1</f>
@@ -5346,7 +5311,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5370,11 +5335,11 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O14" s="3">
         <f ca="1">DGET(DGET!A42:D132,"Rate plus",DGET!A135:D136)</f>
@@ -5396,7 +5361,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>2</v>
@@ -5419,7 +5384,7 @@
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O15" s="3">
         <f>DGET(DGET!A138:D243,"min_premium",DGET!A246:D247)</f>
@@ -5436,7 +5401,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5460,11 +5425,11 @@
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O16" s="3">
         <f>DGET(DGET!A249:B254,"Class 3",DGET!A257:B258)</f>
@@ -5486,7 +5451,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>2</v>
@@ -5509,7 +5474,7 @@
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O17" s="3">
         <f>O12*100</f>
@@ -5526,7 +5491,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5550,11 +5515,11 @@
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O18" s="3">
         <f>DGET(DGET!A260:D380,"CMP",DGET!A383:D384)</f>
@@ -5584,7 +5549,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -5597,10 +5562,10 @@
         <v>37</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O19" s="3">
         <f>IF(M34="yes",0.25,0)</f>
@@ -5617,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5641,11 +5606,11 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O20" s="3">
         <f>IF(M36="yes",0.25,0)</f>
@@ -5667,7 +5632,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>2</v>
@@ -5692,7 +5657,7 @@
         <v>7</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O21" s="3">
         <v>200</v>
@@ -5708,7 +5673,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5732,11 +5697,11 @@
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O22" s="3">
         <f>IF(M40="yes",1,0)</f>
@@ -5764,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>22</v>
@@ -5799,7 +5764,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5823,7 +5788,7 @@
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -5848,7 +5813,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>2</v>
@@ -5871,7 +5836,7 @@
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O25" s="3">
         <f>M50*1</f>
@@ -5887,7 +5852,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5911,11 +5876,11 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O26" s="3">
         <f>DGET(DGET!A386:C426,"NCD",DGET!A429:C430)</f>
@@ -5937,7 +5902,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>2</v>
@@ -5975,7 +5940,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5999,7 +5964,7 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
@@ -6023,7 +5988,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>2</v>
@@ -6061,7 +6026,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -6085,11 +6050,11 @@
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O30" s="3">
         <v>3</v>
@@ -6133,7 +6098,7 @@
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3">
@@ -6147,7 +6112,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -6171,11 +6136,11 @@
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -6191,7 +6156,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6215,7 +6180,7 @@
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="5"/>
@@ -6228,7 +6193,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="3"/>
@@ -6239,10 +6204,10 @@
         <v>7</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
@@ -6252,10 +6217,10 @@
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -6267,7 +6232,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -6291,7 +6256,7 @@
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -6304,7 +6269,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -6315,10 +6280,10 @@
         <v>7</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
@@ -6328,10 +6293,10 @@
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -6343,7 +6308,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -6367,7 +6332,7 @@
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -6380,12 +6345,12 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5"/>
       <c r="E38" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>2</v>
@@ -6404,7 +6369,7 @@
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -6417,7 +6382,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -6441,7 +6406,7 @@
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -6454,7 +6419,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>
@@ -6465,10 +6430,10 @@
         <v>7</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
@@ -6478,10 +6443,10 @@
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -6493,7 +6458,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6517,7 +6482,7 @@
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -6530,7 +6495,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -6554,7 +6519,7 @@
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="3"/>
@@ -6567,7 +6532,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6591,7 +6556,7 @@
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -6604,7 +6569,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5"/>
@@ -6615,10 +6580,10 @@
         <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -6628,10 +6593,10 @@
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -6643,7 +6608,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -6667,7 +6632,7 @@
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -6680,7 +6645,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5"/>
@@ -6691,10 +6656,10 @@
         <v>9</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -6704,10 +6669,10 @@
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -6719,7 +6684,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -6743,7 +6708,7 @@
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -6756,7 +6721,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5"/>
@@ -6767,10 +6732,10 @@
         <v>7</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -6780,7 +6745,7 @@
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -6793,7 +6758,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5"/>
@@ -6817,7 +6782,7 @@
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M49" s="8"/>
       <c r="N49" s="3"/>
@@ -6830,7 +6795,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5"/>
@@ -6841,7 +6806,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H50" s="4">
         <v>0</v>
@@ -6854,7 +6819,7 @@
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M50" s="4">
         <v>0.25</v>
@@ -6869,7 +6834,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -6893,7 +6858,7 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="3"/>
@@ -6906,12 +6871,12 @@
         <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5"/>
       <c r="E52" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>2</v>
@@ -6930,7 +6895,7 @@
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M52" s="4">
         <v>25</v>
@@ -6945,7 +6910,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6969,7 +6934,7 @@
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -6982,7 +6947,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5"/>
@@ -6993,10 +6958,10 @@
         <v>7</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -7006,10 +6971,10 @@
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -7021,12 +6986,12 @@
         <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>2</v>
@@ -7045,7 +7010,7 @@
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -7539,21 +7504,21 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$C$50:$C$57</xm:f>
-          </x14:formula1>
-          <xm:sqref>H46</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Lists!$C$33:$C$39</xm:f>
           </x14:formula1>
           <xm:sqref>H44 M44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$C$32:$C$45</xm:f>
+            <xm:f>Lists!$C$32:$C$44</xm:f>
           </x14:formula1>
           <xm:sqref>H50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lists!$H$70:$H$77</xm:f>
+          </x14:formula1>
+          <xm:sqref>H46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7582,18 +7547,18 @@
         <v>15</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" s="17">
         <v>750</v>
@@ -7601,10 +7566,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" s="17">
         <v>750</v>
@@ -7612,10 +7577,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="17">
         <v>850</v>
@@ -7623,10 +7588,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="17">
         <v>950</v>
@@ -7634,10 +7599,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="17">
         <v>1050</v>
@@ -7645,10 +7610,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="17">
         <v>1150</v>
@@ -7656,10 +7621,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="17">
         <v>1250</v>
@@ -7667,10 +7632,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C9" s="17">
         <v>750</v>
@@ -7678,10 +7643,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="17">
         <v>750</v>
@@ -7689,10 +7654,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="17">
         <v>850</v>
@@ -7700,10 +7665,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="17">
         <v>950</v>
@@ -7711,10 +7676,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="17">
         <v>1050</v>
@@ -7722,10 +7687,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="17">
         <v>1150</v>
@@ -7733,10 +7698,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="17">
         <v>1250</v>
@@ -7744,10 +7709,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C16" s="17">
         <v>750</v>
@@ -7755,10 +7720,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" s="17">
         <v>750</v>
@@ -7766,10 +7731,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="17">
         <v>850</v>
@@ -7777,10 +7742,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="17">
         <v>950</v>
@@ -7788,10 +7753,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="17">
         <v>1050</v>
@@ -7799,10 +7764,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="17">
         <v>1150</v>
@@ -7810,10 +7775,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="17">
         <v>1250</v>
@@ -7821,10 +7786,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C23" s="17">
         <v>500</v>
@@ -7832,10 +7797,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C24" s="17">
         <v>750</v>
@@ -7843,10 +7808,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="17">
         <v>850</v>
@@ -7854,10 +7819,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="17">
         <v>950</v>
@@ -7865,10 +7830,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="17">
         <v>1050</v>
@@ -7876,10 +7841,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="17">
         <v>1150</v>
@@ -7887,10 +7852,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="17">
         <v>1250</v>
@@ -7898,10 +7863,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C30" s="17">
         <v>750</v>
@@ -7909,10 +7874,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C31" s="17">
         <v>775</v>
@@ -7920,10 +7885,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="17">
         <v>850</v>
@@ -7931,10 +7896,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="17">
         <v>950</v>
@@ -7942,10 +7907,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="17">
         <v>1050</v>
@@ -7953,10 +7918,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="17">
         <v>1150</v>
@@ -7964,10 +7929,10 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="19">
         <v>1250</v>
@@ -7976,7 +7941,7 @@
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="157" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="158"/>
       <c r="C38" s="159"/>
@@ -7986,10 +7951,10 @@
         <v>15</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8012,21 +7977,21 @@
         <v>21</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D43" s="77">
         <v>0</v>
@@ -8034,13 +7999,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D44" s="77">
         <v>0</v>
@@ -8048,13 +8013,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="77">
         <v>0</v>
@@ -8062,13 +8027,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>111</v>
       </c>
       <c r="D46" s="77">
         <v>0</v>
@@ -8076,13 +8041,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D47" s="77">
         <v>0</v>
@@ -8090,13 +8055,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D48" s="80">
         <v>0</v>
@@ -8104,13 +8069,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D49" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8118,13 +8083,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D50" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8132,13 +8097,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8146,13 +8111,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D52" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8160,13 +8125,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D53" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8174,13 +8139,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D54" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8188,13 +8153,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D55" s="77">
         <v>0.05</v>
@@ -8202,13 +8167,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D56" s="77">
         <v>0.05</v>
@@ -8216,13 +8181,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="77">
         <v>0.05</v>
@@ -8230,13 +8195,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D58" s="77">
         <v>0.05</v>
@@ -8244,13 +8209,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D59" s="77">
         <v>0.05</v>
@@ -8258,13 +8223,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D60" s="77">
         <v>0.05</v>
@@ -8272,13 +8237,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D61" s="77">
         <v>0</v>
@@ -8286,13 +8251,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D62" s="77">
         <v>0</v>
@@ -8300,13 +8265,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D63" s="77">
         <v>0</v>
@@ -8314,13 +8279,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B64" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>111</v>
       </c>
       <c r="D64" s="77">
         <v>0</v>
@@ -8328,13 +8293,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D65" s="77">
         <v>0</v>
@@ -8342,13 +8307,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="79" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D66" s="80">
         <v>0</v>
@@ -8356,13 +8321,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D67" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8370,13 +8335,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D68" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8384,13 +8349,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8398,13 +8363,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D70" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8412,13 +8377,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D71" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8426,13 +8391,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="79" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D72" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8440,13 +8405,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D73" s="77">
         <v>0.06</v>
@@ -8454,13 +8419,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B74" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D74" s="77">
         <v>0.06</v>
@@ -8468,13 +8433,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" s="77">
         <v>0.06</v>
@@ -8482,13 +8447,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B76" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D76" s="77">
         <v>0.06</v>
@@ -8496,13 +8461,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B77" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D77" s="77">
         <v>0.06</v>
@@ -8510,13 +8475,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="79" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D78" s="77">
         <v>0.06</v>
@@ -8524,13 +8489,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D79" s="77">
         <v>0</v>
@@ -8538,13 +8503,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D80" s="77">
         <v>0</v>
@@ -8552,13 +8517,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" s="77">
         <v>0</v>
@@ -8566,13 +8531,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B82" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>111</v>
       </c>
       <c r="D82" s="77">
         <v>0</v>
@@ -8580,13 +8545,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D83" s="77">
         <v>0</v>
@@ -8594,13 +8559,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="82" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D84" s="77">
         <v>0</v>
@@ -8608,13 +8573,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D85" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8622,13 +8587,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D86" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8636,13 +8601,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8650,13 +8615,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D88" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8664,13 +8629,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D89" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8678,13 +8643,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="82" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D90" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8692,13 +8657,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B91" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D91" s="77">
         <v>0.06</v>
@@ -8706,13 +8671,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B92" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D92" s="77">
         <v>0.06</v>
@@ -8720,13 +8685,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B93" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D93" s="77">
         <v>0.06</v>
@@ -8734,13 +8699,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B94" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D94" s="77">
         <v>0.06</v>
@@ -8748,13 +8713,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B95" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D95" s="77">
         <v>0.06</v>
@@ -8762,13 +8727,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="82" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D96" s="83">
         <v>0.06</v>
@@ -8776,13 +8741,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D97" s="77">
         <v>0</v>
@@ -8790,13 +8755,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D98" s="77">
         <v>0</v>
@@ -8804,13 +8769,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D99" s="77">
         <v>0</v>
@@ -8818,13 +8783,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B100" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="28" t="s">
         <v>108</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>111</v>
       </c>
       <c r="D100" s="77">
         <v>0</v>
@@ -8832,13 +8797,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D101" s="77">
         <v>0</v>
@@ -8846,13 +8811,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D102" s="77">
         <v>0</v>
@@ -8860,13 +8825,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D103" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8874,13 +8839,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D104" s="83">
         <v>2.5000000000000001E-2</v>
@@ -8888,13 +8853,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D105" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8902,13 +8867,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D106" s="83">
         <v>2.5000000000000001E-2</v>
@@ -8916,13 +8881,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D107" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8930,13 +8895,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D108" s="77">
         <v>2.5000000000000001E-2</v>
@@ -8944,13 +8909,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B109" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D109" s="77">
         <v>0.05</v>
@@ -8958,13 +8923,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B110" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D110" s="77">
         <v>0.05</v>
@@ -8972,13 +8937,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D111" s="77">
         <v>0.05</v>
@@ -8986,13 +8951,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B112" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D112" s="77">
         <v>0.05</v>
@@ -9000,13 +8965,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B113" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D113" s="77">
         <v>0.05</v>
@@ -9014,13 +8979,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D114" s="77">
         <v>0.05</v>
@@ -9028,13 +8993,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D115" s="77">
         <v>0</v>
@@ -9042,13 +9007,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D116" s="77">
         <v>0</v>
@@ -9056,13 +9021,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D117" s="77">
         <v>0</v>
@@ -9070,13 +9035,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B118" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" s="28" t="s">
         <v>108</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>111</v>
       </c>
       <c r="D118" s="77">
         <v>0</v>
@@ -9084,13 +9049,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D119" s="77">
         <v>0</v>
@@ -9098,13 +9063,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D120" s="77">
         <v>0</v>
@@ -9112,13 +9077,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D121" s="77">
         <v>2.5000000000000001E-2</v>
@@ -9126,13 +9091,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D122" s="77">
         <v>2.5000000000000001E-2</v>
@@ -9140,13 +9105,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D123" s="77">
         <v>2.5000000000000001E-2</v>
@@ -9154,13 +9119,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D124" s="77">
         <v>2.5000000000000001E-2</v>
@@ -9168,13 +9133,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D125" s="77">
         <v>2.5000000000000001E-2</v>
@@ -9182,13 +9147,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D126" s="77">
         <v>2.5000000000000001E-2</v>
@@ -9196,13 +9161,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B127" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D127" s="77">
         <v>0.05</v>
@@ -9210,13 +9175,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B128" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D128" s="77">
         <v>0.05</v>
@@ -9224,13 +9189,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B129" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D129" s="77">
         <v>0.05</v>
@@ -9238,13 +9203,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B130" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D130" s="77">
         <v>0.05</v>
@@ -9252,13 +9217,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B131" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D131" s="77">
         <v>0.05</v>
@@ -9266,13 +9231,13 @@
     </row>
     <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="84" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B132" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C132" s="85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D132" s="86">
         <v>0.05</v>
@@ -9281,7 +9246,7 @@
     <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="154" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B134" s="155"/>
       <c r="C134" s="155"/>
@@ -9295,10 +9260,10 @@
         <v>21</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D135" s="71" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9316,7 +9281,7 @@
       </c>
       <c r="D136" s="74"/>
       <c r="E136" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -9325,24 +9290,24 @@
         <v>15</v>
       </c>
       <c r="B138" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C138" s="50" t="s">
         <v>21</v>
       </c>
       <c r="D138" s="51" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D139" s="52">
         <v>0</v>
@@ -9350,13 +9315,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D140" s="52">
         <v>0</v>
@@ -9364,13 +9329,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D141" s="52">
         <v>0</v>
@@ -9378,13 +9343,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D142" s="52">
         <v>0</v>
@@ -9392,13 +9357,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D143" s="52">
         <v>0</v>
@@ -9406,13 +9371,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D144" s="52">
         <v>0</v>
@@ -9420,13 +9385,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D145" s="52">
         <v>0</v>
@@ -9434,13 +9399,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D146" s="52">
         <v>0</v>
@@ -9448,13 +9413,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D147" s="52">
         <v>0</v>
@@ -9462,13 +9427,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D148" s="52">
         <v>0</v>
@@ -9476,13 +9441,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D149" s="52">
         <v>0</v>
@@ -9490,13 +9455,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D150" s="52">
         <v>0</v>
@@ -9504,13 +9469,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D151" s="52">
         <v>0</v>
@@ -9518,13 +9483,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D152" s="52">
         <v>0</v>
@@ -9532,13 +9497,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C153" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D153" s="52">
         <v>0</v>
@@ -9546,13 +9511,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D154" s="52">
         <v>0</v>
@@ -9560,13 +9525,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D155" s="52">
         <v>0</v>
@@ -9574,13 +9539,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D156" s="52">
         <v>0</v>
@@ -9588,13 +9553,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D157" s="52">
         <v>0</v>
@@ -9602,13 +9567,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D158" s="52">
         <v>0</v>
@@ -9616,13 +9581,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D159" s="52">
         <v>0</v>
@@ -9630,13 +9595,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D160" s="52">
         <v>0</v>
@@ -9644,13 +9609,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D161" s="52">
         <v>0</v>
@@ -9658,13 +9623,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D162" s="52">
         <v>0</v>
@@ -9672,13 +9637,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D163" s="52">
         <v>0</v>
@@ -9686,13 +9651,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D164" s="52">
         <v>0</v>
@@ -9700,13 +9665,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D165" s="52">
         <v>0</v>
@@ -9714,13 +9679,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D166" s="52">
         <v>0</v>
@@ -9728,13 +9693,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D167" s="52">
         <v>0</v>
@@ -9742,13 +9707,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D168" s="52">
         <v>0</v>
@@ -9756,13 +9721,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D169" s="52">
         <v>0</v>
@@ -9770,13 +9735,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D170" s="52">
         <v>0</v>
@@ -9784,13 +9749,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D171" s="52">
         <v>0</v>
@@ -9798,13 +9763,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D172" s="52">
         <v>0</v>
@@ -9812,13 +9777,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D173" s="52">
         <v>0</v>
@@ -9826,13 +9791,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C174" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D174" s="52">
         <v>0</v>
@@ -9840,13 +9805,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D175" s="52">
         <v>0</v>
@@ -9854,13 +9819,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D176" s="52">
         <v>0</v>
@@ -9868,13 +9833,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C177" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D177" s="52">
         <v>0</v>
@@ -9882,13 +9847,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C178" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D178" s="52">
         <v>0</v>
@@ -9896,13 +9861,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D179" s="52">
         <v>0</v>
@@ -9910,13 +9875,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D180" s="52">
         <v>0</v>
@@ -9924,13 +9889,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C181" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D181" s="52">
         <v>0</v>
@@ -9938,13 +9903,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C182" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D182" s="52">
         <v>0</v>
@@ -9952,13 +9917,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C183" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D183" s="52">
         <v>0</v>
@@ -9966,13 +9931,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D184" s="52">
         <v>0</v>
@@ -9980,13 +9945,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C185" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D185" s="52">
         <v>0</v>
@@ -9994,13 +9959,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C186" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D186" s="52">
         <v>0</v>
@@ -10008,13 +9973,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C187" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D187" s="52">
         <v>0</v>
@@ -10022,13 +9987,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C188" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D188" s="52">
         <v>0</v>
@@ -10036,13 +10001,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C189" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D189" s="52">
         <v>0</v>
@@ -10050,13 +10015,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C190" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D190" s="52">
         <v>0</v>
@@ -10064,13 +10029,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C191" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D191" s="52">
         <v>0</v>
@@ -10078,13 +10043,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D192" s="52">
         <v>0</v>
@@ -10092,13 +10057,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C193" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D193" s="52">
         <v>0</v>
@@ -10106,13 +10071,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C194" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D194" s="52">
         <v>0</v>
@@ -10120,13 +10085,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C195" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D195" s="52">
         <v>0</v>
@@ -10134,13 +10099,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D196" s="52">
         <v>0</v>
@@ -10148,13 +10113,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C197" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D197" s="52">
         <v>0</v>
@@ -10162,13 +10127,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C198" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D198" s="52">
         <v>0</v>
@@ -10176,13 +10141,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C199" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D199" s="52">
         <v>0</v>
@@ -10190,13 +10155,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D200" s="52">
         <v>0</v>
@@ -10204,13 +10169,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C201" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D201" s="52">
         <v>0</v>
@@ -10218,13 +10183,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C202" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D202" s="52">
         <v>0</v>
@@ -10232,13 +10197,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C203" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D203" s="52">
         <v>0</v>
@@ -10246,13 +10211,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D204" s="52">
         <v>0</v>
@@ -10260,13 +10225,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C205" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D205" s="52">
         <v>0</v>
@@ -10274,13 +10239,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C206" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D206" s="52">
         <v>0</v>
@@ -10288,13 +10253,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C207" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D207" s="52">
         <v>0</v>
@@ -10302,13 +10267,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D208" s="52">
         <v>0</v>
@@ -10316,10 +10281,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>25</v>
@@ -10330,10 +10295,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C210" s="43" t="s">
         <v>25</v>
@@ -10344,10 +10309,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>25</v>
@@ -10358,10 +10323,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>25</v>
@@ -10372,10 +10337,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>25</v>
@@ -10386,10 +10351,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>25</v>
@@ -10400,10 +10365,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>25</v>
@@ -10414,10 +10379,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>25</v>
@@ -10428,10 +10393,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>25</v>
@@ -10442,10 +10407,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>25</v>
@@ -10456,10 +10421,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>25</v>
@@ -10470,10 +10435,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>25</v>
@@ -10484,10 +10449,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>25</v>
@@ -10498,10 +10463,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>25</v>
@@ -10512,10 +10477,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>25</v>
@@ -10526,10 +10491,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>25</v>
@@ -10540,10 +10505,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>25</v>
@@ -10554,10 +10519,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>25</v>
@@ -10568,10 +10533,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>25</v>
@@ -10582,10 +10547,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>25</v>
@@ -10596,10 +10561,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>25</v>
@@ -10610,10 +10575,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>25</v>
@@ -10624,10 +10589,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>25</v>
@@ -10638,10 +10603,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>25</v>
@@ -10652,10 +10617,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>25</v>
@@ -10666,10 +10631,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>25</v>
@@ -10680,10 +10645,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>25</v>
@@ -10694,10 +10659,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>25</v>
@@ -10708,10 +10673,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>25</v>
@@ -10722,10 +10687,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>25</v>
@@ -10736,10 +10701,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
@@ -10750,10 +10715,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>25</v>
@@ -10764,10 +10729,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>25</v>
@@ -10778,10 +10743,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>25</v>
@@ -10792,10 +10757,10 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B243" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C243" s="55" t="s">
         <v>25</v>
@@ -10807,7 +10772,7 @@
     <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="154" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B245" s="155"/>
       <c r="C245" s="155"/>
@@ -10818,13 +10783,13 @@
         <v>15</v>
       </c>
       <c r="B246" s="58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C246" s="57" t="s">
         <v>21</v>
       </c>
       <c r="D246" s="60" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10848,12 +10813,12 @@
         <v>15</v>
       </c>
       <c r="B249" s="61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B250" s="63">
         <v>0.1</v>
@@ -10861,7 +10826,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B251" s="63">
         <v>0.2</v>
@@ -10869,7 +10834,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B252" s="63">
         <v>0.2</v>
@@ -10877,7 +10842,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B253" s="63">
         <v>0.1</v>
@@ -10885,7 +10850,7 @@
     </row>
     <row r="254" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="64" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B254" s="65">
         <v>0.1</v>
@@ -10894,7 +10859,7 @@
     <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="154" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B256" s="156"/>
     </row>
@@ -10903,7 +10868,7 @@
         <v>15</v>
       </c>
       <c r="B257" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10919,24 +10884,24 @@
         <v>15</v>
       </c>
       <c r="B260" s="50" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C260" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D260" s="66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B261" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C261" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D261" s="90">
         <v>0</v>
@@ -10944,13 +10909,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B262" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C262" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D262" s="90">
         <v>0</v>
@@ -10958,10 +10923,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B263" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C263" s="42" t="s">
         <v>25</v>
@@ -10972,13 +10937,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B264" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C264" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D264" s="90">
         <v>0</v>
@@ -10986,13 +10951,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B265" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C265" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D265" s="90">
         <v>0</v>
@@ -11000,10 +10965,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C266" s="42" t="s">
         <v>25</v>
@@ -11014,13 +10979,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B267" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C267" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D267" s="90">
         <v>0</v>
@@ -11028,13 +10993,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B268" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C268" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D268" s="90">
         <v>0</v>
@@ -11042,10 +11007,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C269" s="42" t="s">
         <v>25</v>
@@ -11056,13 +11021,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B270" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C270" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D270" s="90">
         <v>0</v>
@@ -11070,13 +11035,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B271" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C271" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D271" s="90">
         <v>0</v>
@@ -11084,10 +11049,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B272" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C272" s="42" t="s">
         <v>25</v>
@@ -11098,13 +11063,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B273" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C273" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D273" s="90">
         <v>0</v>
@@ -11112,13 +11077,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B274" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C274" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D274" s="90">
         <v>0</v>
@@ -11126,10 +11091,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B275" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C275" s="42" t="s">
         <v>25</v>
@@ -11140,13 +11105,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B276" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C276" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D276" s="90">
         <v>0</v>
@@ -11154,13 +11119,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B277" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C277" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D277" s="90">
         <v>0</v>
@@ -11168,10 +11133,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B278" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C278" s="42" t="s">
         <v>25</v>
@@ -11182,13 +11147,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B279" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C279" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D279" s="90">
         <v>0</v>
@@ -11196,13 +11161,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B280" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C280" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D280" s="90">
         <v>0</v>
@@ -11210,10 +11175,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B281" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C281" s="42" t="s">
         <v>25</v>
@@ -11224,13 +11189,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B282" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C282" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D282" s="90">
         <v>0</v>
@@ -11238,13 +11203,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B283" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C283" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D283" s="90">
         <v>0</v>
@@ -11252,10 +11217,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B284" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C284" s="42" t="s">
         <v>25</v>
@@ -11266,13 +11231,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B285" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C285" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D285" s="90">
         <v>0</v>
@@ -11280,13 +11245,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B286" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C286" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D286" s="90">
         <v>0</v>
@@ -11294,10 +11259,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B287" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C287" s="42" t="s">
         <v>25</v>
@@ -11308,13 +11273,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B288" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C288" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D288" s="90">
         <v>0</v>
@@ -11322,13 +11287,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B289" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C289" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D289" s="90">
         <v>0</v>
@@ -11336,10 +11301,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B290" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C290" s="42" t="s">
         <v>25</v>
@@ -11350,13 +11315,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B291" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C291" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D291" s="90">
         <v>0</v>
@@ -11364,13 +11329,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B292" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C292" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D292" s="90">
         <v>0</v>
@@ -11378,10 +11343,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B293" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C293" s="42" t="s">
         <v>25</v>
@@ -11392,13 +11357,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B294" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C294" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D294" s="90">
         <v>0</v>
@@ -11406,13 +11371,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B295" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C295" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D295" s="90">
         <v>0</v>
@@ -11420,10 +11385,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B296" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C296" s="42" t="s">
         <v>25</v>
@@ -11434,13 +11399,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B297" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C297" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D297" s="90">
         <v>0</v>
@@ -11448,13 +11413,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B298" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C298" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D298" s="90">
         <v>0</v>
@@ -11462,10 +11427,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B299" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C299" s="42" t="s">
         <v>25</v>
@@ -11476,13 +11441,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B300" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C300" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D300" s="90">
         <v>0</v>
@@ -11490,13 +11455,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B301" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C301" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D301" s="90">
         <v>0</v>
@@ -11504,10 +11469,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B302" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C302" s="42" t="s">
         <v>25</v>
@@ -11518,13 +11483,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B303" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C303" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D303" s="90">
         <v>0</v>
@@ -11532,13 +11497,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B304" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C304" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D304" s="90">
         <v>0</v>
@@ -11546,10 +11511,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B305" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C305" s="42" t="s">
         <v>25</v>
@@ -11560,13 +11525,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B306" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C306" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D306" s="90">
         <v>0</v>
@@ -11574,13 +11539,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B307" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C307" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D307" s="90">
         <v>0</v>
@@ -11588,10 +11553,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B308" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C308" s="42" t="s">
         <v>25</v>
@@ -11602,13 +11567,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B309" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C309" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D309" s="90">
         <v>0</v>
@@ -11616,13 +11581,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B310" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C310" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D310" s="90">
         <v>0</v>
@@ -11630,10 +11595,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C311" s="42" t="s">
         <v>25</v>
@@ -11644,13 +11609,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B312" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C312" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D312" s="90">
         <v>0</v>
@@ -11658,13 +11623,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C313" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D313" s="90">
         <v>0</v>
@@ -11672,10 +11637,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B314" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C314" s="42" t="s">
         <v>25</v>
@@ -11686,13 +11651,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B315" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C315" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D315" s="90">
         <v>0</v>
@@ -11700,13 +11665,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B316" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C316" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D316" s="90">
         <v>0</v>
@@ -11714,10 +11679,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C317" s="42" t="s">
         <v>25</v>
@@ -11728,13 +11693,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C318" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D318" s="90">
         <v>0</v>
@@ -11742,13 +11707,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C319" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D319" s="90">
         <v>0</v>
@@ -11756,10 +11721,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C320" s="42" t="s">
         <v>25</v>
@@ -11770,13 +11735,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C321" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D321" s="90">
         <v>0</v>
@@ -11784,13 +11749,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C322" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D322" s="90">
         <v>0</v>
@@ -11798,10 +11763,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B323" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C323" s="42" t="s">
         <v>25</v>
@@ -11812,13 +11777,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B324" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C324" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D324" s="90">
         <v>0</v>
@@ -11826,13 +11791,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C325" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D325" s="90">
         <v>0</v>
@@ -11840,10 +11805,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B326" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C326" s="42" t="s">
         <v>25</v>
@@ -11854,13 +11819,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B327" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C327" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D327" s="90">
         <v>0</v>
@@ -11868,13 +11833,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B328" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C328" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D328" s="90">
         <v>0</v>
@@ -11882,10 +11847,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B329" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C329" s="42" t="s">
         <v>25</v>
@@ -11896,13 +11861,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B330" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C330" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D330" s="90">
         <v>0</v>
@@ -11910,13 +11875,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B331" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C331" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D331" s="90">
         <v>0</v>
@@ -11924,10 +11889,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B332" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C332" s="42" t="s">
         <v>25</v>
@@ -11938,13 +11903,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B333" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C333" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D333" s="90">
         <v>0</v>
@@ -11952,13 +11917,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B334" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C334" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D334" s="90">
         <v>0</v>
@@ -11966,10 +11931,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B335" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C335" s="42" t="s">
         <v>25</v>
@@ -11980,13 +11945,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B336" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C336" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D336" s="90">
         <v>0</v>
@@ -11994,13 +11959,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B337" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C337" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D337" s="90">
         <v>0</v>
@@ -12008,10 +11973,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B338" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C338" s="42" t="s">
         <v>25</v>
@@ -12022,13 +11987,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B339" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C339" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D339" s="90">
         <v>0</v>
@@ -12036,13 +12001,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B340" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C340" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D340" s="90">
         <v>0</v>
@@ -12050,10 +12015,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B341" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C341" s="42" t="s">
         <v>25</v>
@@ -12064,13 +12029,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B342" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C342" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D342" s="90">
         <v>0</v>
@@ -12078,13 +12043,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B343" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C343" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D343" s="90">
         <v>0</v>
@@ -12092,10 +12057,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B344" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C344" s="42" t="s">
         <v>25</v>
@@ -12106,13 +12071,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B345" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C345" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D345" s="90">
         <v>0</v>
@@ -12120,13 +12085,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B346" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C346" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D346" s="90">
         <v>0</v>
@@ -12134,10 +12099,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B347" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C347" s="42" t="s">
         <v>25</v>
@@ -12148,13 +12113,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B348" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C348" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D348" s="90">
         <v>0</v>
@@ -12162,13 +12127,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B349" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C349" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D349" s="90">
         <v>0</v>
@@ -12176,10 +12141,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B350" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C350" s="42" t="s">
         <v>25</v>
@@ -12190,13 +12155,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B351" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C351" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D351" s="90">
         <v>0</v>
@@ -12204,13 +12169,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B352" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C352" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D352" s="90">
         <v>0</v>
@@ -12218,10 +12183,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B353" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C353" s="42" t="s">
         <v>25</v>
@@ -12232,13 +12197,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B354" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C354" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D354" s="90">
         <v>0</v>
@@ -12246,13 +12211,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B355" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C355" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D355" s="90">
         <v>0</v>
@@ -12260,10 +12225,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B356" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C356" s="42" t="s">
         <v>25</v>
@@ -12274,13 +12239,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B357" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C357" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D357" s="90">
         <v>0</v>
@@ -12288,13 +12253,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B358" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C358" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D358" s="90">
         <v>0</v>
@@ -12302,10 +12267,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B359" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C359" s="42" t="s">
         <v>25</v>
@@ -12316,13 +12281,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B360" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C360" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D360" s="90">
         <v>0</v>
@@ -12330,13 +12295,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B361" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C361" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D361" s="90">
         <v>0</v>
@@ -12344,10 +12309,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B362" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C362" s="42" t="s">
         <v>25</v>
@@ -12358,13 +12323,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B363" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C363" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D363" s="90">
         <v>0</v>
@@ -12372,13 +12337,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B364" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C364" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D364" s="90">
         <v>0</v>
@@ -12386,10 +12351,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B365" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C365" s="42" t="s">
         <v>25</v>
@@ -12400,13 +12365,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B366" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C366" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D366" s="90">
         <v>0</v>
@@ -12414,13 +12379,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B367" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C367" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D367" s="90">
         <v>0</v>
@@ -12428,10 +12393,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B368" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C368" s="42" t="s">
         <v>25</v>
@@ -12442,13 +12407,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B369" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C369" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D369" s="90">
         <v>0</v>
@@ -12456,13 +12421,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B370" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C370" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D370" s="90">
         <v>0</v>
@@ -12470,10 +12435,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B371" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C371" s="42" t="s">
         <v>25</v>
@@ -12484,13 +12449,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B372" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C372" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D372" s="90">
         <v>0</v>
@@ -12498,13 +12463,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B373" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C373" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D373" s="90">
         <v>0</v>
@@ -12512,10 +12477,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B374" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C374" s="42" t="s">
         <v>25</v>
@@ -12526,13 +12491,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B375" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C375" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D375" s="90">
         <v>0</v>
@@ -12540,13 +12505,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B376" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C376" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D376" s="90">
         <v>0</v>
@@ -12554,10 +12519,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B377" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C377" s="42" t="s">
         <v>25</v>
@@ -12568,13 +12533,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B378" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C378" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D378" s="90">
         <v>0</v>
@@ -12582,13 +12547,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B379" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C379" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D379" s="90">
         <v>0</v>
@@ -12596,10 +12561,10 @@
     </row>
     <row r="380" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B380" s="91" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C380" s="91" t="s">
         <v>25</v>
@@ -12611,7 +12576,7 @@
     <row r="381" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="154" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B382" s="155"/>
       <c r="C382" s="155"/>
@@ -12622,21 +12587,21 @@
         <v>15</v>
       </c>
       <c r="B383" s="57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C383" s="57" t="s">
         <v>21</v>
       </c>
       <c r="D383" s="67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="93" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B384" s="94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C384" s="95" t="s">
         <v>25</v>
@@ -12649,18 +12614,18 @@
         <v>15</v>
       </c>
       <c r="B386" s="106" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C386" s="51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C387" s="101">
         <v>0.25</v>
@@ -12668,10 +12633,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C388" s="101">
         <v>0.3</v>
@@ -12679,10 +12644,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C389" s="101">
         <v>0.35</v>
@@ -12690,10 +12655,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C390" s="101">
         <v>0.4</v>
@@ -12701,10 +12666,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C391" s="101">
         <v>0.45</v>
@@ -12712,10 +12677,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C392" s="101">
         <v>0.5</v>
@@ -12723,10 +12688,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C393" s="101">
         <v>0.55000000000000004</v>
@@ -12734,10 +12699,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C394" s="102">
         <v>0</v>
@@ -12745,10 +12710,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="100" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C395" s="101">
         <v>0.25</v>
@@ -12756,10 +12721,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="100" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C396" s="101">
         <v>0.3</v>
@@ -12767,10 +12732,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="100" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C397" s="101">
         <v>0.45</v>
@@ -12778,10 +12743,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="100" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C398" s="101">
         <v>0.4</v>
@@ -12789,10 +12754,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="100" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C399" s="101">
         <v>0.45</v>
@@ -12800,10 +12765,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="100" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C400" s="101">
         <v>0.5</v>
@@ -12811,10 +12776,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="100" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C401" s="101">
         <v>0.55000000000000004</v>
@@ -12822,10 +12787,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="100" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C402" s="102">
         <v>0</v>
@@ -12833,10 +12798,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="100" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C403" s="101">
         <v>0.25</v>
@@ -12844,10 +12809,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="100" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C404" s="101">
         <v>0.3</v>
@@ -12855,10 +12820,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="100" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C405" s="101">
         <v>0.35</v>
@@ -12866,10 +12831,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="100" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C406" s="101">
         <v>0.4</v>
@@ -12877,10 +12842,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="100" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C407" s="101">
         <v>0.45</v>
@@ -12888,10 +12853,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="100" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C408" s="101">
         <v>0.5</v>
@@ -12899,10 +12864,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="100" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C409" s="101">
         <v>0.55000000000000004</v>
@@ -12910,10 +12875,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="100" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C410" s="102">
         <v>0</v>
@@ -12921,10 +12886,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C411" s="101">
         <v>0.25</v>
@@ -12932,10 +12897,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C412" s="101">
         <v>0.3</v>
@@ -12943,10 +12908,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C413" s="101">
         <v>0.35</v>
@@ -12954,10 +12919,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C414" s="101">
         <v>0.4</v>
@@ -12965,10 +12930,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C415" s="101">
         <v>0.45</v>
@@ -12976,10 +12941,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C416" s="101">
         <v>0.5</v>
@@ -12987,10 +12952,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C417" s="101">
         <v>0.55000000000000004</v>
@@ -12998,10 +12963,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C418" s="102">
         <v>0</v>
@@ -13009,10 +12974,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C419" s="101">
         <v>0.25</v>
@@ -13020,10 +12985,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C420" s="101">
         <v>0.3</v>
@@ -13031,10 +12996,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C421" s="101">
         <v>0.35</v>
@@ -13042,10 +13007,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C422" s="101">
         <v>0.4</v>
@@ -13053,10 +13018,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C423" s="101">
         <v>0.45</v>
@@ -13064,10 +13029,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C424" s="101">
         <v>0.5</v>
@@ -13075,10 +13040,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C425" s="101">
         <v>0.55000000000000004</v>
@@ -13086,10 +13051,10 @@
     </row>
     <row r="426" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="103" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B426" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C426" s="104">
         <v>0</v>
@@ -13098,7 +13063,7 @@
     <row r="427" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="154" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B428" s="155"/>
       <c r="C428" s="156"/>
@@ -13108,10 +13073,10 @@
         <v>15</v>
       </c>
       <c r="B429" s="97" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C429" s="99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13158,29 +13123,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="160" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="160"/>
       <c r="C1" s="160"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="38">
         <f ca="1">TODAY()</f>
-        <v>42865</v>
+        <v>42866</v>
       </c>
       <c r="C3" s="3">
         <f>IF(B$9&lt;B2,1,0)</f>
@@ -13189,11 +13154,11 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="38">
         <f ca="1">B3-1</f>
-        <v>42864</v>
+        <v>42865</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">IF(B$9&lt;B3,1,0)</f>
@@ -13202,11 +13167,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="38">
         <f ca="1">EDATE(B3,-12)</f>
-        <v>42500</v>
+        <v>42501</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(B$9&lt;B5,1,0)</f>
@@ -13215,11 +13180,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="38">
         <f ca="1">EDATE(B3,-24)</f>
-        <v>42134</v>
+        <v>42135</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(B$9&lt;B6,1,0)</f>
@@ -13228,11 +13193,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="38">
         <f ca="1">EDATE(B3,-36)</f>
-        <v>41769</v>
+        <v>41770</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">IF(B$9&lt;B7,1,0)</f>
@@ -13245,7 +13210,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B9" s="37">
         <f>ConfigurationSetup!M11</f>
@@ -13254,7 +13219,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" s="36" t="str">
         <f ca="1">DGET(F17:G22,"VehicleAge",A13:B14)</f>
@@ -13263,16 +13228,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="162" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="162"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
         <v>122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -13283,7 +13248,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="161" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B16" s="161"/>
       <c r="C16" s="161"/>
@@ -13294,25 +13259,25 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="E17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -13336,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13360,7 +13325,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13384,7 +13349,7 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13408,7 +13373,7 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13432,7 +13397,7 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -13494,25 +13459,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="160" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="160"/>
       <c r="C1" s="160"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B3" s="135">
         <v>800</v>
@@ -13524,7 +13489,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B4" s="135">
         <v>1000</v>
@@ -13536,7 +13501,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="135">
         <v>1300</v>
@@ -13548,7 +13513,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="135">
         <v>1650</v>
@@ -13560,7 +13525,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="135">
         <v>2200</v>
@@ -13572,7 +13537,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="135">
         <v>3000</v>
@@ -13584,7 +13549,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="135">
         <v>99999999999999</v>
@@ -13601,7 +13566,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="134">
         <v>200</v>
@@ -13610,7 +13575,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B12" s="36" t="str">
         <f>DGET(H19:I26,"CC",A15:B16)</f>
@@ -13619,16 +13584,16 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="162" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="162"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -13639,7 +13604,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -13650,31 +13615,31 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>50</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -13704,7 +13669,7 @@
         <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -13734,7 +13699,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -13764,7 +13729,7 @@
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -13794,7 +13759,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -13824,7 +13789,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -13854,7 +13819,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -13884,7 +13849,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -699,9 +699,6 @@
     <t>Special percent</t>
   </si>
   <si>
-    <t xml:space="preserve">NCD </t>
-  </si>
-  <si>
     <t>ne</t>
   </si>
   <si>
@@ -802,6 +799,9 @@
   </si>
   <si>
     <t>Calc_levy</t>
+  </si>
+  <si>
+    <t>NCD Years</t>
   </si>
 </sst>
 </file>
@@ -1659,37 +1659,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="109">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="106">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2755,8 +2725,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="108"/>
-      <tableStyleElement type="headerRow" dxfId="107"/>
+      <tableStyleElement type="wholeTable" dxfId="105"/>
+      <tableStyleElement type="headerRow" dxfId="104"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2790,7 +2760,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,7 +3095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3736,7 +3706,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3782,7 +3752,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -4049,7 +4019,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -4060,16 +4030,16 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -4777,12 +4747,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B28:B34">
-    <cfRule type="expression" dxfId="106" priority="2">
+    <cfRule type="expression" dxfId="103" priority="2">
       <formula>EXACT(TEXT(B28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="expression" dxfId="105" priority="1">
+    <cfRule type="expression" dxfId="102" priority="1">
       <formula>EXACT(TEXT(B25,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4794,9 +4764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4965,7 +4935,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4989,7 +4959,7 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5051,10 +5021,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="5" t="s">
@@ -5077,7 +5047,7 @@
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -5139,7 +5109,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5163,7 +5133,7 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -5223,7 +5193,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5247,7 +5217,7 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -5312,7 +5282,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5336,7 +5306,7 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -5402,7 +5372,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5426,7 +5396,7 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -5492,7 +5462,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5516,7 +5486,7 @@
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
@@ -5582,7 +5552,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5606,7 +5576,7 @@
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -5673,7 +5643,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5697,7 +5667,7 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
@@ -5764,7 +5734,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5788,7 +5758,7 @@
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
@@ -5855,7 +5825,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5879,7 +5849,7 @@
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -5927,7 +5897,7 @@
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O25" s="3">
         <f>M50*1</f>
@@ -5943,7 +5913,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5967,7 +5937,7 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
@@ -6032,7 +6002,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -6056,7 +6026,7 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
@@ -6120,7 +6090,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -6144,11 +6114,11 @@
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O30" s="3">
         <f>M50*1</f>
@@ -6193,7 +6163,7 @@
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O31" s="3">
         <f>M50*1</f>
@@ -6247,7 +6217,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6271,7 +6241,7 @@
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="5"/>
@@ -6284,7 +6254,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="3"/>
@@ -6308,7 +6278,7 @@
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>67</v>
@@ -6323,7 +6293,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -6347,7 +6317,7 @@
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -6399,7 +6369,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -6423,7 +6393,7 @@
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -6473,7 +6443,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -6497,7 +6467,7 @@
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -6549,7 +6519,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6573,7 +6543,7 @@
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -6623,7 +6593,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6647,7 +6617,7 @@
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -6660,7 +6630,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5"/>
@@ -6684,7 +6654,7 @@
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="5" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>135</v>
@@ -6699,7 +6669,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -6723,7 +6693,7 @@
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -6775,7 +6745,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -6799,7 +6769,7 @@
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -6849,7 +6819,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5"/>
@@ -6873,7 +6843,7 @@
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M49" s="8"/>
       <c r="N49" s="3"/>
@@ -6925,7 +6895,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -6949,7 +6919,7 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="3"/>
@@ -7001,7 +6971,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -7025,7 +6995,7 @@
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -7077,12 +7047,12 @@
         <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>2</v>
@@ -7101,7 +7071,7 @@
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -7114,462 +7084,462 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V2:XFD7 S15:XFD15 S11:XFD11 AC1:XFD1 K1:Q1 N12:N24 Q11 Q15 P8:XFD10 Q12:XFD14 P12 P14 Q16:XFD25 O15:O24 P23:P24 P16:P17 P20:P21 O2:O12 P2:P7 A59:J1048576 L59:XFD1048576 L2 L3:M3 L5:M5 B6 E6:J6 B7:J7 L7:M7 B9:J9 L9:M9 B11:J11 L11:M11 B13:J13 L13:M13 B15:J15 L15:M15 E16 B17:J17 N26:XFD26 L17:M17 L19 B21:J21 L21:M21 B23:J23 L23:M23 B25:J25 L25:M25 B24 L24 B27:J27 L27:M27 B26 L26 B29:J29 L29:M29 L31:M31 B31:J32 L32 B34:J34 L34:M34 N33:XFD58 B36:J36 L36:M36 B38:J38 L38:M38 B40:J40 L40:M40 A3:A58 B42:J42 L42:M42 B44:J44 L44:M44 B46:J46 L46:M46 B48:J48 B49:D49 B50:J50 L48:M52 B52:J52 B51:D51 B54:J55 L54:M55 B3:J3 B5:J5 A1:J2 B19:J19 Q27:XFD32">
-    <cfRule type="expression" dxfId="104" priority="102">
+    <cfRule type="expression" dxfId="101" priority="102">
       <formula>EXACT(TEXT(A1,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="103" priority="100">
+    <cfRule type="expression" dxfId="100" priority="100">
       <formula>EXACT(TEXT(M19,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="102" priority="98">
+    <cfRule type="expression" dxfId="99" priority="98">
       <formula>EXACT(TEXT(M2,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="expression" dxfId="101" priority="97">
+    <cfRule type="expression" dxfId="98" priority="97">
       <formula>EXACT(TEXT(M32,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="expression" dxfId="100" priority="94">
+    <cfRule type="expression" dxfId="97" priority="94">
       <formula>EXACT(TEXT(P18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="expression" dxfId="99" priority="93">
+    <cfRule type="expression" dxfId="96" priority="93">
       <formula>EXACT(TEXT(P25,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:O25">
-    <cfRule type="expression" dxfId="98" priority="92">
+    <cfRule type="expression" dxfId="95" priority="92">
       <formula>EXACT(TEXT(N25,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="97" priority="90">
+    <cfRule type="expression" dxfId="94" priority="90">
       <formula>EXACT(TEXT(L6,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:J8">
-    <cfRule type="expression" dxfId="96" priority="89">
+    <cfRule type="expression" dxfId="93" priority="89">
       <formula>EXACT(TEXT(E8,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="95" priority="88">
+    <cfRule type="expression" dxfId="92" priority="88">
       <formula>EXACT(TEXT(B8,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="94" priority="87">
+    <cfRule type="expression" dxfId="91" priority="87">
       <formula>EXACT(TEXT(L8,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="93" priority="86">
+    <cfRule type="expression" dxfId="90" priority="86">
       <formula>EXACT(TEXT(B10,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:J10">
-    <cfRule type="expression" dxfId="92" priority="85">
+    <cfRule type="expression" dxfId="89" priority="85">
       <formula>EXACT(TEXT(E10,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="91" priority="84">
+    <cfRule type="expression" dxfId="88" priority="84">
       <formula>EXACT(TEXT(L10,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:J12">
-    <cfRule type="expression" dxfId="90" priority="83">
+    <cfRule type="expression" dxfId="87" priority="83">
       <formula>EXACT(TEXT(E12,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="89" priority="82">
+    <cfRule type="expression" dxfId="86" priority="82">
       <formula>EXACT(TEXT(B12,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="88" priority="81">
+    <cfRule type="expression" dxfId="85" priority="81">
       <formula>EXACT(TEXT(L12,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="87" priority="80">
+    <cfRule type="expression" dxfId="84" priority="80">
       <formula>EXACT(TEXT(B14,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:J14">
-    <cfRule type="expression" dxfId="86" priority="79">
+    <cfRule type="expression" dxfId="83" priority="79">
       <formula>EXACT(TEXT(E14,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="85" priority="78">
+    <cfRule type="expression" dxfId="82" priority="78">
       <formula>EXACT(TEXT(L14,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="84" priority="77">
+    <cfRule type="expression" dxfId="81" priority="77">
       <formula>EXACT(TEXT(B16,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:J16">
-    <cfRule type="expression" dxfId="83" priority="76">
+    <cfRule type="expression" dxfId="80" priority="76">
       <formula>EXACT(TEXT(F16,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="82" priority="75">
+    <cfRule type="expression" dxfId="79" priority="75">
       <formula>EXACT(TEXT(L16,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="81" priority="74">
+    <cfRule type="expression" dxfId="78" priority="74">
       <formula>EXACT(TEXT(B18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="80" priority="73">
+    <cfRule type="expression" dxfId="77" priority="73">
       <formula>EXACT(TEXT(E18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:J18">
-    <cfRule type="expression" dxfId="79" priority="72">
+    <cfRule type="expression" dxfId="76" priority="72">
       <formula>EXACT(TEXT(F18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="expression" dxfId="78" priority="71">
+    <cfRule type="expression" dxfId="75" priority="71">
       <formula>EXACT(TEXT(L18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="77" priority="70">
+    <cfRule type="expression" dxfId="74" priority="70">
       <formula>EXACT(TEXT(B20,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="76" priority="69">
+    <cfRule type="expression" dxfId="73" priority="69">
       <formula>EXACT(TEXT(E20,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:J20">
-    <cfRule type="expression" dxfId="75" priority="68">
+    <cfRule type="expression" dxfId="72" priority="68">
       <formula>EXACT(TEXT(F20,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="expression" dxfId="74" priority="66">
+    <cfRule type="expression" dxfId="71" priority="66">
       <formula>EXACT(TEXT(L20,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="73" priority="65">
+    <cfRule type="expression" dxfId="70" priority="65">
       <formula>EXACT(TEXT(B22,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="72" priority="64">
+    <cfRule type="expression" dxfId="69" priority="64">
       <formula>EXACT(TEXT(E22,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:J22">
-    <cfRule type="expression" dxfId="71" priority="63">
+    <cfRule type="expression" dxfId="68" priority="63">
       <formula>EXACT(TEXT(F22,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="70" priority="62">
+    <cfRule type="expression" dxfId="67" priority="62">
       <formula>EXACT(TEXT(L22,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="69" priority="61">
+    <cfRule type="expression" dxfId="66" priority="61">
       <formula>EXACT(TEXT(E24,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:J24">
-    <cfRule type="expression" dxfId="68" priority="60">
+    <cfRule type="expression" dxfId="65" priority="60">
       <formula>EXACT(TEXT(F24,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="67" priority="59">
+    <cfRule type="expression" dxfId="64" priority="59">
       <formula>EXACT(TEXT(E26,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:J26">
-    <cfRule type="expression" dxfId="66" priority="58">
+    <cfRule type="expression" dxfId="63" priority="58">
       <formula>EXACT(TEXT(F26,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="65" priority="57">
+    <cfRule type="expression" dxfId="62" priority="57">
       <formula>EXACT(TEXT(B28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="64" priority="56">
+    <cfRule type="expression" dxfId="61" priority="56">
       <formula>EXACT(TEXT(E28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:J28">
-    <cfRule type="expression" dxfId="63" priority="55">
+    <cfRule type="expression" dxfId="60" priority="55">
       <formula>EXACT(TEXT(F28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="expression" dxfId="62" priority="54">
+    <cfRule type="expression" dxfId="59" priority="54">
       <formula>EXACT(TEXT(L28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="61" priority="53">
+    <cfRule type="expression" dxfId="58" priority="53">
       <formula>EXACT(TEXT(B30,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="60" priority="52">
+    <cfRule type="expression" dxfId="57" priority="52">
       <formula>EXACT(TEXT(E30,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:J30">
-    <cfRule type="expression" dxfId="59" priority="51">
+    <cfRule type="expression" dxfId="56" priority="51">
       <formula>EXACT(TEXT(F30,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="58" priority="50">
+    <cfRule type="expression" dxfId="55" priority="50">
       <formula>EXACT(TEXT(L30,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="57" priority="49">
+    <cfRule type="expression" dxfId="54" priority="49">
       <formula>EXACT(TEXT(B33,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="expression" dxfId="56" priority="48">
+    <cfRule type="expression" dxfId="53" priority="48">
       <formula>EXACT(TEXT(L33,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="55" priority="47">
+    <cfRule type="expression" dxfId="52" priority="47">
       <formula>EXACT(TEXT(E33,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:J33">
-    <cfRule type="expression" dxfId="54" priority="46">
+    <cfRule type="expression" dxfId="51" priority="46">
       <formula>EXACT(TEXT(F33,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="53" priority="45">
+    <cfRule type="expression" dxfId="50" priority="45">
       <formula>EXACT(TEXT(B35,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="52" priority="44">
+    <cfRule type="expression" dxfId="49" priority="44">
       <formula>EXACT(TEXT(E35,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:J35">
-    <cfRule type="expression" dxfId="51" priority="43">
+    <cfRule type="expression" dxfId="48" priority="43">
       <formula>EXACT(TEXT(F35,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="50" priority="42">
+    <cfRule type="expression" dxfId="47" priority="42">
       <formula>EXACT(TEXT(L35,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="49" priority="41">
+    <cfRule type="expression" dxfId="46" priority="41">
       <formula>EXACT(TEXT(B37,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="48" priority="40">
+    <cfRule type="expression" dxfId="45" priority="40">
       <formula>EXACT(TEXT(E37,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:J37">
-    <cfRule type="expression" dxfId="47" priority="39">
+    <cfRule type="expression" dxfId="44" priority="39">
       <formula>EXACT(TEXT(F37,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="expression" dxfId="46" priority="38">
+    <cfRule type="expression" dxfId="43" priority="38">
       <formula>EXACT(TEXT(L37,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="45" priority="37">
+    <cfRule type="expression" dxfId="42" priority="37">
       <formula>EXACT(TEXT(B39,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="44" priority="36">
+    <cfRule type="expression" dxfId="41" priority="36">
       <formula>EXACT(TEXT(E39,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:J39">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="40" priority="35">
       <formula>EXACT(TEXT(F39,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39">
-    <cfRule type="expression" dxfId="42" priority="34">
+    <cfRule type="expression" dxfId="39" priority="34">
       <formula>EXACT(TEXT(L39,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="41" priority="33">
+    <cfRule type="expression" dxfId="38" priority="33">
       <formula>EXACT(TEXT(B41,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41">
-    <cfRule type="expression" dxfId="40" priority="32">
+    <cfRule type="expression" dxfId="37" priority="32">
       <formula>EXACT(TEXT(L41,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="39" priority="31">
+    <cfRule type="expression" dxfId="36" priority="31">
       <formula>EXACT(TEXT(E41,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:J41">
-    <cfRule type="expression" dxfId="38" priority="30">
+    <cfRule type="expression" dxfId="35" priority="30">
       <formula>EXACT(TEXT(F41,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>EXACT(TEXT(B43,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="36" priority="28">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>EXACT(TEXT(E43,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:J43">
-    <cfRule type="expression" dxfId="35" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>EXACT(TEXT(F43,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="expression" dxfId="34" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>EXACT(TEXT(L43,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="33" priority="25">
+    <cfRule type="expression" dxfId="30" priority="25">
       <formula>EXACT(TEXT(B45,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="32" priority="24">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>EXACT(TEXT(E45,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:J45">
-    <cfRule type="expression" dxfId="31" priority="23">
+    <cfRule type="expression" dxfId="28" priority="23">
       <formula>EXACT(TEXT(F45,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="expression" dxfId="30" priority="22">
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>EXACT(TEXT(L45,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="29" priority="21">
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>EXACT(TEXT(B47,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>EXACT(TEXT(E47,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:J47">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="24" priority="19">
       <formula>EXACT(TEXT(F47,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="23" priority="18">
       <formula>EXACT(TEXT(L47,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>EXACT(TEXT(E49,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:J49">
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>EXACT(TEXT(F49,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="23" priority="15">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>EXACT(TEXT(E51,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:J51">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>EXACT(TEXT(F51,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>EXACT(TEXT(B53,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>EXACT(TEXT(E53,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53:J53">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>EXACT(TEXT(F53,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53">
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>EXACT(TEXT(L53,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30:P30 N31 N32:P32 N28:O29">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>EXACT(TEXT(N28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>EXACT(TEXT(N27,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>EXACT(TEXT(P27,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>EXACT(TEXT(P28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>EXACT(TEXT(P29,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7658,7 +7628,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>78</v>
@@ -9401,7 +9371,7 @@
         <v>14</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C138" s="49" t="s">
         <v>26</v>
@@ -10894,7 +10864,7 @@
         <v>14</v>
       </c>
       <c r="B246" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C246" s="56" t="s">
         <v>26</v>
@@ -13211,7 +13181,7 @@
     <mergeCell ref="A382:D382"/>
   </mergeCells>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>EXACT(TEXT(B39,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13262,7 +13232,7 @@
       </c>
       <c r="B3" s="38">
         <f ca="1">TODAY()</f>
-        <v>42866</v>
+        <v>42869</v>
       </c>
       <c r="C3" s="3">
         <f>IF(B$9&lt;B2,1,0)</f>
@@ -13275,7 +13245,7 @@
       </c>
       <c r="B4" s="38">
         <f ca="1">B3-1</f>
-        <v>42865</v>
+        <v>42868</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">IF(B$9&lt;B3,1,0)</f>
@@ -13288,7 +13258,7 @@
       </c>
       <c r="B5" s="38">
         <f ca="1">EDATE(B3,-12)</f>
-        <v>42501</v>
+        <v>42504</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">IF(B$9&lt;B5,1,0)</f>
@@ -13301,7 +13271,7 @@
       </c>
       <c r="B6" s="38">
         <f ca="1">EDATE(B3,-24)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">IF(B$9&lt;B6,1,0)</f>
@@ -13314,7 +13284,7 @@
       </c>
       <c r="B7" s="38">
         <f ca="1">EDATE(B3,-36)</f>
-        <v>41770</v>
+        <v>41773</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">IF(B$9&lt;B7,1,0)</f>
@@ -13524,32 +13494,32 @@
     <mergeCell ref="A12:B12"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2 B5:B8 A4 B3 E17 C17 D5:D8 D10:D11 B10">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>EXACT(TEXT(A2,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>EXACT(TEXT(A6,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8 A16">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>EXACT(TEXT(A7,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>EXACT(TEXT(B17,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>EXACT(TEXT(A17,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11 A10">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>EXACT(TEXT(A10,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13980,17 +13950,17 @@
     <mergeCell ref="A14:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2 B5:B10 B3 D5:D12 D14:D15 B12">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>EXACT(TEXT(A2,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A18">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>EXACT(TEXT(A10,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>EXACT(TEXT(A12,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4764,9 +4764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="P17" s="3">
         <f>P16+O21</f>
-        <v>14692.1875</v>
+        <v>15192.1875</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="P20" s="3">
         <f>P17*P19</f>
-        <v>14692.1875</v>
+        <v>15192.1875</v>
       </c>
       <c r="Q20" s="3"/>
     </row>
@@ -5721,11 +5721,12 @@
         <v>152</v>
       </c>
       <c r="O21" s="3">
-        <v>200</v>
+        <f>M21*100</f>
+        <v>700</v>
       </c>
       <c r="P21" s="3">
         <f>P20-O30</f>
-        <v>14691.9375</v>
+        <v>15191.9375</v>
       </c>
       <c r="Q21" s="3"/>
     </row>
@@ -5770,7 +5771,7 @@
       </c>
       <c r="P22" s="3">
         <f>P21*O25</f>
-        <v>3672.984375</v>
+        <v>3797.984375</v>
       </c>
       <c r="Q22" s="3"/>
     </row>
@@ -5816,7 +5817,7 @@
       </c>
       <c r="P23" s="3">
         <f>P21-P22</f>
-        <v>11018.953125</v>
+        <v>11393.953125</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
@@ -5860,7 +5861,7 @@
       </c>
       <c r="P24" s="3">
         <f>P23*O26</f>
-        <v>3305.6859374999999</v>
+        <v>3418.1859374999999</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
@@ -5949,7 +5950,7 @@
       </c>
       <c r="P26" s="3">
         <f>P23-P24</f>
-        <v>7713.2671874999996</v>
+        <v>7975.7671874999996</v>
       </c>
       <c r="Q26" s="3"/>
     </row>
@@ -5993,7 +5994,7 @@
       </c>
       <c r="P27" s="3">
         <f>P23-P24</f>
-        <v>7713.2671874999996</v>
+        <v>7975.7671874999996</v>
       </c>
       <c r="Q27" s="3"/>
     </row>
@@ -6037,7 +6038,7 @@
       </c>
       <c r="P28" s="3">
         <f>P23-P24</f>
-        <v>7713.2671874999996</v>
+        <v>7975.7671874999996</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
@@ -6081,7 +6082,7 @@
       </c>
       <c r="P29" s="3">
         <f>P23-P24</f>
-        <v>7713.2671874999996</v>
+        <v>7975.7671874999996</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="P30" s="3">
         <f>P26*1.01</f>
-        <v>7790.3998593749993</v>
+        <v>8055.5248593749993</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
@@ -6171,7 +6172,7 @@
       </c>
       <c r="P31" s="3">
         <f>IF(M54="yes",P30,P26)</f>
-        <v>7790.3998593749993</v>
+        <v>8055.5248593749993</v>
       </c>
       <c r="Q31" s="3"/>
     </row>

--- a/Authentication.WEB/ExcelConfig/config_file.xlsx
+++ b/Authentication.WEB/ExcelConfig/config_file.xlsx
@@ -1659,7 +1659,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="110">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2725,8 +2765,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="105"/>
-      <tableStyleElement type="headerRow" dxfId="104"/>
+      <tableStyleElement type="wholeTable" dxfId="109"/>
+      <tableStyleElement type="headerRow" dxfId="108"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4747,12 +4787,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B28:B34">
-    <cfRule type="expression" dxfId="103" priority="2">
+    <cfRule type="expression" dxfId="107" priority="2">
       <formula>EXACT(TEXT(B28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="expression" dxfId="102" priority="1">
+    <cfRule type="expression" dxfId="106" priority="1">
       <formula>EXACT(TEXT(B25,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4764,9 +4804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5070,7 +5110,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>2</v>
@@ -5785,7 +5825,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -6268,8 +6308,8 @@
       <c r="G34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>68</v>
+      <c r="H34" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
@@ -6494,8 +6534,8 @@
       <c r="G40" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>68</v>
+      <c r="H40" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
@@ -6788,7 +6828,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="5"/>
       <c r="E48" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" s="8">
         <v>7</v>
@@ -6796,8 +6836,8 @@
       <c r="G48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="8" t="s">
-        <v>68</v>
+      <c r="H48" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -7014,7 +7054,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="5"/>
       <c r="E54" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F54" s="8">
         <v>7</v>
@@ -7022,8 +7062,8 @@
       <c r="G54" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H54" s="8" t="s">
-        <v>68</v>
+      <c r="H54" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -7084,468 +7124,488 @@
       <c r="A56" s="139"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V2:XFD7 S15:XFD15 S11:XFD11 AC1:XFD1 K1:Q1 N12:N24 Q11 Q15 P8:XFD10 Q12:XFD14 P12 P14 Q16:XFD25 O15:O24 P23:P24 P16:P17 P20:P21 O2:O12 P2:P7 A59:J1048576 L59:XFD1048576 L2 L3:M3 L5:M5 B6 E6:J6 B7:J7 L7:M7 B9:J9 L9:M9 B11:J11 L11:M11 B13:J13 L13:M13 B15:J15 L15:M15 E16 B17:J17 N26:XFD26 L17:M17 L19 B21:J21 L21:M21 B23:J23 L23:M23 B25:J25 L25:M25 B24 L24 B27:J27 L27:M27 B26 L26 B29:J29 L29:M29 L31:M31 B31:J32 L32 B34:J34 L34:M34 N33:XFD58 B36:J36 L36:M36 B38:J38 L38:M38 B40:J40 L40:M40 A3:A58 B42:J42 L42:M42 B44:J44 L44:M44 B46:J46 L46:M46 B48:J48 B49:D49 B50:J50 L48:M52 B52:J52 B51:D51 B54:J55 L54:M55 B3:J3 B5:J5 A1:J2 B19:J19 Q27:XFD32">
-    <cfRule type="expression" dxfId="101" priority="102">
+  <conditionalFormatting sqref="V2:XFD7 S15:XFD15 S11:XFD11 AC1:XFD1 K1:Q1 N12:N24 Q11 Q15 P8:XFD10 Q12:XFD14 P12 P14 Q16:XFD25 O15:O24 P23:P24 P16:P17 P20:P21 O2:O12 P2:P7 A59:J1048576 L59:XFD1048576 L2 L3:M3 L5:M5 B6 E6:J6 B7:J7 L7:M7 B9:J9 L9:M9 B11:J11 L11:M11 B13:J13 L13:M13 B15:J15 L15:M15 E16 B17:J17 N26:XFD26 L17:M17 L19 B21:J21 L21:M21 B23:J23 L23:M23 B25:J25 L25:M25 B24 L24 B27:J27 L27:M27 B26 L26 B29:J29 L29:M29 L31:M31 B31:J32 L32 B34:G34 L34:M34 N33:XFD58 B36:J36 L36:M36 B38:J38 L38:M38 B40:G40 L40:M40 A3:A58 B42:J42 L42:M42 B44:J44 L44:M44 B46:J46 L46:M46 B48:G48 B49:D49 B50:J50 L48:M52 B52:J52 B51:D51 B55:J55 L54:M55 B3:J3 B5:J5 A1:J2 B19:J19 Q27:XFD32 B54:G54 I54:J54 I48:J48 I40:J40 I34:J34">
+    <cfRule type="expression" dxfId="105" priority="106">
       <formula>EXACT(TEXT(A1,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="100" priority="100">
+    <cfRule type="expression" dxfId="104" priority="104">
       <formula>EXACT(TEXT(M19,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="99" priority="98">
+    <cfRule type="expression" dxfId="103" priority="102">
       <formula>EXACT(TEXT(M2,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="expression" dxfId="98" priority="97">
+    <cfRule type="expression" dxfId="102" priority="101">
       <formula>EXACT(TEXT(M32,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="expression" dxfId="97" priority="94">
+    <cfRule type="expression" dxfId="101" priority="98">
       <formula>EXACT(TEXT(P18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="expression" dxfId="96" priority="93">
+    <cfRule type="expression" dxfId="100" priority="97">
       <formula>EXACT(TEXT(P25,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:O25">
-    <cfRule type="expression" dxfId="95" priority="92">
+    <cfRule type="expression" dxfId="99" priority="96">
       <formula>EXACT(TEXT(N25,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="94" priority="90">
+    <cfRule type="expression" dxfId="98" priority="94">
       <formula>EXACT(TEXT(L6,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:J8">
-    <cfRule type="expression" dxfId="93" priority="89">
+    <cfRule type="expression" dxfId="97" priority="93">
       <formula>EXACT(TEXT(E8,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="92" priority="88">
+    <cfRule type="expression" dxfId="96" priority="92">
       <formula>EXACT(TEXT(B8,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="91" priority="87">
+    <cfRule type="expression" dxfId="95" priority="91">
       <formula>EXACT(TEXT(L8,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="90" priority="86">
+    <cfRule type="expression" dxfId="94" priority="90">
       <formula>EXACT(TEXT(B10,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:J10">
-    <cfRule type="expression" dxfId="89" priority="85">
+    <cfRule type="expression" dxfId="93" priority="89">
       <formula>EXACT(TEXT(E10,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="88" priority="84">
+    <cfRule type="expression" dxfId="92" priority="88">
       <formula>EXACT(TEXT(L10,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:J12">
-    <cfRule type="expression" dxfId="87" priority="83">
+    <cfRule type="expression" dxfId="91" priority="87">
       <formula>EXACT(TEXT(E12,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="90" priority="86">
       <formula>EXACT(TEXT(B12,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="85" priority="81">
+    <cfRule type="expression" dxfId="89" priority="85">
       <formula>EXACT(TEXT(L12,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="84" priority="80">
+    <cfRule type="expression" dxfId="88" priority="84">
       <formula>EXACT(TEXT(B14,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:J14">
-    <cfRule type="expression" dxfId="83" priority="79">
+    <cfRule type="expression" dxfId="87" priority="83">
       <formula>EXACT(TEXT(E14,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="82" priority="78">
+    <cfRule type="expression" dxfId="86" priority="82">
       <formula>EXACT(TEXT(L14,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="81" priority="77">
+    <cfRule type="expression" dxfId="85" priority="81">
       <formula>EXACT(TEXT(B16,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:J16">
-    <cfRule type="expression" dxfId="80" priority="76">
+    <cfRule type="expression" dxfId="84" priority="80">
       <formula>EXACT(TEXT(F16,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="79" priority="75">
+    <cfRule type="expression" dxfId="83" priority="79">
       <formula>EXACT(TEXT(L16,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="78" priority="74">
+    <cfRule type="expression" dxfId="82" priority="78">
       <formula>EXACT(TEXT(B18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="77" priority="73">
+    <cfRule type="expression" dxfId="81" priority="77">
       <formula>EXACT(TEXT(E18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:J18">
-    <cfRule type="expression" dxfId="76" priority="72">
+    <cfRule type="expression" dxfId="80" priority="76">
       <formula>EXACT(TEXT(F18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="expression" dxfId="75" priority="71">
+    <cfRule type="expression" dxfId="79" priority="75">
       <formula>EXACT(TEXT(L18,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="74" priority="70">
+    <cfRule type="expression" dxfId="78" priority="74">
       <formula>EXACT(TEXT(B20,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="73" priority="69">
+    <cfRule type="expression" dxfId="77" priority="73">
       <formula>EXACT(TEXT(E20,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:J20">
-    <cfRule type="expression" dxfId="72" priority="68">
+    <cfRule type="expression" dxfId="76" priority="72">
       <formula>EXACT(TEXT(F20,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="expression" dxfId="71" priority="66">
+    <cfRule type="expression" dxfId="75" priority="70">
       <formula>EXACT(TEXT(L20,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="70" priority="65">
+    <cfRule type="expression" dxfId="74" priority="69">
       <formula>EXACT(TEXT(B22,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="69" priority="64">
+    <cfRule type="expression" dxfId="73" priority="68">
       <formula>EXACT(TEXT(E22,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:J22">
-    <cfRule type="expression" dxfId="68" priority="63">
+    <cfRule type="expression" dxfId="72" priority="67">
       <formula>EXACT(TEXT(F22,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="67" priority="62">
+    <cfRule type="expression" dxfId="71" priority="66">
       <formula>EXACT(TEXT(L22,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="66" priority="61">
+    <cfRule type="expression" dxfId="70" priority="65">
       <formula>EXACT(TEXT(E24,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:J24">
-    <cfRule type="expression" dxfId="65" priority="60">
+    <cfRule type="expression" dxfId="69" priority="64">
       <formula>EXACT(TEXT(F24,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="64" priority="59">
+    <cfRule type="expression" dxfId="68" priority="63">
       <formula>EXACT(TEXT(E26,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:J26">
-    <cfRule type="expression" dxfId="63" priority="58">
+    <cfRule type="expression" dxfId="67" priority="62">
       <formula>EXACT(TEXT(F26,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="62" priority="57">
+    <cfRule type="expression" dxfId="66" priority="61">
       <formula>EXACT(TEXT(B28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="61" priority="56">
+    <cfRule type="expression" dxfId="65" priority="60">
       <formula>EXACT(TEXT(E28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:J28">
-    <cfRule type="expression" dxfId="60" priority="55">
+    <cfRule type="expression" dxfId="64" priority="59">
       <formula>EXACT(TEXT(F28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="expression" dxfId="59" priority="54">
+    <cfRule type="expression" dxfId="63" priority="58">
       <formula>EXACT(TEXT(L28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="58" priority="53">
+    <cfRule type="expression" dxfId="62" priority="57">
       <formula>EXACT(TEXT(B30,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="57" priority="52">
+    <cfRule type="expression" dxfId="61" priority="56">
       <formula>EXACT(TEXT(E30,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:J30">
-    <cfRule type="expression" dxfId="56" priority="51">
+    <cfRule type="expression" dxfId="60" priority="55">
       <formula>EXACT(TEXT(F30,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="55" priority="50">
+    <cfRule type="expression" dxfId="59" priority="54">
       <formula>EXACT(TEXT(L30,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="54" priority="49">
+    <cfRule type="expression" dxfId="58" priority="53">
       <formula>EXACT(TEXT(B33,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="expression" dxfId="53" priority="48">
+    <cfRule type="expression" dxfId="57" priority="52">
       <formula>EXACT(TEXT(L33,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="52" priority="47">
+    <cfRule type="expression" dxfId="56" priority="51">
       <formula>EXACT(TEXT(E33,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:J33">
-    <cfRule type="expression" dxfId="51" priority="46">
+    <cfRule type="expression" dxfId="55" priority="50">
       <formula>EXACT(TEXT(F33,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="50" priority="45">
+    <cfRule type="expression" dxfId="54" priority="49">
       <formula>EXACT(TEXT(B35,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="49" priority="44">
+    <cfRule type="expression" dxfId="53" priority="48">
       <formula>EXACT(TEXT(E35,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:J35">
-    <cfRule type="expression" dxfId="48" priority="43">
+    <cfRule type="expression" dxfId="52" priority="47">
       <formula>EXACT(TEXT(F35,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="47" priority="42">
+    <cfRule type="expression" dxfId="51" priority="46">
       <formula>EXACT(TEXT(L35,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="46" priority="41">
+    <cfRule type="expression" dxfId="50" priority="45">
       <formula>EXACT(TEXT(B37,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="45" priority="40">
+    <cfRule type="expression" dxfId="49" priority="44">
       <formula>EXACT(TEXT(E37,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:J37">
-    <cfRule type="expression" dxfId="44" priority="39">
+    <cfRule type="expression" dxfId="48" priority="43">
       <formula>EXACT(TEXT(F37,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="expression" dxfId="43" priority="38">
+    <cfRule type="expression" dxfId="47" priority="42">
       <formula>EXACT(TEXT(L37,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="42" priority="37">
+    <cfRule type="expression" dxfId="46" priority="41">
       <formula>EXACT(TEXT(B39,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="41" priority="36">
+    <cfRule type="expression" dxfId="45" priority="40">
       <formula>EXACT(TEXT(E39,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:J39">
-    <cfRule type="expression" dxfId="40" priority="35">
+    <cfRule type="expression" dxfId="44" priority="39">
       <formula>EXACT(TEXT(F39,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39">
-    <cfRule type="expression" dxfId="39" priority="34">
+    <cfRule type="expression" dxfId="43" priority="38">
       <formula>EXACT(TEXT(L39,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="38" priority="33">
+    <cfRule type="expression" dxfId="42" priority="37">
       <formula>EXACT(TEXT(B41,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41">
-    <cfRule type="expression" dxfId="37" priority="32">
+    <cfRule type="expression" dxfId="41" priority="36">
       <formula>EXACT(TEXT(L41,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="36" priority="31">
+    <cfRule type="expression" dxfId="40" priority="35">
       <formula>EXACT(TEXT(E41,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:J41">
-    <cfRule type="expression" dxfId="35" priority="30">
+    <cfRule type="expression" dxfId="39" priority="34">
       <formula>EXACT(TEXT(F41,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="34" priority="29">
+    <cfRule type="expression" dxfId="38" priority="33">
       <formula>EXACT(TEXT(B43,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="37" priority="32">
       <formula>EXACT(TEXT(E43,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:J43">
-    <cfRule type="expression" dxfId="32" priority="27">
+    <cfRule type="expression" dxfId="36" priority="31">
       <formula>EXACT(TEXT(F43,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="expression" dxfId="31" priority="26">
+    <cfRule type="expression" dxfId="35" priority="30">
       <formula>EXACT(TEXT(L43,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="30" priority="25">
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>EXACT(TEXT(B45,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="29" priority="24">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>EXACT(TEXT(E45,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:J45">
-    <cfRule type="expression" dxfId="28" priority="23">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>EXACT(TEXT(F45,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="expression" dxfId="27" priority="22">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>EXACT(TEXT(L45,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="26" priority="21">
+    <cfRule type="expression" dxfId="30" priority="25">
       <formula>EXACT(TEXT(B47,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="25" priority="20">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>EXACT(TEXT(E47,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:J47">
-    <cfRule type="expression" dxfId="24" priority="19">
+    <cfRule type="expression" dxfId="28" priority="23">
       <formula>EXACT(TEXT(F47,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>EXACT(TEXT(L47,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="22" priority="17">
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>EXACT(TEXT(E49,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:J49">
-    <cfRule type="expression" dxfId="21" priority="16">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>EXACT(TEXT(F49,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="20" priority="15">
+    <cfRule type="expression" dxfId="24" priority="19">
       <formula>EXACT(TEXT(E51,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:J51">
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="23" priority="18">
       <formula>EXACT(TEXT(F51,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="18" priority="13">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>EXACT(TEXT(B53,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>EXACT(TEXT(E53,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53:J53">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>EXACT(TEXT(F53,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>EXACT(TEXT(L53,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30:P30 N31 N32:P32 N28:O29">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>EXACT(TEXT(N28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>EXACT(TEXT(N27,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>EXACT(TEXT(P27,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>EXACT(TEXT(P28,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>EXACT(TEXT(P29,"text"),"?")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>EXACT(TEXT(H54,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>EXACT(TEXT(H48,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>EXACT(TEXT(H40,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>EXACT(TEXT(H34,"text"),"?")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H48 H54 H40 M46 M50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M46 M50">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7582,7 +7642,7 @@
           <x14:formula1>
             <xm:f>Lists!$C$30:$C$31</xm:f>
           </x14:formula1>
-          <xm:sqref>M54 M34 M36 H34 H36 M40 M49</xm:sqref>
+          <xm:sqref>M54 M34 M36 M49 H36 M40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
